--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.6.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0F8B16-0693-4DDA-96AA-32CEC4439932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042D73F3-AC0C-4A69-8252-C79CE844C316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="26715" windowHeight="14745" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24750" yWindow="870" windowWidth="20280" windowHeight="20010" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
@@ -2457,9 +2457,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2497,9 +2497,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2532,26 +2532,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2584,26 +2567,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2780,10 +2746,10 @@
   <dimension ref="A1:AMN101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="O93" sqref="O93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9788,44 +9754,1060 @@
       <c r="AML92" s="15"/>
       <c r="AMM92" s="15"/>
     </row>
-    <row r="93" spans="1:1027" ht="105" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+    <row r="93" spans="1:1027" s="20" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G93" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H93" s="8" t="s">
+      <c r="G93" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H93" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="I93" s="3"/>
-      <c r="J93" s="9" t="s">
+      <c r="I93" s="22">
+        <v>45170</v>
+      </c>
+      <c r="J93" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="L93" s="10" t="s">
+      <c r="K93" s="19"/>
+      <c r="L93" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="M93" s="10" t="s">
+      <c r="M93" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="O93" s="10" t="s">
-        <v>537</v>
-      </c>
+      <c r="N93" s="15"/>
+      <c r="O93" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="15"/>
+      <c r="T93" s="15"/>
+      <c r="U93" s="15"/>
+      <c r="V93" s="15"/>
+      <c r="W93" s="15"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="15"/>
+      <c r="AA93" s="15"/>
+      <c r="AB93" s="15"/>
+      <c r="AC93" s="15"/>
+      <c r="AD93" s="15"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="15"/>
+      <c r="AH93" s="15"/>
+      <c r="AI93" s="15"/>
+      <c r="AJ93" s="15"/>
+      <c r="AK93" s="15"/>
+      <c r="AL93" s="15"/>
+      <c r="AM93" s="15"/>
+      <c r="AN93" s="15"/>
+      <c r="AO93" s="15"/>
+      <c r="AP93" s="15"/>
+      <c r="AQ93" s="15"/>
+      <c r="AR93" s="15"/>
+      <c r="AS93" s="15"/>
+      <c r="AT93" s="15"/>
+      <c r="AU93" s="15"/>
+      <c r="AV93" s="15"/>
+      <c r="AW93" s="15"/>
+      <c r="AX93" s="15"/>
+      <c r="AY93" s="15"/>
+      <c r="AZ93" s="15"/>
+      <c r="BA93" s="15"/>
+      <c r="BB93" s="15"/>
+      <c r="BC93" s="15"/>
+      <c r="BD93" s="15"/>
+      <c r="BE93" s="15"/>
+      <c r="BF93" s="15"/>
+      <c r="BG93" s="15"/>
+      <c r="BH93" s="15"/>
+      <c r="BI93" s="15"/>
+      <c r="BJ93" s="15"/>
+      <c r="BK93" s="15"/>
+      <c r="BL93" s="15"/>
+      <c r="BM93" s="15"/>
+      <c r="BN93" s="15"/>
+      <c r="BO93" s="15"/>
+      <c r="BP93" s="15"/>
+      <c r="BQ93" s="15"/>
+      <c r="BR93" s="15"/>
+      <c r="BS93" s="15"/>
+      <c r="BT93" s="15"/>
+      <c r="BU93" s="15"/>
+      <c r="BV93" s="15"/>
+      <c r="BW93" s="15"/>
+      <c r="BX93" s="15"/>
+      <c r="BY93" s="15"/>
+      <c r="BZ93" s="15"/>
+      <c r="CA93" s="15"/>
+      <c r="CB93" s="15"/>
+      <c r="CC93" s="15"/>
+      <c r="CD93" s="15"/>
+      <c r="CE93" s="15"/>
+      <c r="CF93" s="15"/>
+      <c r="CG93" s="15"/>
+      <c r="CH93" s="15"/>
+      <c r="CI93" s="15"/>
+      <c r="CJ93" s="15"/>
+      <c r="CK93" s="15"/>
+      <c r="CL93" s="15"/>
+      <c r="CM93" s="15"/>
+      <c r="CN93" s="15"/>
+      <c r="CO93" s="15"/>
+      <c r="CP93" s="15"/>
+      <c r="CQ93" s="15"/>
+      <c r="CR93" s="15"/>
+      <c r="CS93" s="15"/>
+      <c r="CT93" s="15"/>
+      <c r="CU93" s="15"/>
+      <c r="CV93" s="15"/>
+      <c r="CW93" s="15"/>
+      <c r="CX93" s="15"/>
+      <c r="CY93" s="15"/>
+      <c r="CZ93" s="15"/>
+      <c r="DA93" s="15"/>
+      <c r="DB93" s="15"/>
+      <c r="DC93" s="15"/>
+      <c r="DD93" s="15"/>
+      <c r="DE93" s="15"/>
+      <c r="DF93" s="15"/>
+      <c r="DG93" s="15"/>
+      <c r="DH93" s="15"/>
+      <c r="DI93" s="15"/>
+      <c r="DJ93" s="15"/>
+      <c r="DK93" s="15"/>
+      <c r="DL93" s="15"/>
+      <c r="DM93" s="15"/>
+      <c r="DN93" s="15"/>
+      <c r="DO93" s="15"/>
+      <c r="DP93" s="15"/>
+      <c r="DQ93" s="15"/>
+      <c r="DR93" s="15"/>
+      <c r="DS93" s="15"/>
+      <c r="DT93" s="15"/>
+      <c r="DU93" s="15"/>
+      <c r="DV93" s="15"/>
+      <c r="DW93" s="15"/>
+      <c r="DX93" s="15"/>
+      <c r="DY93" s="15"/>
+      <c r="DZ93" s="15"/>
+      <c r="EA93" s="15"/>
+      <c r="EB93" s="15"/>
+      <c r="EC93" s="15"/>
+      <c r="ED93" s="15"/>
+      <c r="EE93" s="15"/>
+      <c r="EF93" s="15"/>
+      <c r="EG93" s="15"/>
+      <c r="EH93" s="15"/>
+      <c r="EI93" s="15"/>
+      <c r="EJ93" s="15"/>
+      <c r="EK93" s="15"/>
+      <c r="EL93" s="15"/>
+      <c r="EM93" s="15"/>
+      <c r="EN93" s="15"/>
+      <c r="EO93" s="15"/>
+      <c r="EP93" s="15"/>
+      <c r="EQ93" s="15"/>
+      <c r="ER93" s="15"/>
+      <c r="ES93" s="15"/>
+      <c r="ET93" s="15"/>
+      <c r="EU93" s="15"/>
+      <c r="EV93" s="15"/>
+      <c r="EW93" s="15"/>
+      <c r="EX93" s="15"/>
+      <c r="EY93" s="15"/>
+      <c r="EZ93" s="15"/>
+      <c r="FA93" s="15"/>
+      <c r="FB93" s="15"/>
+      <c r="FC93" s="15"/>
+      <c r="FD93" s="15"/>
+      <c r="FE93" s="15"/>
+      <c r="FF93" s="15"/>
+      <c r="FG93" s="15"/>
+      <c r="FH93" s="15"/>
+      <c r="FI93" s="15"/>
+      <c r="FJ93" s="15"/>
+      <c r="FK93" s="15"/>
+      <c r="FL93" s="15"/>
+      <c r="FM93" s="15"/>
+      <c r="FN93" s="15"/>
+      <c r="FO93" s="15"/>
+      <c r="FP93" s="15"/>
+      <c r="FQ93" s="15"/>
+      <c r="FR93" s="15"/>
+      <c r="FS93" s="15"/>
+      <c r="FT93" s="15"/>
+      <c r="FU93" s="15"/>
+      <c r="FV93" s="15"/>
+      <c r="FW93" s="15"/>
+      <c r="FX93" s="15"/>
+      <c r="FY93" s="15"/>
+      <c r="FZ93" s="15"/>
+      <c r="GA93" s="15"/>
+      <c r="GB93" s="15"/>
+      <c r="GC93" s="15"/>
+      <c r="GD93" s="15"/>
+      <c r="GE93" s="15"/>
+      <c r="GF93" s="15"/>
+      <c r="GG93" s="15"/>
+      <c r="GH93" s="15"/>
+      <c r="GI93" s="15"/>
+      <c r="GJ93" s="15"/>
+      <c r="GK93" s="15"/>
+      <c r="GL93" s="15"/>
+      <c r="GM93" s="15"/>
+      <c r="GN93" s="15"/>
+      <c r="GO93" s="15"/>
+      <c r="GP93" s="15"/>
+      <c r="GQ93" s="15"/>
+      <c r="GR93" s="15"/>
+      <c r="GS93" s="15"/>
+      <c r="GT93" s="15"/>
+      <c r="GU93" s="15"/>
+      <c r="GV93" s="15"/>
+      <c r="GW93" s="15"/>
+      <c r="GX93" s="15"/>
+      <c r="GY93" s="15"/>
+      <c r="GZ93" s="15"/>
+      <c r="HA93" s="15"/>
+      <c r="HB93" s="15"/>
+      <c r="HC93" s="15"/>
+      <c r="HD93" s="15"/>
+      <c r="HE93" s="15"/>
+      <c r="HF93" s="15"/>
+      <c r="HG93" s="15"/>
+      <c r="HH93" s="15"/>
+      <c r="HI93" s="15"/>
+      <c r="HJ93" s="15"/>
+      <c r="HK93" s="15"/>
+      <c r="HL93" s="15"/>
+      <c r="HM93" s="15"/>
+      <c r="HN93" s="15"/>
+      <c r="HO93" s="15"/>
+      <c r="HP93" s="15"/>
+      <c r="HQ93" s="15"/>
+      <c r="HR93" s="15"/>
+      <c r="HS93" s="15"/>
+      <c r="HT93" s="15"/>
+      <c r="HU93" s="15"/>
+      <c r="HV93" s="15"/>
+      <c r="HW93" s="15"/>
+      <c r="HX93" s="15"/>
+      <c r="HY93" s="15"/>
+      <c r="HZ93" s="15"/>
+      <c r="IA93" s="15"/>
+      <c r="IB93" s="15"/>
+      <c r="IC93" s="15"/>
+      <c r="ID93" s="15"/>
+      <c r="IE93" s="15"/>
+      <c r="IF93" s="15"/>
+      <c r="IG93" s="15"/>
+      <c r="IH93" s="15"/>
+      <c r="II93" s="15"/>
+      <c r="IJ93" s="15"/>
+      <c r="IK93" s="15"/>
+      <c r="IL93" s="15"/>
+      <c r="IM93" s="15"/>
+      <c r="IN93" s="15"/>
+      <c r="IO93" s="15"/>
+      <c r="IP93" s="15"/>
+      <c r="IQ93" s="15"/>
+      <c r="IR93" s="15"/>
+      <c r="IS93" s="15"/>
+      <c r="IT93" s="15"/>
+      <c r="IU93" s="15"/>
+      <c r="IV93" s="15"/>
+      <c r="IW93" s="15"/>
+      <c r="IX93" s="15"/>
+      <c r="IY93" s="15"/>
+      <c r="IZ93" s="15"/>
+      <c r="JA93" s="15"/>
+      <c r="JB93" s="15"/>
+      <c r="JC93" s="15"/>
+      <c r="JD93" s="15"/>
+      <c r="JE93" s="15"/>
+      <c r="JF93" s="15"/>
+      <c r="JG93" s="15"/>
+      <c r="JH93" s="15"/>
+      <c r="JI93" s="15"/>
+      <c r="JJ93" s="15"/>
+      <c r="JK93" s="15"/>
+      <c r="JL93" s="15"/>
+      <c r="JM93" s="15"/>
+      <c r="JN93" s="15"/>
+      <c r="JO93" s="15"/>
+      <c r="JP93" s="15"/>
+      <c r="JQ93" s="15"/>
+      <c r="JR93" s="15"/>
+      <c r="JS93" s="15"/>
+      <c r="JT93" s="15"/>
+      <c r="JU93" s="15"/>
+      <c r="JV93" s="15"/>
+      <c r="JW93" s="15"/>
+      <c r="JX93" s="15"/>
+      <c r="JY93" s="15"/>
+      <c r="JZ93" s="15"/>
+      <c r="KA93" s="15"/>
+      <c r="KB93" s="15"/>
+      <c r="KC93" s="15"/>
+      <c r="KD93" s="15"/>
+      <c r="KE93" s="15"/>
+      <c r="KF93" s="15"/>
+      <c r="KG93" s="15"/>
+      <c r="KH93" s="15"/>
+      <c r="KI93" s="15"/>
+      <c r="KJ93" s="15"/>
+      <c r="KK93" s="15"/>
+      <c r="KL93" s="15"/>
+      <c r="KM93" s="15"/>
+      <c r="KN93" s="15"/>
+      <c r="KO93" s="15"/>
+      <c r="KP93" s="15"/>
+      <c r="KQ93" s="15"/>
+      <c r="KR93" s="15"/>
+      <c r="KS93" s="15"/>
+      <c r="KT93" s="15"/>
+      <c r="KU93" s="15"/>
+      <c r="KV93" s="15"/>
+      <c r="KW93" s="15"/>
+      <c r="KX93" s="15"/>
+      <c r="KY93" s="15"/>
+      <c r="KZ93" s="15"/>
+      <c r="LA93" s="15"/>
+      <c r="LB93" s="15"/>
+      <c r="LC93" s="15"/>
+      <c r="LD93" s="15"/>
+      <c r="LE93" s="15"/>
+      <c r="LF93" s="15"/>
+      <c r="LG93" s="15"/>
+      <c r="LH93" s="15"/>
+      <c r="LI93" s="15"/>
+      <c r="LJ93" s="15"/>
+      <c r="LK93" s="15"/>
+      <c r="LL93" s="15"/>
+      <c r="LM93" s="15"/>
+      <c r="LN93" s="15"/>
+      <c r="LO93" s="15"/>
+      <c r="LP93" s="15"/>
+      <c r="LQ93" s="15"/>
+      <c r="LR93" s="15"/>
+      <c r="LS93" s="15"/>
+      <c r="LT93" s="15"/>
+      <c r="LU93" s="15"/>
+      <c r="LV93" s="15"/>
+      <c r="LW93" s="15"/>
+      <c r="LX93" s="15"/>
+      <c r="LY93" s="15"/>
+      <c r="LZ93" s="15"/>
+      <c r="MA93" s="15"/>
+      <c r="MB93" s="15"/>
+      <c r="MC93" s="15"/>
+      <c r="MD93" s="15"/>
+      <c r="ME93" s="15"/>
+      <c r="MF93" s="15"/>
+      <c r="MG93" s="15"/>
+      <c r="MH93" s="15"/>
+      <c r="MI93" s="15"/>
+      <c r="MJ93" s="15"/>
+      <c r="MK93" s="15"/>
+      <c r="ML93" s="15"/>
+      <c r="MM93" s="15"/>
+      <c r="MN93" s="15"/>
+      <c r="MO93" s="15"/>
+      <c r="MP93" s="15"/>
+      <c r="MQ93" s="15"/>
+      <c r="MR93" s="15"/>
+      <c r="MS93" s="15"/>
+      <c r="MT93" s="15"/>
+      <c r="MU93" s="15"/>
+      <c r="MV93" s="15"/>
+      <c r="MW93" s="15"/>
+      <c r="MX93" s="15"/>
+      <c r="MY93" s="15"/>
+      <c r="MZ93" s="15"/>
+      <c r="NA93" s="15"/>
+      <c r="NB93" s="15"/>
+      <c r="NC93" s="15"/>
+      <c r="ND93" s="15"/>
+      <c r="NE93" s="15"/>
+      <c r="NF93" s="15"/>
+      <c r="NG93" s="15"/>
+      <c r="NH93" s="15"/>
+      <c r="NI93" s="15"/>
+      <c r="NJ93" s="15"/>
+      <c r="NK93" s="15"/>
+      <c r="NL93" s="15"/>
+      <c r="NM93" s="15"/>
+      <c r="NN93" s="15"/>
+      <c r="NO93" s="15"/>
+      <c r="NP93" s="15"/>
+      <c r="NQ93" s="15"/>
+      <c r="NR93" s="15"/>
+      <c r="NS93" s="15"/>
+      <c r="NT93" s="15"/>
+      <c r="NU93" s="15"/>
+      <c r="NV93" s="15"/>
+      <c r="NW93" s="15"/>
+      <c r="NX93" s="15"/>
+      <c r="NY93" s="15"/>
+      <c r="NZ93" s="15"/>
+      <c r="OA93" s="15"/>
+      <c r="OB93" s="15"/>
+      <c r="OC93" s="15"/>
+      <c r="OD93" s="15"/>
+      <c r="OE93" s="15"/>
+      <c r="OF93" s="15"/>
+      <c r="OG93" s="15"/>
+      <c r="OH93" s="15"/>
+      <c r="OI93" s="15"/>
+      <c r="OJ93" s="15"/>
+      <c r="OK93" s="15"/>
+      <c r="OL93" s="15"/>
+      <c r="OM93" s="15"/>
+      <c r="ON93" s="15"/>
+      <c r="OO93" s="15"/>
+      <c r="OP93" s="15"/>
+      <c r="OQ93" s="15"/>
+      <c r="OR93" s="15"/>
+      <c r="OS93" s="15"/>
+      <c r="OT93" s="15"/>
+      <c r="OU93" s="15"/>
+      <c r="OV93" s="15"/>
+      <c r="OW93" s="15"/>
+      <c r="OX93" s="15"/>
+      <c r="OY93" s="15"/>
+      <c r="OZ93" s="15"/>
+      <c r="PA93" s="15"/>
+      <c r="PB93" s="15"/>
+      <c r="PC93" s="15"/>
+      <c r="PD93" s="15"/>
+      <c r="PE93" s="15"/>
+      <c r="PF93" s="15"/>
+      <c r="PG93" s="15"/>
+      <c r="PH93" s="15"/>
+      <c r="PI93" s="15"/>
+      <c r="PJ93" s="15"/>
+      <c r="PK93" s="15"/>
+      <c r="PL93" s="15"/>
+      <c r="PM93" s="15"/>
+      <c r="PN93" s="15"/>
+      <c r="PO93" s="15"/>
+      <c r="PP93" s="15"/>
+      <c r="PQ93" s="15"/>
+      <c r="PR93" s="15"/>
+      <c r="PS93" s="15"/>
+      <c r="PT93" s="15"/>
+      <c r="PU93" s="15"/>
+      <c r="PV93" s="15"/>
+      <c r="PW93" s="15"/>
+      <c r="PX93" s="15"/>
+      <c r="PY93" s="15"/>
+      <c r="PZ93" s="15"/>
+      <c r="QA93" s="15"/>
+      <c r="QB93" s="15"/>
+      <c r="QC93" s="15"/>
+      <c r="QD93" s="15"/>
+      <c r="QE93" s="15"/>
+      <c r="QF93" s="15"/>
+      <c r="QG93" s="15"/>
+      <c r="QH93" s="15"/>
+      <c r="QI93" s="15"/>
+      <c r="QJ93" s="15"/>
+      <c r="QK93" s="15"/>
+      <c r="QL93" s="15"/>
+      <c r="QM93" s="15"/>
+      <c r="QN93" s="15"/>
+      <c r="QO93" s="15"/>
+      <c r="QP93" s="15"/>
+      <c r="QQ93" s="15"/>
+      <c r="QR93" s="15"/>
+      <c r="QS93" s="15"/>
+      <c r="QT93" s="15"/>
+      <c r="QU93" s="15"/>
+      <c r="QV93" s="15"/>
+      <c r="QW93" s="15"/>
+      <c r="QX93" s="15"/>
+      <c r="QY93" s="15"/>
+      <c r="QZ93" s="15"/>
+      <c r="RA93" s="15"/>
+      <c r="RB93" s="15"/>
+      <c r="RC93" s="15"/>
+      <c r="RD93" s="15"/>
+      <c r="RE93" s="15"/>
+      <c r="RF93" s="15"/>
+      <c r="RG93" s="15"/>
+      <c r="RH93" s="15"/>
+      <c r="RI93" s="15"/>
+      <c r="RJ93" s="15"/>
+      <c r="RK93" s="15"/>
+      <c r="RL93" s="15"/>
+      <c r="RM93" s="15"/>
+      <c r="RN93" s="15"/>
+      <c r="RO93" s="15"/>
+      <c r="RP93" s="15"/>
+      <c r="RQ93" s="15"/>
+      <c r="RR93" s="15"/>
+      <c r="RS93" s="15"/>
+      <c r="RT93" s="15"/>
+      <c r="RU93" s="15"/>
+      <c r="RV93" s="15"/>
+      <c r="RW93" s="15"/>
+      <c r="RX93" s="15"/>
+      <c r="RY93" s="15"/>
+      <c r="RZ93" s="15"/>
+      <c r="SA93" s="15"/>
+      <c r="SB93" s="15"/>
+      <c r="SC93" s="15"/>
+      <c r="SD93" s="15"/>
+      <c r="SE93" s="15"/>
+      <c r="SF93" s="15"/>
+      <c r="SG93" s="15"/>
+      <c r="SH93" s="15"/>
+      <c r="SI93" s="15"/>
+      <c r="SJ93" s="15"/>
+      <c r="SK93" s="15"/>
+      <c r="SL93" s="15"/>
+      <c r="SM93" s="15"/>
+      <c r="SN93" s="15"/>
+      <c r="SO93" s="15"/>
+      <c r="SP93" s="15"/>
+      <c r="SQ93" s="15"/>
+      <c r="SR93" s="15"/>
+      <c r="SS93" s="15"/>
+      <c r="ST93" s="15"/>
+      <c r="SU93" s="15"/>
+      <c r="SV93" s="15"/>
+      <c r="SW93" s="15"/>
+      <c r="SX93" s="15"/>
+      <c r="SY93" s="15"/>
+      <c r="SZ93" s="15"/>
+      <c r="TA93" s="15"/>
+      <c r="TB93" s="15"/>
+      <c r="TC93" s="15"/>
+      <c r="TD93" s="15"/>
+      <c r="TE93" s="15"/>
+      <c r="TF93" s="15"/>
+      <c r="TG93" s="15"/>
+      <c r="TH93" s="15"/>
+      <c r="TI93" s="15"/>
+      <c r="TJ93" s="15"/>
+      <c r="TK93" s="15"/>
+      <c r="TL93" s="15"/>
+      <c r="TM93" s="15"/>
+      <c r="TN93" s="15"/>
+      <c r="TO93" s="15"/>
+      <c r="TP93" s="15"/>
+      <c r="TQ93" s="15"/>
+      <c r="TR93" s="15"/>
+      <c r="TS93" s="15"/>
+      <c r="TT93" s="15"/>
+      <c r="TU93" s="15"/>
+      <c r="TV93" s="15"/>
+      <c r="TW93" s="15"/>
+      <c r="TX93" s="15"/>
+      <c r="TY93" s="15"/>
+      <c r="TZ93" s="15"/>
+      <c r="UA93" s="15"/>
+      <c r="UB93" s="15"/>
+      <c r="UC93" s="15"/>
+      <c r="UD93" s="15"/>
+      <c r="UE93" s="15"/>
+      <c r="UF93" s="15"/>
+      <c r="UG93" s="15"/>
+      <c r="UH93" s="15"/>
+      <c r="UI93" s="15"/>
+      <c r="UJ93" s="15"/>
+      <c r="UK93" s="15"/>
+      <c r="UL93" s="15"/>
+      <c r="UM93" s="15"/>
+      <c r="UN93" s="15"/>
+      <c r="UO93" s="15"/>
+      <c r="UP93" s="15"/>
+      <c r="UQ93" s="15"/>
+      <c r="UR93" s="15"/>
+      <c r="US93" s="15"/>
+      <c r="UT93" s="15"/>
+      <c r="UU93" s="15"/>
+      <c r="UV93" s="15"/>
+      <c r="UW93" s="15"/>
+      <c r="UX93" s="15"/>
+      <c r="UY93" s="15"/>
+      <c r="UZ93" s="15"/>
+      <c r="VA93" s="15"/>
+      <c r="VB93" s="15"/>
+      <c r="VC93" s="15"/>
+      <c r="VD93" s="15"/>
+      <c r="VE93" s="15"/>
+      <c r="VF93" s="15"/>
+      <c r="VG93" s="15"/>
+      <c r="VH93" s="15"/>
+      <c r="VI93" s="15"/>
+      <c r="VJ93" s="15"/>
+      <c r="VK93" s="15"/>
+      <c r="VL93" s="15"/>
+      <c r="VM93" s="15"/>
+      <c r="VN93" s="15"/>
+      <c r="VO93" s="15"/>
+      <c r="VP93" s="15"/>
+      <c r="VQ93" s="15"/>
+      <c r="VR93" s="15"/>
+      <c r="VS93" s="15"/>
+      <c r="VT93" s="15"/>
+      <c r="VU93" s="15"/>
+      <c r="VV93" s="15"/>
+      <c r="VW93" s="15"/>
+      <c r="VX93" s="15"/>
+      <c r="VY93" s="15"/>
+      <c r="VZ93" s="15"/>
+      <c r="WA93" s="15"/>
+      <c r="WB93" s="15"/>
+      <c r="WC93" s="15"/>
+      <c r="WD93" s="15"/>
+      <c r="WE93" s="15"/>
+      <c r="WF93" s="15"/>
+      <c r="WG93" s="15"/>
+      <c r="WH93" s="15"/>
+      <c r="WI93" s="15"/>
+      <c r="WJ93" s="15"/>
+      <c r="WK93" s="15"/>
+      <c r="WL93" s="15"/>
+      <c r="WM93" s="15"/>
+      <c r="WN93" s="15"/>
+      <c r="WO93" s="15"/>
+      <c r="WP93" s="15"/>
+      <c r="WQ93" s="15"/>
+      <c r="WR93" s="15"/>
+      <c r="WS93" s="15"/>
+      <c r="WT93" s="15"/>
+      <c r="WU93" s="15"/>
+      <c r="WV93" s="15"/>
+      <c r="WW93" s="15"/>
+      <c r="WX93" s="15"/>
+      <c r="WY93" s="15"/>
+      <c r="WZ93" s="15"/>
+      <c r="XA93" s="15"/>
+      <c r="XB93" s="15"/>
+      <c r="XC93" s="15"/>
+      <c r="XD93" s="15"/>
+      <c r="XE93" s="15"/>
+      <c r="XF93" s="15"/>
+      <c r="XG93" s="15"/>
+      <c r="XH93" s="15"/>
+      <c r="XI93" s="15"/>
+      <c r="XJ93" s="15"/>
+      <c r="XK93" s="15"/>
+      <c r="XL93" s="15"/>
+      <c r="XM93" s="15"/>
+      <c r="XN93" s="15"/>
+      <c r="XO93" s="15"/>
+      <c r="XP93" s="15"/>
+      <c r="XQ93" s="15"/>
+      <c r="XR93" s="15"/>
+      <c r="XS93" s="15"/>
+      <c r="XT93" s="15"/>
+      <c r="XU93" s="15"/>
+      <c r="XV93" s="15"/>
+      <c r="XW93" s="15"/>
+      <c r="XX93" s="15"/>
+      <c r="XY93" s="15"/>
+      <c r="XZ93" s="15"/>
+      <c r="YA93" s="15"/>
+      <c r="YB93" s="15"/>
+      <c r="YC93" s="15"/>
+      <c r="YD93" s="15"/>
+      <c r="YE93" s="15"/>
+      <c r="YF93" s="15"/>
+      <c r="YG93" s="15"/>
+      <c r="YH93" s="15"/>
+      <c r="YI93" s="15"/>
+      <c r="YJ93" s="15"/>
+      <c r="YK93" s="15"/>
+      <c r="YL93" s="15"/>
+      <c r="YM93" s="15"/>
+      <c r="YN93" s="15"/>
+      <c r="YO93" s="15"/>
+      <c r="YP93" s="15"/>
+      <c r="YQ93" s="15"/>
+      <c r="YR93" s="15"/>
+      <c r="YS93" s="15"/>
+      <c r="YT93" s="15"/>
+      <c r="YU93" s="15"/>
+      <c r="YV93" s="15"/>
+      <c r="YW93" s="15"/>
+      <c r="YX93" s="15"/>
+      <c r="YY93" s="15"/>
+      <c r="YZ93" s="15"/>
+      <c r="ZA93" s="15"/>
+      <c r="ZB93" s="15"/>
+      <c r="ZC93" s="15"/>
+      <c r="ZD93" s="15"/>
+      <c r="ZE93" s="15"/>
+      <c r="ZF93" s="15"/>
+      <c r="ZG93" s="15"/>
+      <c r="ZH93" s="15"/>
+      <c r="ZI93" s="15"/>
+      <c r="ZJ93" s="15"/>
+      <c r="ZK93" s="15"/>
+      <c r="ZL93" s="15"/>
+      <c r="ZM93" s="15"/>
+      <c r="ZN93" s="15"/>
+      <c r="ZO93" s="15"/>
+      <c r="ZP93" s="15"/>
+      <c r="ZQ93" s="15"/>
+      <c r="ZR93" s="15"/>
+      <c r="ZS93" s="15"/>
+      <c r="ZT93" s="15"/>
+      <c r="ZU93" s="15"/>
+      <c r="ZV93" s="15"/>
+      <c r="ZW93" s="15"/>
+      <c r="ZX93" s="15"/>
+      <c r="ZY93" s="15"/>
+      <c r="ZZ93" s="15"/>
+      <c r="AAA93" s="15"/>
+      <c r="AAB93" s="15"/>
+      <c r="AAC93" s="15"/>
+      <c r="AAD93" s="15"/>
+      <c r="AAE93" s="15"/>
+      <c r="AAF93" s="15"/>
+      <c r="AAG93" s="15"/>
+      <c r="AAH93" s="15"/>
+      <c r="AAI93" s="15"/>
+      <c r="AAJ93" s="15"/>
+      <c r="AAK93" s="15"/>
+      <c r="AAL93" s="15"/>
+      <c r="AAM93" s="15"/>
+      <c r="AAN93" s="15"/>
+      <c r="AAO93" s="15"/>
+      <c r="AAP93" s="15"/>
+      <c r="AAQ93" s="15"/>
+      <c r="AAR93" s="15"/>
+      <c r="AAS93" s="15"/>
+      <c r="AAT93" s="15"/>
+      <c r="AAU93" s="15"/>
+      <c r="AAV93" s="15"/>
+      <c r="AAW93" s="15"/>
+      <c r="AAX93" s="15"/>
+      <c r="AAY93" s="15"/>
+      <c r="AAZ93" s="15"/>
+      <c r="ABA93" s="15"/>
+      <c r="ABB93" s="15"/>
+      <c r="ABC93" s="15"/>
+      <c r="ABD93" s="15"/>
+      <c r="ABE93" s="15"/>
+      <c r="ABF93" s="15"/>
+      <c r="ABG93" s="15"/>
+      <c r="ABH93" s="15"/>
+      <c r="ABI93" s="15"/>
+      <c r="ABJ93" s="15"/>
+      <c r="ABK93" s="15"/>
+      <c r="ABL93" s="15"/>
+      <c r="ABM93" s="15"/>
+      <c r="ABN93" s="15"/>
+      <c r="ABO93" s="15"/>
+      <c r="ABP93" s="15"/>
+      <c r="ABQ93" s="15"/>
+      <c r="ABR93" s="15"/>
+      <c r="ABS93" s="15"/>
+      <c r="ABT93" s="15"/>
+      <c r="ABU93" s="15"/>
+      <c r="ABV93" s="15"/>
+      <c r="ABW93" s="15"/>
+      <c r="ABX93" s="15"/>
+      <c r="ABY93" s="15"/>
+      <c r="ABZ93" s="15"/>
+      <c r="ACA93" s="15"/>
+      <c r="ACB93" s="15"/>
+      <c r="ACC93" s="15"/>
+      <c r="ACD93" s="15"/>
+      <c r="ACE93" s="15"/>
+      <c r="ACF93" s="15"/>
+      <c r="ACG93" s="15"/>
+      <c r="ACH93" s="15"/>
+      <c r="ACI93" s="15"/>
+      <c r="ACJ93" s="15"/>
+      <c r="ACK93" s="15"/>
+      <c r="ACL93" s="15"/>
+      <c r="ACM93" s="15"/>
+      <c r="ACN93" s="15"/>
+      <c r="ACO93" s="15"/>
+      <c r="ACP93" s="15"/>
+      <c r="ACQ93" s="15"/>
+      <c r="ACR93" s="15"/>
+      <c r="ACS93" s="15"/>
+      <c r="ACT93" s="15"/>
+      <c r="ACU93" s="15"/>
+      <c r="ACV93" s="15"/>
+      <c r="ACW93" s="15"/>
+      <c r="ACX93" s="15"/>
+      <c r="ACY93" s="15"/>
+      <c r="ACZ93" s="15"/>
+      <c r="ADA93" s="15"/>
+      <c r="ADB93" s="15"/>
+      <c r="ADC93" s="15"/>
+      <c r="ADD93" s="15"/>
+      <c r="ADE93" s="15"/>
+      <c r="ADF93" s="15"/>
+      <c r="ADG93" s="15"/>
+      <c r="ADH93" s="15"/>
+      <c r="ADI93" s="15"/>
+      <c r="ADJ93" s="15"/>
+      <c r="ADK93" s="15"/>
+      <c r="ADL93" s="15"/>
+      <c r="ADM93" s="15"/>
+      <c r="ADN93" s="15"/>
+      <c r="ADO93" s="15"/>
+      <c r="ADP93" s="15"/>
+      <c r="ADQ93" s="15"/>
+      <c r="ADR93" s="15"/>
+      <c r="ADS93" s="15"/>
+      <c r="ADT93" s="15"/>
+      <c r="ADU93" s="15"/>
+      <c r="ADV93" s="15"/>
+      <c r="ADW93" s="15"/>
+      <c r="ADX93" s="15"/>
+      <c r="ADY93" s="15"/>
+      <c r="ADZ93" s="15"/>
+      <c r="AEA93" s="15"/>
+      <c r="AEB93" s="15"/>
+      <c r="AEC93" s="15"/>
+      <c r="AED93" s="15"/>
+      <c r="AEE93" s="15"/>
+      <c r="AEF93" s="15"/>
+      <c r="AEG93" s="15"/>
+      <c r="AEH93" s="15"/>
+      <c r="AEI93" s="15"/>
+      <c r="AEJ93" s="15"/>
+      <c r="AEK93" s="15"/>
+      <c r="AEL93" s="15"/>
+      <c r="AEM93" s="15"/>
+      <c r="AEN93" s="15"/>
+      <c r="AEO93" s="15"/>
+      <c r="AEP93" s="15"/>
+      <c r="AEQ93" s="15"/>
+      <c r="AER93" s="15"/>
+      <c r="AES93" s="15"/>
+      <c r="AET93" s="15"/>
+      <c r="AEU93" s="15"/>
+      <c r="AEV93" s="15"/>
+      <c r="AEW93" s="15"/>
+      <c r="AEX93" s="15"/>
+      <c r="AEY93" s="15"/>
+      <c r="AEZ93" s="15"/>
+      <c r="AFA93" s="15"/>
+      <c r="AFB93" s="15"/>
+      <c r="AFC93" s="15"/>
+      <c r="AFD93" s="15"/>
+      <c r="AFE93" s="15"/>
+      <c r="AFF93" s="15"/>
+      <c r="AFG93" s="15"/>
+      <c r="AFH93" s="15"/>
+      <c r="AFI93" s="15"/>
+      <c r="AFJ93" s="15"/>
+      <c r="AFK93" s="15"/>
+      <c r="AFL93" s="15"/>
+      <c r="AFM93" s="15"/>
+      <c r="AFN93" s="15"/>
+      <c r="AFO93" s="15"/>
+      <c r="AFP93" s="15"/>
+      <c r="AFQ93" s="15"/>
+      <c r="AFR93" s="15"/>
+      <c r="AFS93" s="15"/>
+      <c r="AFT93" s="15"/>
+      <c r="AFU93" s="15"/>
+      <c r="AFV93" s="15"/>
+      <c r="AFW93" s="15"/>
+      <c r="AFX93" s="15"/>
+      <c r="AFY93" s="15"/>
+      <c r="AFZ93" s="15"/>
+      <c r="AGA93" s="15"/>
+      <c r="AGB93" s="15"/>
+      <c r="AGC93" s="15"/>
+      <c r="AGD93" s="15"/>
+      <c r="AGE93" s="15"/>
+      <c r="AGF93" s="15"/>
+      <c r="AGG93" s="15"/>
+      <c r="AGH93" s="15"/>
+      <c r="AGI93" s="15"/>
+      <c r="AGJ93" s="15"/>
+      <c r="AGK93" s="15"/>
+      <c r="AGL93" s="15"/>
+      <c r="AGM93" s="15"/>
+      <c r="AGN93" s="15"/>
+      <c r="AGO93" s="15"/>
+      <c r="AGP93" s="15"/>
+      <c r="AGQ93" s="15"/>
+      <c r="AGR93" s="15"/>
+      <c r="AGS93" s="15"/>
+      <c r="AGT93" s="15"/>
+      <c r="AGU93" s="15"/>
+      <c r="AGV93" s="15"/>
+      <c r="AGW93" s="15"/>
+      <c r="AGX93" s="15"/>
+      <c r="AGY93" s="15"/>
+      <c r="AGZ93" s="15"/>
+      <c r="AHA93" s="15"/>
+      <c r="AHB93" s="15"/>
+      <c r="AHC93" s="15"/>
+      <c r="AHD93" s="15"/>
+      <c r="AHE93" s="15"/>
+      <c r="AHF93" s="15"/>
+      <c r="AHG93" s="15"/>
+      <c r="AHH93" s="15"/>
+      <c r="AHI93" s="15"/>
+      <c r="AHJ93" s="15"/>
+      <c r="AHK93" s="15"/>
+      <c r="AHL93" s="15"/>
+      <c r="AHM93" s="15"/>
+      <c r="AHN93" s="15"/>
+      <c r="AHO93" s="15"/>
+      <c r="AHP93" s="15"/>
+      <c r="AHQ93" s="15"/>
+      <c r="AHR93" s="15"/>
+      <c r="AHS93" s="15"/>
+      <c r="AHT93" s="15"/>
+      <c r="AHU93" s="15"/>
+      <c r="AHV93" s="15"/>
+      <c r="AHW93" s="15"/>
+      <c r="AHX93" s="15"/>
+      <c r="AHY93" s="15"/>
+      <c r="AHZ93" s="15"/>
+      <c r="AIA93" s="15"/>
+      <c r="AIB93" s="15"/>
+      <c r="AIC93" s="15"/>
+      <c r="AID93" s="15"/>
+      <c r="AIE93" s="15"/>
+      <c r="AIF93" s="15"/>
+      <c r="AIG93" s="15"/>
+      <c r="AIH93" s="15"/>
+      <c r="AII93" s="15"/>
+      <c r="AIJ93" s="15"/>
+      <c r="AIK93" s="15"/>
+      <c r="AIL93" s="15"/>
+      <c r="AIM93" s="15"/>
+      <c r="AIN93" s="15"/>
+      <c r="AIO93" s="15"/>
+      <c r="AIP93" s="15"/>
+      <c r="AIQ93" s="15"/>
+      <c r="AIR93" s="15"/>
+      <c r="AIS93" s="15"/>
+      <c r="AIT93" s="15"/>
+      <c r="AIU93" s="15"/>
+      <c r="AIV93" s="15"/>
+      <c r="AIW93" s="15"/>
+      <c r="AIX93" s="15"/>
+      <c r="AIY93" s="15"/>
+      <c r="AIZ93" s="15"/>
+      <c r="AJA93" s="15"/>
+      <c r="AJB93" s="15"/>
+      <c r="AJC93" s="15"/>
+      <c r="AJD93" s="15"/>
+      <c r="AJE93" s="15"/>
+      <c r="AJF93" s="15"/>
+      <c r="AJG93" s="15"/>
+      <c r="AJH93" s="15"/>
+      <c r="AJI93" s="15"/>
+      <c r="AJJ93" s="15"/>
+      <c r="AJK93" s="15"/>
+      <c r="AJL93" s="15"/>
+      <c r="AJM93" s="15"/>
+      <c r="AJN93" s="15"/>
+      <c r="AJO93" s="15"/>
+      <c r="AJP93" s="15"/>
+      <c r="AJQ93" s="15"/>
+      <c r="AJR93" s="15"/>
+      <c r="AJS93" s="15"/>
+      <c r="AJT93" s="15"/>
+      <c r="AJU93" s="15"/>
+      <c r="AJV93" s="15"/>
+      <c r="AJW93" s="15"/>
+      <c r="AJX93" s="15"/>
+      <c r="AJY93" s="15"/>
+      <c r="AJZ93" s="15"/>
+      <c r="AKA93" s="15"/>
+      <c r="AKB93" s="15"/>
+      <c r="AKC93" s="15"/>
+      <c r="AKD93" s="15"/>
+      <c r="AKE93" s="15"/>
+      <c r="AKF93" s="15"/>
+      <c r="AKG93" s="15"/>
+      <c r="AKH93" s="15"/>
+      <c r="AKI93" s="15"/>
+      <c r="AKJ93" s="15"/>
+      <c r="AKK93" s="15"/>
+      <c r="AKL93" s="15"/>
+      <c r="AKM93" s="15"/>
+      <c r="AKN93" s="15"/>
+      <c r="AKO93" s="15"/>
+      <c r="AKP93" s="15"/>
+      <c r="AKQ93" s="15"/>
+      <c r="AKR93" s="15"/>
+      <c r="AKS93" s="15"/>
+      <c r="AKT93" s="15"/>
+      <c r="AKU93" s="15"/>
+      <c r="AKV93" s="15"/>
+      <c r="AKW93" s="15"/>
+      <c r="AKX93" s="15"/>
+      <c r="AKY93" s="15"/>
+      <c r="AKZ93" s="15"/>
+      <c r="ALA93" s="15"/>
+      <c r="ALB93" s="15"/>
+      <c r="ALC93" s="15"/>
+      <c r="ALD93" s="15"/>
+      <c r="ALE93" s="15"/>
+      <c r="ALF93" s="15"/>
+      <c r="ALG93" s="15"/>
+      <c r="ALH93" s="15"/>
+      <c r="ALI93" s="15"/>
+      <c r="ALJ93" s="15"/>
+      <c r="ALK93" s="15"/>
+      <c r="ALL93" s="15"/>
+      <c r="ALM93" s="15"/>
+      <c r="ALN93" s="15"/>
+      <c r="ALO93" s="15"/>
+      <c r="ALP93" s="15"/>
+      <c r="ALQ93" s="15"/>
+      <c r="ALR93" s="15"/>
+      <c r="ALS93" s="15"/>
+      <c r="ALT93" s="15"/>
+      <c r="ALU93" s="15"/>
+      <c r="ALV93" s="15"/>
+      <c r="ALW93" s="15"/>
+      <c r="ALX93" s="15"/>
+      <c r="ALY93" s="15"/>
+      <c r="ALZ93" s="15"/>
+      <c r="AMA93" s="15"/>
+      <c r="AMB93" s="15"/>
+      <c r="AMC93" s="15"/>
+      <c r="AMD93" s="15"/>
+      <c r="AME93" s="15"/>
+      <c r="AMF93" s="15"/>
+      <c r="AMG93" s="15"/>
+      <c r="AMH93" s="15"/>
+      <c r="AMI93" s="15"/>
+      <c r="AMJ93" s="15"/>
+      <c r="AMK93" s="15"/>
+      <c r="AML93" s="15"/>
+      <c r="AMM93" s="15"/>
     </row>
     <row r="94" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">

--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.6.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042D73F3-AC0C-4A69-8252-C79CE844C316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1FE00C-50C9-4445-90FA-8EA5ECEC8434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24750" yWindow="870" windowWidth="20280" windowHeight="20010" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="555">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -1957,6 +1957,9 @@
   </si>
   <si>
     <t>JP:IIN</t>
+  </si>
+  <si>
+    <t>8.6</t>
   </si>
 </sst>
 </file>
@@ -2746,10 +2749,10 @@
   <dimension ref="A1:AMN101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O93" sqref="O93"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4244,136 +4247,4219 @@
       </c>
       <c r="AMN39" s="7"/>
     </row>
-    <row r="40" spans="1:1028" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:1028" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="J40" s="9" t="s">
+      <c r="G40" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="I40" s="18">
+        <v>45260</v>
+      </c>
+      <c r="J40" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="O40" s="10" t="s">
+      <c r="O40" s="17" t="s">
         <v>537</v>
       </c>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="15"/>
+      <c r="AR40" s="15"/>
+      <c r="AS40" s="15"/>
+      <c r="AT40" s="15"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="15"/>
+      <c r="AW40" s="15"/>
+      <c r="AX40" s="15"/>
+      <c r="AY40" s="15"/>
+      <c r="AZ40" s="15"/>
+      <c r="BA40" s="15"/>
+      <c r="BB40" s="15"/>
+      <c r="BC40" s="15"/>
+      <c r="BD40" s="15"/>
+      <c r="BE40" s="15"/>
+      <c r="BF40" s="15"/>
+      <c r="BG40" s="15"/>
+      <c r="BH40" s="15"/>
+      <c r="BI40" s="15"/>
+      <c r="BJ40" s="15"/>
+      <c r="BK40" s="15"/>
+      <c r="BL40" s="15"/>
+      <c r="BM40" s="15"/>
+      <c r="BN40" s="15"/>
+      <c r="BO40" s="15"/>
+      <c r="BP40" s="15"/>
+      <c r="BQ40" s="15"/>
+      <c r="BR40" s="15"/>
+      <c r="BS40" s="15"/>
+      <c r="BT40" s="15"/>
+      <c r="BU40" s="15"/>
+      <c r="BV40" s="15"/>
+      <c r="BW40" s="15"/>
+      <c r="BX40" s="15"/>
+      <c r="BY40" s="15"/>
+      <c r="BZ40" s="15"/>
+      <c r="CA40" s="15"/>
+      <c r="CB40" s="15"/>
+      <c r="CC40" s="15"/>
+      <c r="CD40" s="15"/>
+      <c r="CE40" s="15"/>
+      <c r="CF40" s="15"/>
+      <c r="CG40" s="15"/>
+      <c r="CH40" s="15"/>
+      <c r="CI40" s="15"/>
+      <c r="CJ40" s="15"/>
+      <c r="CK40" s="15"/>
+      <c r="CL40" s="15"/>
+      <c r="CM40" s="15"/>
+      <c r="CN40" s="15"/>
+      <c r="CO40" s="15"/>
+      <c r="CP40" s="15"/>
+      <c r="CQ40" s="15"/>
+      <c r="CR40" s="15"/>
+      <c r="CS40" s="15"/>
+      <c r="CT40" s="15"/>
+      <c r="CU40" s="15"/>
+      <c r="CV40" s="15"/>
+      <c r="CW40" s="15"/>
+      <c r="CX40" s="15"/>
+      <c r="CY40" s="15"/>
+      <c r="CZ40" s="15"/>
+      <c r="DA40" s="15"/>
+      <c r="DB40" s="15"/>
+      <c r="DC40" s="15"/>
+      <c r="DD40" s="15"/>
+      <c r="DE40" s="15"/>
+      <c r="DF40" s="15"/>
+      <c r="DG40" s="15"/>
+      <c r="DH40" s="15"/>
+      <c r="DI40" s="15"/>
+      <c r="DJ40" s="15"/>
+      <c r="DK40" s="15"/>
+      <c r="DL40" s="15"/>
+      <c r="DM40" s="15"/>
+      <c r="DN40" s="15"/>
+      <c r="DO40" s="15"/>
+      <c r="DP40" s="15"/>
+      <c r="DQ40" s="15"/>
+      <c r="DR40" s="15"/>
+      <c r="DS40" s="15"/>
+      <c r="DT40" s="15"/>
+      <c r="DU40" s="15"/>
+      <c r="DV40" s="15"/>
+      <c r="DW40" s="15"/>
+      <c r="DX40" s="15"/>
+      <c r="DY40" s="15"/>
+      <c r="DZ40" s="15"/>
+      <c r="EA40" s="15"/>
+      <c r="EB40" s="15"/>
+      <c r="EC40" s="15"/>
+      <c r="ED40" s="15"/>
+      <c r="EE40" s="15"/>
+      <c r="EF40" s="15"/>
+      <c r="EG40" s="15"/>
+      <c r="EH40" s="15"/>
+      <c r="EI40" s="15"/>
+      <c r="EJ40" s="15"/>
+      <c r="EK40" s="15"/>
+      <c r="EL40" s="15"/>
+      <c r="EM40" s="15"/>
+      <c r="EN40" s="15"/>
+      <c r="EO40" s="15"/>
+      <c r="EP40" s="15"/>
+      <c r="EQ40" s="15"/>
+      <c r="ER40" s="15"/>
+      <c r="ES40" s="15"/>
+      <c r="ET40" s="15"/>
+      <c r="EU40" s="15"/>
+      <c r="EV40" s="15"/>
+      <c r="EW40" s="15"/>
+      <c r="EX40" s="15"/>
+      <c r="EY40" s="15"/>
+      <c r="EZ40" s="15"/>
+      <c r="FA40" s="15"/>
+      <c r="FB40" s="15"/>
+      <c r="FC40" s="15"/>
+      <c r="FD40" s="15"/>
+      <c r="FE40" s="15"/>
+      <c r="FF40" s="15"/>
+      <c r="FG40" s="15"/>
+      <c r="FH40" s="15"/>
+      <c r="FI40" s="15"/>
+      <c r="FJ40" s="15"/>
+      <c r="FK40" s="15"/>
+      <c r="FL40" s="15"/>
+      <c r="FM40" s="15"/>
+      <c r="FN40" s="15"/>
+      <c r="FO40" s="15"/>
+      <c r="FP40" s="15"/>
+      <c r="FQ40" s="15"/>
+      <c r="FR40" s="15"/>
+      <c r="FS40" s="15"/>
+      <c r="FT40" s="15"/>
+      <c r="FU40" s="15"/>
+      <c r="FV40" s="15"/>
+      <c r="FW40" s="15"/>
+      <c r="FX40" s="15"/>
+      <c r="FY40" s="15"/>
+      <c r="FZ40" s="15"/>
+      <c r="GA40" s="15"/>
+      <c r="GB40" s="15"/>
+      <c r="GC40" s="15"/>
+      <c r="GD40" s="15"/>
+      <c r="GE40" s="15"/>
+      <c r="GF40" s="15"/>
+      <c r="GG40" s="15"/>
+      <c r="GH40" s="15"/>
+      <c r="GI40" s="15"/>
+      <c r="GJ40" s="15"/>
+      <c r="GK40" s="15"/>
+      <c r="GL40" s="15"/>
+      <c r="GM40" s="15"/>
+      <c r="GN40" s="15"/>
+      <c r="GO40" s="15"/>
+      <c r="GP40" s="15"/>
+      <c r="GQ40" s="15"/>
+      <c r="GR40" s="15"/>
+      <c r="GS40" s="15"/>
+      <c r="GT40" s="15"/>
+      <c r="GU40" s="15"/>
+      <c r="GV40" s="15"/>
+      <c r="GW40" s="15"/>
+      <c r="GX40" s="15"/>
+      <c r="GY40" s="15"/>
+      <c r="GZ40" s="15"/>
+      <c r="HA40" s="15"/>
+      <c r="HB40" s="15"/>
+      <c r="HC40" s="15"/>
+      <c r="HD40" s="15"/>
+      <c r="HE40" s="15"/>
+      <c r="HF40" s="15"/>
+      <c r="HG40" s="15"/>
+      <c r="HH40" s="15"/>
+      <c r="HI40" s="15"/>
+      <c r="HJ40" s="15"/>
+      <c r="HK40" s="15"/>
+      <c r="HL40" s="15"/>
+      <c r="HM40" s="15"/>
+      <c r="HN40" s="15"/>
+      <c r="HO40" s="15"/>
+      <c r="HP40" s="15"/>
+      <c r="HQ40" s="15"/>
+      <c r="HR40" s="15"/>
+      <c r="HS40" s="15"/>
+      <c r="HT40" s="15"/>
+      <c r="HU40" s="15"/>
+      <c r="HV40" s="15"/>
+      <c r="HW40" s="15"/>
+      <c r="HX40" s="15"/>
+      <c r="HY40" s="15"/>
+      <c r="HZ40" s="15"/>
+      <c r="IA40" s="15"/>
+      <c r="IB40" s="15"/>
+      <c r="IC40" s="15"/>
+      <c r="ID40" s="15"/>
+      <c r="IE40" s="15"/>
+      <c r="IF40" s="15"/>
+      <c r="IG40" s="15"/>
+      <c r="IH40" s="15"/>
+      <c r="II40" s="15"/>
+      <c r="IJ40" s="15"/>
+      <c r="IK40" s="15"/>
+      <c r="IL40" s="15"/>
+      <c r="IM40" s="15"/>
+      <c r="IN40" s="15"/>
+      <c r="IO40" s="15"/>
+      <c r="IP40" s="15"/>
+      <c r="IQ40" s="15"/>
+      <c r="IR40" s="15"/>
+      <c r="IS40" s="15"/>
+      <c r="IT40" s="15"/>
+      <c r="IU40" s="15"/>
+      <c r="IV40" s="15"/>
+      <c r="IW40" s="15"/>
+      <c r="IX40" s="15"/>
+      <c r="IY40" s="15"/>
+      <c r="IZ40" s="15"/>
+      <c r="JA40" s="15"/>
+      <c r="JB40" s="15"/>
+      <c r="JC40" s="15"/>
+      <c r="JD40" s="15"/>
+      <c r="JE40" s="15"/>
+      <c r="JF40" s="15"/>
+      <c r="JG40" s="15"/>
+      <c r="JH40" s="15"/>
+      <c r="JI40" s="15"/>
+      <c r="JJ40" s="15"/>
+      <c r="JK40" s="15"/>
+      <c r="JL40" s="15"/>
+      <c r="JM40" s="15"/>
+      <c r="JN40" s="15"/>
+      <c r="JO40" s="15"/>
+      <c r="JP40" s="15"/>
+      <c r="JQ40" s="15"/>
+      <c r="JR40" s="15"/>
+      <c r="JS40" s="15"/>
+      <c r="JT40" s="15"/>
+      <c r="JU40" s="15"/>
+      <c r="JV40" s="15"/>
+      <c r="JW40" s="15"/>
+      <c r="JX40" s="15"/>
+      <c r="JY40" s="15"/>
+      <c r="JZ40" s="15"/>
+      <c r="KA40" s="15"/>
+      <c r="KB40" s="15"/>
+      <c r="KC40" s="15"/>
+      <c r="KD40" s="15"/>
+      <c r="KE40" s="15"/>
+      <c r="KF40" s="15"/>
+      <c r="KG40" s="15"/>
+      <c r="KH40" s="15"/>
+      <c r="KI40" s="15"/>
+      <c r="KJ40" s="15"/>
+      <c r="KK40" s="15"/>
+      <c r="KL40" s="15"/>
+      <c r="KM40" s="15"/>
+      <c r="KN40" s="15"/>
+      <c r="KO40" s="15"/>
+      <c r="KP40" s="15"/>
+      <c r="KQ40" s="15"/>
+      <c r="KR40" s="15"/>
+      <c r="KS40" s="15"/>
+      <c r="KT40" s="15"/>
+      <c r="KU40" s="15"/>
+      <c r="KV40" s="15"/>
+      <c r="KW40" s="15"/>
+      <c r="KX40" s="15"/>
+      <c r="KY40" s="15"/>
+      <c r="KZ40" s="15"/>
+      <c r="LA40" s="15"/>
+      <c r="LB40" s="15"/>
+      <c r="LC40" s="15"/>
+      <c r="LD40" s="15"/>
+      <c r="LE40" s="15"/>
+      <c r="LF40" s="15"/>
+      <c r="LG40" s="15"/>
+      <c r="LH40" s="15"/>
+      <c r="LI40" s="15"/>
+      <c r="LJ40" s="15"/>
+      <c r="LK40" s="15"/>
+      <c r="LL40" s="15"/>
+      <c r="LM40" s="15"/>
+      <c r="LN40" s="15"/>
+      <c r="LO40" s="15"/>
+      <c r="LP40" s="15"/>
+      <c r="LQ40" s="15"/>
+      <c r="LR40" s="15"/>
+      <c r="LS40" s="15"/>
+      <c r="LT40" s="15"/>
+      <c r="LU40" s="15"/>
+      <c r="LV40" s="15"/>
+      <c r="LW40" s="15"/>
+      <c r="LX40" s="15"/>
+      <c r="LY40" s="15"/>
+      <c r="LZ40" s="15"/>
+      <c r="MA40" s="15"/>
+      <c r="MB40" s="15"/>
+      <c r="MC40" s="15"/>
+      <c r="MD40" s="15"/>
+      <c r="ME40" s="15"/>
+      <c r="MF40" s="15"/>
+      <c r="MG40" s="15"/>
+      <c r="MH40" s="15"/>
+      <c r="MI40" s="15"/>
+      <c r="MJ40" s="15"/>
+      <c r="MK40" s="15"/>
+      <c r="ML40" s="15"/>
+      <c r="MM40" s="15"/>
+      <c r="MN40" s="15"/>
+      <c r="MO40" s="15"/>
+      <c r="MP40" s="15"/>
+      <c r="MQ40" s="15"/>
+      <c r="MR40" s="15"/>
+      <c r="MS40" s="15"/>
+      <c r="MT40" s="15"/>
+      <c r="MU40" s="15"/>
+      <c r="MV40" s="15"/>
+      <c r="MW40" s="15"/>
+      <c r="MX40" s="15"/>
+      <c r="MY40" s="15"/>
+      <c r="MZ40" s="15"/>
+      <c r="NA40" s="15"/>
+      <c r="NB40" s="15"/>
+      <c r="NC40" s="15"/>
+      <c r="ND40" s="15"/>
+      <c r="NE40" s="15"/>
+      <c r="NF40" s="15"/>
+      <c r="NG40" s="15"/>
+      <c r="NH40" s="15"/>
+      <c r="NI40" s="15"/>
+      <c r="NJ40" s="15"/>
+      <c r="NK40" s="15"/>
+      <c r="NL40" s="15"/>
+      <c r="NM40" s="15"/>
+      <c r="NN40" s="15"/>
+      <c r="NO40" s="15"/>
+      <c r="NP40" s="15"/>
+      <c r="NQ40" s="15"/>
+      <c r="NR40" s="15"/>
+      <c r="NS40" s="15"/>
+      <c r="NT40" s="15"/>
+      <c r="NU40" s="15"/>
+      <c r="NV40" s="15"/>
+      <c r="NW40" s="15"/>
+      <c r="NX40" s="15"/>
+      <c r="NY40" s="15"/>
+      <c r="NZ40" s="15"/>
+      <c r="OA40" s="15"/>
+      <c r="OB40" s="15"/>
+      <c r="OC40" s="15"/>
+      <c r="OD40" s="15"/>
+      <c r="OE40" s="15"/>
+      <c r="OF40" s="15"/>
+      <c r="OG40" s="15"/>
+      <c r="OH40" s="15"/>
+      <c r="OI40" s="15"/>
+      <c r="OJ40" s="15"/>
+      <c r="OK40" s="15"/>
+      <c r="OL40" s="15"/>
+      <c r="OM40" s="15"/>
+      <c r="ON40" s="15"/>
+      <c r="OO40" s="15"/>
+      <c r="OP40" s="15"/>
+      <c r="OQ40" s="15"/>
+      <c r="OR40" s="15"/>
+      <c r="OS40" s="15"/>
+      <c r="OT40" s="15"/>
+      <c r="OU40" s="15"/>
+      <c r="OV40" s="15"/>
+      <c r="OW40" s="15"/>
+      <c r="OX40" s="15"/>
+      <c r="OY40" s="15"/>
+      <c r="OZ40" s="15"/>
+      <c r="PA40" s="15"/>
+      <c r="PB40" s="15"/>
+      <c r="PC40" s="15"/>
+      <c r="PD40" s="15"/>
+      <c r="PE40" s="15"/>
+      <c r="PF40" s="15"/>
+      <c r="PG40" s="15"/>
+      <c r="PH40" s="15"/>
+      <c r="PI40" s="15"/>
+      <c r="PJ40" s="15"/>
+      <c r="PK40" s="15"/>
+      <c r="PL40" s="15"/>
+      <c r="PM40" s="15"/>
+      <c r="PN40" s="15"/>
+      <c r="PO40" s="15"/>
+      <c r="PP40" s="15"/>
+      <c r="PQ40" s="15"/>
+      <c r="PR40" s="15"/>
+      <c r="PS40" s="15"/>
+      <c r="PT40" s="15"/>
+      <c r="PU40" s="15"/>
+      <c r="PV40" s="15"/>
+      <c r="PW40" s="15"/>
+      <c r="PX40" s="15"/>
+      <c r="PY40" s="15"/>
+      <c r="PZ40" s="15"/>
+      <c r="QA40" s="15"/>
+      <c r="QB40" s="15"/>
+      <c r="QC40" s="15"/>
+      <c r="QD40" s="15"/>
+      <c r="QE40" s="15"/>
+      <c r="QF40" s="15"/>
+      <c r="QG40" s="15"/>
+      <c r="QH40" s="15"/>
+      <c r="QI40" s="15"/>
+      <c r="QJ40" s="15"/>
+      <c r="QK40" s="15"/>
+      <c r="QL40" s="15"/>
+      <c r="QM40" s="15"/>
+      <c r="QN40" s="15"/>
+      <c r="QO40" s="15"/>
+      <c r="QP40" s="15"/>
+      <c r="QQ40" s="15"/>
+      <c r="QR40" s="15"/>
+      <c r="QS40" s="15"/>
+      <c r="QT40" s="15"/>
+      <c r="QU40" s="15"/>
+      <c r="QV40" s="15"/>
+      <c r="QW40" s="15"/>
+      <c r="QX40" s="15"/>
+      <c r="QY40" s="15"/>
+      <c r="QZ40" s="15"/>
+      <c r="RA40" s="15"/>
+      <c r="RB40" s="15"/>
+      <c r="RC40" s="15"/>
+      <c r="RD40" s="15"/>
+      <c r="RE40" s="15"/>
+      <c r="RF40" s="15"/>
+      <c r="RG40" s="15"/>
+      <c r="RH40" s="15"/>
+      <c r="RI40" s="15"/>
+      <c r="RJ40" s="15"/>
+      <c r="RK40" s="15"/>
+      <c r="RL40" s="15"/>
+      <c r="RM40" s="15"/>
+      <c r="RN40" s="15"/>
+      <c r="RO40" s="15"/>
+      <c r="RP40" s="15"/>
+      <c r="RQ40" s="15"/>
+      <c r="RR40" s="15"/>
+      <c r="RS40" s="15"/>
+      <c r="RT40" s="15"/>
+      <c r="RU40" s="15"/>
+      <c r="RV40" s="15"/>
+      <c r="RW40" s="15"/>
+      <c r="RX40" s="15"/>
+      <c r="RY40" s="15"/>
+      <c r="RZ40" s="15"/>
+      <c r="SA40" s="15"/>
+      <c r="SB40" s="15"/>
+      <c r="SC40" s="15"/>
+      <c r="SD40" s="15"/>
+      <c r="SE40" s="15"/>
+      <c r="SF40" s="15"/>
+      <c r="SG40" s="15"/>
+      <c r="SH40" s="15"/>
+      <c r="SI40" s="15"/>
+      <c r="SJ40" s="15"/>
+      <c r="SK40" s="15"/>
+      <c r="SL40" s="15"/>
+      <c r="SM40" s="15"/>
+      <c r="SN40" s="15"/>
+      <c r="SO40" s="15"/>
+      <c r="SP40" s="15"/>
+      <c r="SQ40" s="15"/>
+      <c r="SR40" s="15"/>
+      <c r="SS40" s="15"/>
+      <c r="ST40" s="15"/>
+      <c r="SU40" s="15"/>
+      <c r="SV40" s="15"/>
+      <c r="SW40" s="15"/>
+      <c r="SX40" s="15"/>
+      <c r="SY40" s="15"/>
+      <c r="SZ40" s="15"/>
+      <c r="TA40" s="15"/>
+      <c r="TB40" s="15"/>
+      <c r="TC40" s="15"/>
+      <c r="TD40" s="15"/>
+      <c r="TE40" s="15"/>
+      <c r="TF40" s="15"/>
+      <c r="TG40" s="15"/>
+      <c r="TH40" s="15"/>
+      <c r="TI40" s="15"/>
+      <c r="TJ40" s="15"/>
+      <c r="TK40" s="15"/>
+      <c r="TL40" s="15"/>
+      <c r="TM40" s="15"/>
+      <c r="TN40" s="15"/>
+      <c r="TO40" s="15"/>
+      <c r="TP40" s="15"/>
+      <c r="TQ40" s="15"/>
+      <c r="TR40" s="15"/>
+      <c r="TS40" s="15"/>
+      <c r="TT40" s="15"/>
+      <c r="TU40" s="15"/>
+      <c r="TV40" s="15"/>
+      <c r="TW40" s="15"/>
+      <c r="TX40" s="15"/>
+      <c r="TY40" s="15"/>
+      <c r="TZ40" s="15"/>
+      <c r="UA40" s="15"/>
+      <c r="UB40" s="15"/>
+      <c r="UC40" s="15"/>
+      <c r="UD40" s="15"/>
+      <c r="UE40" s="15"/>
+      <c r="UF40" s="15"/>
+      <c r="UG40" s="15"/>
+      <c r="UH40" s="15"/>
+      <c r="UI40" s="15"/>
+      <c r="UJ40" s="15"/>
+      <c r="UK40" s="15"/>
+      <c r="UL40" s="15"/>
+      <c r="UM40" s="15"/>
+      <c r="UN40" s="15"/>
+      <c r="UO40" s="15"/>
+      <c r="UP40" s="15"/>
+      <c r="UQ40" s="15"/>
+      <c r="UR40" s="15"/>
+      <c r="US40" s="15"/>
+      <c r="UT40" s="15"/>
+      <c r="UU40" s="15"/>
+      <c r="UV40" s="15"/>
+      <c r="UW40" s="15"/>
+      <c r="UX40" s="15"/>
+      <c r="UY40" s="15"/>
+      <c r="UZ40" s="15"/>
+      <c r="VA40" s="15"/>
+      <c r="VB40" s="15"/>
+      <c r="VC40" s="15"/>
+      <c r="VD40" s="15"/>
+      <c r="VE40" s="15"/>
+      <c r="VF40" s="15"/>
+      <c r="VG40" s="15"/>
+      <c r="VH40" s="15"/>
+      <c r="VI40" s="15"/>
+      <c r="VJ40" s="15"/>
+      <c r="VK40" s="15"/>
+      <c r="VL40" s="15"/>
+      <c r="VM40" s="15"/>
+      <c r="VN40" s="15"/>
+      <c r="VO40" s="15"/>
+      <c r="VP40" s="15"/>
+      <c r="VQ40" s="15"/>
+      <c r="VR40" s="15"/>
+      <c r="VS40" s="15"/>
+      <c r="VT40" s="15"/>
+      <c r="VU40" s="15"/>
+      <c r="VV40" s="15"/>
+      <c r="VW40" s="15"/>
+      <c r="VX40" s="15"/>
+      <c r="VY40" s="15"/>
+      <c r="VZ40" s="15"/>
+      <c r="WA40" s="15"/>
+      <c r="WB40" s="15"/>
+      <c r="WC40" s="15"/>
+      <c r="WD40" s="15"/>
+      <c r="WE40" s="15"/>
+      <c r="WF40" s="15"/>
+      <c r="WG40" s="15"/>
+      <c r="WH40" s="15"/>
+      <c r="WI40" s="15"/>
+      <c r="WJ40" s="15"/>
+      <c r="WK40" s="15"/>
+      <c r="WL40" s="15"/>
+      <c r="WM40" s="15"/>
+      <c r="WN40" s="15"/>
+      <c r="WO40" s="15"/>
+      <c r="WP40" s="15"/>
+      <c r="WQ40" s="15"/>
+      <c r="WR40" s="15"/>
+      <c r="WS40" s="15"/>
+      <c r="WT40" s="15"/>
+      <c r="WU40" s="15"/>
+      <c r="WV40" s="15"/>
+      <c r="WW40" s="15"/>
+      <c r="WX40" s="15"/>
+      <c r="WY40" s="15"/>
+      <c r="WZ40" s="15"/>
+      <c r="XA40" s="15"/>
+      <c r="XB40" s="15"/>
+      <c r="XC40" s="15"/>
+      <c r="XD40" s="15"/>
+      <c r="XE40" s="15"/>
+      <c r="XF40" s="15"/>
+      <c r="XG40" s="15"/>
+      <c r="XH40" s="15"/>
+      <c r="XI40" s="15"/>
+      <c r="XJ40" s="15"/>
+      <c r="XK40" s="15"/>
+      <c r="XL40" s="15"/>
+      <c r="XM40" s="15"/>
+      <c r="XN40" s="15"/>
+      <c r="XO40" s="15"/>
+      <c r="XP40" s="15"/>
+      <c r="XQ40" s="15"/>
+      <c r="XR40" s="15"/>
+      <c r="XS40" s="15"/>
+      <c r="XT40" s="15"/>
+      <c r="XU40" s="15"/>
+      <c r="XV40" s="15"/>
+      <c r="XW40" s="15"/>
+      <c r="XX40" s="15"/>
+      <c r="XY40" s="15"/>
+      <c r="XZ40" s="15"/>
+      <c r="YA40" s="15"/>
+      <c r="YB40" s="15"/>
+      <c r="YC40" s="15"/>
+      <c r="YD40" s="15"/>
+      <c r="YE40" s="15"/>
+      <c r="YF40" s="15"/>
+      <c r="YG40" s="15"/>
+      <c r="YH40" s="15"/>
+      <c r="YI40" s="15"/>
+      <c r="YJ40" s="15"/>
+      <c r="YK40" s="15"/>
+      <c r="YL40" s="15"/>
+      <c r="YM40" s="15"/>
+      <c r="YN40" s="15"/>
+      <c r="YO40" s="15"/>
+      <c r="YP40" s="15"/>
+      <c r="YQ40" s="15"/>
+      <c r="YR40" s="15"/>
+      <c r="YS40" s="15"/>
+      <c r="YT40" s="15"/>
+      <c r="YU40" s="15"/>
+      <c r="YV40" s="15"/>
+      <c r="YW40" s="15"/>
+      <c r="YX40" s="15"/>
+      <c r="YY40" s="15"/>
+      <c r="YZ40" s="15"/>
+      <c r="ZA40" s="15"/>
+      <c r="ZB40" s="15"/>
+      <c r="ZC40" s="15"/>
+      <c r="ZD40" s="15"/>
+      <c r="ZE40" s="15"/>
+      <c r="ZF40" s="15"/>
+      <c r="ZG40" s="15"/>
+      <c r="ZH40" s="15"/>
+      <c r="ZI40" s="15"/>
+      <c r="ZJ40" s="15"/>
+      <c r="ZK40" s="15"/>
+      <c r="ZL40" s="15"/>
+      <c r="ZM40" s="15"/>
+      <c r="ZN40" s="15"/>
+      <c r="ZO40" s="15"/>
+      <c r="ZP40" s="15"/>
+      <c r="ZQ40" s="15"/>
+      <c r="ZR40" s="15"/>
+      <c r="ZS40" s="15"/>
+      <c r="ZT40" s="15"/>
+      <c r="ZU40" s="15"/>
+      <c r="ZV40" s="15"/>
+      <c r="ZW40" s="15"/>
+      <c r="ZX40" s="15"/>
+      <c r="ZY40" s="15"/>
+      <c r="ZZ40" s="15"/>
+      <c r="AAA40" s="15"/>
+      <c r="AAB40" s="15"/>
+      <c r="AAC40" s="15"/>
+      <c r="AAD40" s="15"/>
+      <c r="AAE40" s="15"/>
+      <c r="AAF40" s="15"/>
+      <c r="AAG40" s="15"/>
+      <c r="AAH40" s="15"/>
+      <c r="AAI40" s="15"/>
+      <c r="AAJ40" s="15"/>
+      <c r="AAK40" s="15"/>
+      <c r="AAL40" s="15"/>
+      <c r="AAM40" s="15"/>
+      <c r="AAN40" s="15"/>
+      <c r="AAO40" s="15"/>
+      <c r="AAP40" s="15"/>
+      <c r="AAQ40" s="15"/>
+      <c r="AAR40" s="15"/>
+      <c r="AAS40" s="15"/>
+      <c r="AAT40" s="15"/>
+      <c r="AAU40" s="15"/>
+      <c r="AAV40" s="15"/>
+      <c r="AAW40" s="15"/>
+      <c r="AAX40" s="15"/>
+      <c r="AAY40" s="15"/>
+      <c r="AAZ40" s="15"/>
+      <c r="ABA40" s="15"/>
+      <c r="ABB40" s="15"/>
+      <c r="ABC40" s="15"/>
+      <c r="ABD40" s="15"/>
+      <c r="ABE40" s="15"/>
+      <c r="ABF40" s="15"/>
+      <c r="ABG40" s="15"/>
+      <c r="ABH40" s="15"/>
+      <c r="ABI40" s="15"/>
+      <c r="ABJ40" s="15"/>
+      <c r="ABK40" s="15"/>
+      <c r="ABL40" s="15"/>
+      <c r="ABM40" s="15"/>
+      <c r="ABN40" s="15"/>
+      <c r="ABO40" s="15"/>
+      <c r="ABP40" s="15"/>
+      <c r="ABQ40" s="15"/>
+      <c r="ABR40" s="15"/>
+      <c r="ABS40" s="15"/>
+      <c r="ABT40" s="15"/>
+      <c r="ABU40" s="15"/>
+      <c r="ABV40" s="15"/>
+      <c r="ABW40" s="15"/>
+      <c r="ABX40" s="15"/>
+      <c r="ABY40" s="15"/>
+      <c r="ABZ40" s="15"/>
+      <c r="ACA40" s="15"/>
+      <c r="ACB40" s="15"/>
+      <c r="ACC40" s="15"/>
+      <c r="ACD40" s="15"/>
+      <c r="ACE40" s="15"/>
+      <c r="ACF40" s="15"/>
+      <c r="ACG40" s="15"/>
+      <c r="ACH40" s="15"/>
+      <c r="ACI40" s="15"/>
+      <c r="ACJ40" s="15"/>
+      <c r="ACK40" s="15"/>
+      <c r="ACL40" s="15"/>
+      <c r="ACM40" s="15"/>
+      <c r="ACN40" s="15"/>
+      <c r="ACO40" s="15"/>
+      <c r="ACP40" s="15"/>
+      <c r="ACQ40" s="15"/>
+      <c r="ACR40" s="15"/>
+      <c r="ACS40" s="15"/>
+      <c r="ACT40" s="15"/>
+      <c r="ACU40" s="15"/>
+      <c r="ACV40" s="15"/>
+      <c r="ACW40" s="15"/>
+      <c r="ACX40" s="15"/>
+      <c r="ACY40" s="15"/>
+      <c r="ACZ40" s="15"/>
+      <c r="ADA40" s="15"/>
+      <c r="ADB40" s="15"/>
+      <c r="ADC40" s="15"/>
+      <c r="ADD40" s="15"/>
+      <c r="ADE40" s="15"/>
+      <c r="ADF40" s="15"/>
+      <c r="ADG40" s="15"/>
+      <c r="ADH40" s="15"/>
+      <c r="ADI40" s="15"/>
+      <c r="ADJ40" s="15"/>
+      <c r="ADK40" s="15"/>
+      <c r="ADL40" s="15"/>
+      <c r="ADM40" s="15"/>
+      <c r="ADN40" s="15"/>
+      <c r="ADO40" s="15"/>
+      <c r="ADP40" s="15"/>
+      <c r="ADQ40" s="15"/>
+      <c r="ADR40" s="15"/>
+      <c r="ADS40" s="15"/>
+      <c r="ADT40" s="15"/>
+      <c r="ADU40" s="15"/>
+      <c r="ADV40" s="15"/>
+      <c r="ADW40" s="15"/>
+      <c r="ADX40" s="15"/>
+      <c r="ADY40" s="15"/>
+      <c r="ADZ40" s="15"/>
+      <c r="AEA40" s="15"/>
+      <c r="AEB40" s="15"/>
+      <c r="AEC40" s="15"/>
+      <c r="AED40" s="15"/>
+      <c r="AEE40" s="15"/>
+      <c r="AEF40" s="15"/>
+      <c r="AEG40" s="15"/>
+      <c r="AEH40" s="15"/>
+      <c r="AEI40" s="15"/>
+      <c r="AEJ40" s="15"/>
+      <c r="AEK40" s="15"/>
+      <c r="AEL40" s="15"/>
+      <c r="AEM40" s="15"/>
+      <c r="AEN40" s="15"/>
+      <c r="AEO40" s="15"/>
+      <c r="AEP40" s="15"/>
+      <c r="AEQ40" s="15"/>
+      <c r="AER40" s="15"/>
+      <c r="AES40" s="15"/>
+      <c r="AET40" s="15"/>
+      <c r="AEU40" s="15"/>
+      <c r="AEV40" s="15"/>
+      <c r="AEW40" s="15"/>
+      <c r="AEX40" s="15"/>
+      <c r="AEY40" s="15"/>
+      <c r="AEZ40" s="15"/>
+      <c r="AFA40" s="15"/>
+      <c r="AFB40" s="15"/>
+      <c r="AFC40" s="15"/>
+      <c r="AFD40" s="15"/>
+      <c r="AFE40" s="15"/>
+      <c r="AFF40" s="15"/>
+      <c r="AFG40" s="15"/>
+      <c r="AFH40" s="15"/>
+      <c r="AFI40" s="15"/>
+      <c r="AFJ40" s="15"/>
+      <c r="AFK40" s="15"/>
+      <c r="AFL40" s="15"/>
+      <c r="AFM40" s="15"/>
+      <c r="AFN40" s="15"/>
+      <c r="AFO40" s="15"/>
+      <c r="AFP40" s="15"/>
+      <c r="AFQ40" s="15"/>
+      <c r="AFR40" s="15"/>
+      <c r="AFS40" s="15"/>
+      <c r="AFT40" s="15"/>
+      <c r="AFU40" s="15"/>
+      <c r="AFV40" s="15"/>
+      <c r="AFW40" s="15"/>
+      <c r="AFX40" s="15"/>
+      <c r="AFY40" s="15"/>
+      <c r="AFZ40" s="15"/>
+      <c r="AGA40" s="15"/>
+      <c r="AGB40" s="15"/>
+      <c r="AGC40" s="15"/>
+      <c r="AGD40" s="15"/>
+      <c r="AGE40" s="15"/>
+      <c r="AGF40" s="15"/>
+      <c r="AGG40" s="15"/>
+      <c r="AGH40" s="15"/>
+      <c r="AGI40" s="15"/>
+      <c r="AGJ40" s="15"/>
+      <c r="AGK40" s="15"/>
+      <c r="AGL40" s="15"/>
+      <c r="AGM40" s="15"/>
+      <c r="AGN40" s="15"/>
+      <c r="AGO40" s="15"/>
+      <c r="AGP40" s="15"/>
+      <c r="AGQ40" s="15"/>
+      <c r="AGR40" s="15"/>
+      <c r="AGS40" s="15"/>
+      <c r="AGT40" s="15"/>
+      <c r="AGU40" s="15"/>
+      <c r="AGV40" s="15"/>
+      <c r="AGW40" s="15"/>
+      <c r="AGX40" s="15"/>
+      <c r="AGY40" s="15"/>
+      <c r="AGZ40" s="15"/>
+      <c r="AHA40" s="15"/>
+      <c r="AHB40" s="15"/>
+      <c r="AHC40" s="15"/>
+      <c r="AHD40" s="15"/>
+      <c r="AHE40" s="15"/>
+      <c r="AHF40" s="15"/>
+      <c r="AHG40" s="15"/>
+      <c r="AHH40" s="15"/>
+      <c r="AHI40" s="15"/>
+      <c r="AHJ40" s="15"/>
+      <c r="AHK40" s="15"/>
+      <c r="AHL40" s="15"/>
+      <c r="AHM40" s="15"/>
+      <c r="AHN40" s="15"/>
+      <c r="AHO40" s="15"/>
+      <c r="AHP40" s="15"/>
+      <c r="AHQ40" s="15"/>
+      <c r="AHR40" s="15"/>
+      <c r="AHS40" s="15"/>
+      <c r="AHT40" s="15"/>
+      <c r="AHU40" s="15"/>
+      <c r="AHV40" s="15"/>
+      <c r="AHW40" s="15"/>
+      <c r="AHX40" s="15"/>
+      <c r="AHY40" s="15"/>
+      <c r="AHZ40" s="15"/>
+      <c r="AIA40" s="15"/>
+      <c r="AIB40" s="15"/>
+      <c r="AIC40" s="15"/>
+      <c r="AID40" s="15"/>
+      <c r="AIE40" s="15"/>
+      <c r="AIF40" s="15"/>
+      <c r="AIG40" s="15"/>
+      <c r="AIH40" s="15"/>
+      <c r="AII40" s="15"/>
+      <c r="AIJ40" s="15"/>
+      <c r="AIK40" s="15"/>
+      <c r="AIL40" s="15"/>
+      <c r="AIM40" s="15"/>
+      <c r="AIN40" s="15"/>
+      <c r="AIO40" s="15"/>
+      <c r="AIP40" s="15"/>
+      <c r="AIQ40" s="15"/>
+      <c r="AIR40" s="15"/>
+      <c r="AIS40" s="15"/>
+      <c r="AIT40" s="15"/>
+      <c r="AIU40" s="15"/>
+      <c r="AIV40" s="15"/>
+      <c r="AIW40" s="15"/>
+      <c r="AIX40" s="15"/>
+      <c r="AIY40" s="15"/>
+      <c r="AIZ40" s="15"/>
+      <c r="AJA40" s="15"/>
+      <c r="AJB40" s="15"/>
+      <c r="AJC40" s="15"/>
+      <c r="AJD40" s="15"/>
+      <c r="AJE40" s="15"/>
+      <c r="AJF40" s="15"/>
+      <c r="AJG40" s="15"/>
+      <c r="AJH40" s="15"/>
+      <c r="AJI40" s="15"/>
+      <c r="AJJ40" s="15"/>
+      <c r="AJK40" s="15"/>
+      <c r="AJL40" s="15"/>
+      <c r="AJM40" s="15"/>
+      <c r="AJN40" s="15"/>
+      <c r="AJO40" s="15"/>
+      <c r="AJP40" s="15"/>
+      <c r="AJQ40" s="15"/>
+      <c r="AJR40" s="15"/>
+      <c r="AJS40" s="15"/>
+      <c r="AJT40" s="15"/>
+      <c r="AJU40" s="15"/>
+      <c r="AJV40" s="15"/>
+      <c r="AJW40" s="15"/>
+      <c r="AJX40" s="15"/>
+      <c r="AJY40" s="15"/>
+      <c r="AJZ40" s="15"/>
+      <c r="AKA40" s="15"/>
+      <c r="AKB40" s="15"/>
+      <c r="AKC40" s="15"/>
+      <c r="AKD40" s="15"/>
+      <c r="AKE40" s="15"/>
+      <c r="AKF40" s="15"/>
+      <c r="AKG40" s="15"/>
+      <c r="AKH40" s="15"/>
+      <c r="AKI40" s="15"/>
+      <c r="AKJ40" s="15"/>
+      <c r="AKK40" s="15"/>
+      <c r="AKL40" s="15"/>
+      <c r="AKM40" s="15"/>
+      <c r="AKN40" s="15"/>
+      <c r="AKO40" s="15"/>
+      <c r="AKP40" s="15"/>
+      <c r="AKQ40" s="15"/>
+      <c r="AKR40" s="15"/>
+      <c r="AKS40" s="15"/>
+      <c r="AKT40" s="15"/>
+      <c r="AKU40" s="15"/>
+      <c r="AKV40" s="15"/>
+      <c r="AKW40" s="15"/>
+      <c r="AKX40" s="15"/>
+      <c r="AKY40" s="15"/>
+      <c r="AKZ40" s="15"/>
+      <c r="ALA40" s="15"/>
+      <c r="ALB40" s="15"/>
+      <c r="ALC40" s="15"/>
+      <c r="ALD40" s="15"/>
+      <c r="ALE40" s="15"/>
+      <c r="ALF40" s="15"/>
+      <c r="ALG40" s="15"/>
+      <c r="ALH40" s="15"/>
+      <c r="ALI40" s="15"/>
+      <c r="ALJ40" s="15"/>
+      <c r="ALK40" s="15"/>
+      <c r="ALL40" s="15"/>
+      <c r="ALM40" s="15"/>
+      <c r="ALN40" s="15"/>
+      <c r="ALO40" s="15"/>
+      <c r="ALP40" s="15"/>
+      <c r="ALQ40" s="15"/>
+      <c r="ALR40" s="15"/>
+      <c r="ALS40" s="15"/>
+      <c r="ALT40" s="15"/>
+      <c r="ALU40" s="15"/>
+      <c r="ALV40" s="15"/>
+      <c r="ALW40" s="15"/>
+      <c r="ALX40" s="15"/>
+      <c r="ALY40" s="15"/>
+      <c r="ALZ40" s="15"/>
+      <c r="AMA40" s="15"/>
+      <c r="AMB40" s="15"/>
+      <c r="AMC40" s="15"/>
+      <c r="AMD40" s="15"/>
+      <c r="AME40" s="15"/>
+      <c r="AMF40" s="15"/>
+      <c r="AMG40" s="15"/>
+      <c r="AMH40" s="15"/>
+      <c r="AMI40" s="15"/>
+      <c r="AMJ40" s="15"/>
+      <c r="AMK40" s="15"/>
+      <c r="AML40" s="15"/>
+      <c r="AMM40" s="15"/>
     </row>
-    <row r="41" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:1028" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="L41" s="10" t="s">
+      <c r="G41" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="I41" s="18">
+        <v>45260</v>
+      </c>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="M41" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="O41" s="10" t="s">
+      <c r="N41" s="15"/>
+      <c r="O41" s="17" t="s">
         <v>537</v>
       </c>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="15"/>
+      <c r="AI41" s="15"/>
+      <c r="AJ41" s="15"/>
+      <c r="AK41" s="15"/>
+      <c r="AL41" s="15"/>
+      <c r="AM41" s="15"/>
+      <c r="AN41" s="15"/>
+      <c r="AO41" s="15"/>
+      <c r="AP41" s="15"/>
+      <c r="AQ41" s="15"/>
+      <c r="AR41" s="15"/>
+      <c r="AS41" s="15"/>
+      <c r="AT41" s="15"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="15"/>
+      <c r="AX41" s="15"/>
+      <c r="AY41" s="15"/>
+      <c r="AZ41" s="15"/>
+      <c r="BA41" s="15"/>
+      <c r="BB41" s="15"/>
+      <c r="BC41" s="15"/>
+      <c r="BD41" s="15"/>
+      <c r="BE41" s="15"/>
+      <c r="BF41" s="15"/>
+      <c r="BG41" s="15"/>
+      <c r="BH41" s="15"/>
+      <c r="BI41" s="15"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="15"/>
+      <c r="BL41" s="15"/>
+      <c r="BM41" s="15"/>
+      <c r="BN41" s="15"/>
+      <c r="BO41" s="15"/>
+      <c r="BP41" s="15"/>
+      <c r="BQ41" s="15"/>
+      <c r="BR41" s="15"/>
+      <c r="BS41" s="15"/>
+      <c r="BT41" s="15"/>
+      <c r="BU41" s="15"/>
+      <c r="BV41" s="15"/>
+      <c r="BW41" s="15"/>
+      <c r="BX41" s="15"/>
+      <c r="BY41" s="15"/>
+      <c r="BZ41" s="15"/>
+      <c r="CA41" s="15"/>
+      <c r="CB41" s="15"/>
+      <c r="CC41" s="15"/>
+      <c r="CD41" s="15"/>
+      <c r="CE41" s="15"/>
+      <c r="CF41" s="15"/>
+      <c r="CG41" s="15"/>
+      <c r="CH41" s="15"/>
+      <c r="CI41" s="15"/>
+      <c r="CJ41" s="15"/>
+      <c r="CK41" s="15"/>
+      <c r="CL41" s="15"/>
+      <c r="CM41" s="15"/>
+      <c r="CN41" s="15"/>
+      <c r="CO41" s="15"/>
+      <c r="CP41" s="15"/>
+      <c r="CQ41" s="15"/>
+      <c r="CR41" s="15"/>
+      <c r="CS41" s="15"/>
+      <c r="CT41" s="15"/>
+      <c r="CU41" s="15"/>
+      <c r="CV41" s="15"/>
+      <c r="CW41" s="15"/>
+      <c r="CX41" s="15"/>
+      <c r="CY41" s="15"/>
+      <c r="CZ41" s="15"/>
+      <c r="DA41" s="15"/>
+      <c r="DB41" s="15"/>
+      <c r="DC41" s="15"/>
+      <c r="DD41" s="15"/>
+      <c r="DE41" s="15"/>
+      <c r="DF41" s="15"/>
+      <c r="DG41" s="15"/>
+      <c r="DH41" s="15"/>
+      <c r="DI41" s="15"/>
+      <c r="DJ41" s="15"/>
+      <c r="DK41" s="15"/>
+      <c r="DL41" s="15"/>
+      <c r="DM41" s="15"/>
+      <c r="DN41" s="15"/>
+      <c r="DO41" s="15"/>
+      <c r="DP41" s="15"/>
+      <c r="DQ41" s="15"/>
+      <c r="DR41" s="15"/>
+      <c r="DS41" s="15"/>
+      <c r="DT41" s="15"/>
+      <c r="DU41" s="15"/>
+      <c r="DV41" s="15"/>
+      <c r="DW41" s="15"/>
+      <c r="DX41" s="15"/>
+      <c r="DY41" s="15"/>
+      <c r="DZ41" s="15"/>
+      <c r="EA41" s="15"/>
+      <c r="EB41" s="15"/>
+      <c r="EC41" s="15"/>
+      <c r="ED41" s="15"/>
+      <c r="EE41" s="15"/>
+      <c r="EF41" s="15"/>
+      <c r="EG41" s="15"/>
+      <c r="EH41" s="15"/>
+      <c r="EI41" s="15"/>
+      <c r="EJ41" s="15"/>
+      <c r="EK41" s="15"/>
+      <c r="EL41" s="15"/>
+      <c r="EM41" s="15"/>
+      <c r="EN41" s="15"/>
+      <c r="EO41" s="15"/>
+      <c r="EP41" s="15"/>
+      <c r="EQ41" s="15"/>
+      <c r="ER41" s="15"/>
+      <c r="ES41" s="15"/>
+      <c r="ET41" s="15"/>
+      <c r="EU41" s="15"/>
+      <c r="EV41" s="15"/>
+      <c r="EW41" s="15"/>
+      <c r="EX41" s="15"/>
+      <c r="EY41" s="15"/>
+      <c r="EZ41" s="15"/>
+      <c r="FA41" s="15"/>
+      <c r="FB41" s="15"/>
+      <c r="FC41" s="15"/>
+      <c r="FD41" s="15"/>
+      <c r="FE41" s="15"/>
+      <c r="FF41" s="15"/>
+      <c r="FG41" s="15"/>
+      <c r="FH41" s="15"/>
+      <c r="FI41" s="15"/>
+      <c r="FJ41" s="15"/>
+      <c r="FK41" s="15"/>
+      <c r="FL41" s="15"/>
+      <c r="FM41" s="15"/>
+      <c r="FN41" s="15"/>
+      <c r="FO41" s="15"/>
+      <c r="FP41" s="15"/>
+      <c r="FQ41" s="15"/>
+      <c r="FR41" s="15"/>
+      <c r="FS41" s="15"/>
+      <c r="FT41" s="15"/>
+      <c r="FU41" s="15"/>
+      <c r="FV41" s="15"/>
+      <c r="FW41" s="15"/>
+      <c r="FX41" s="15"/>
+      <c r="FY41" s="15"/>
+      <c r="FZ41" s="15"/>
+      <c r="GA41" s="15"/>
+      <c r="GB41" s="15"/>
+      <c r="GC41" s="15"/>
+      <c r="GD41" s="15"/>
+      <c r="GE41" s="15"/>
+      <c r="GF41" s="15"/>
+      <c r="GG41" s="15"/>
+      <c r="GH41" s="15"/>
+      <c r="GI41" s="15"/>
+      <c r="GJ41" s="15"/>
+      <c r="GK41" s="15"/>
+      <c r="GL41" s="15"/>
+      <c r="GM41" s="15"/>
+      <c r="GN41" s="15"/>
+      <c r="GO41" s="15"/>
+      <c r="GP41" s="15"/>
+      <c r="GQ41" s="15"/>
+      <c r="GR41" s="15"/>
+      <c r="GS41" s="15"/>
+      <c r="GT41" s="15"/>
+      <c r="GU41" s="15"/>
+      <c r="GV41" s="15"/>
+      <c r="GW41" s="15"/>
+      <c r="GX41" s="15"/>
+      <c r="GY41" s="15"/>
+      <c r="GZ41" s="15"/>
+      <c r="HA41" s="15"/>
+      <c r="HB41" s="15"/>
+      <c r="HC41" s="15"/>
+      <c r="HD41" s="15"/>
+      <c r="HE41" s="15"/>
+      <c r="HF41" s="15"/>
+      <c r="HG41" s="15"/>
+      <c r="HH41" s="15"/>
+      <c r="HI41" s="15"/>
+      <c r="HJ41" s="15"/>
+      <c r="HK41" s="15"/>
+      <c r="HL41" s="15"/>
+      <c r="HM41" s="15"/>
+      <c r="HN41" s="15"/>
+      <c r="HO41" s="15"/>
+      <c r="HP41" s="15"/>
+      <c r="HQ41" s="15"/>
+      <c r="HR41" s="15"/>
+      <c r="HS41" s="15"/>
+      <c r="HT41" s="15"/>
+      <c r="HU41" s="15"/>
+      <c r="HV41" s="15"/>
+      <c r="HW41" s="15"/>
+      <c r="HX41" s="15"/>
+      <c r="HY41" s="15"/>
+      <c r="HZ41" s="15"/>
+      <c r="IA41" s="15"/>
+      <c r="IB41" s="15"/>
+      <c r="IC41" s="15"/>
+      <c r="ID41" s="15"/>
+      <c r="IE41" s="15"/>
+      <c r="IF41" s="15"/>
+      <c r="IG41" s="15"/>
+      <c r="IH41" s="15"/>
+      <c r="II41" s="15"/>
+      <c r="IJ41" s="15"/>
+      <c r="IK41" s="15"/>
+      <c r="IL41" s="15"/>
+      <c r="IM41" s="15"/>
+      <c r="IN41" s="15"/>
+      <c r="IO41" s="15"/>
+      <c r="IP41" s="15"/>
+      <c r="IQ41" s="15"/>
+      <c r="IR41" s="15"/>
+      <c r="IS41" s="15"/>
+      <c r="IT41" s="15"/>
+      <c r="IU41" s="15"/>
+      <c r="IV41" s="15"/>
+      <c r="IW41" s="15"/>
+      <c r="IX41" s="15"/>
+      <c r="IY41" s="15"/>
+      <c r="IZ41" s="15"/>
+      <c r="JA41" s="15"/>
+      <c r="JB41" s="15"/>
+      <c r="JC41" s="15"/>
+      <c r="JD41" s="15"/>
+      <c r="JE41" s="15"/>
+      <c r="JF41" s="15"/>
+      <c r="JG41" s="15"/>
+      <c r="JH41" s="15"/>
+      <c r="JI41" s="15"/>
+      <c r="JJ41" s="15"/>
+      <c r="JK41" s="15"/>
+      <c r="JL41" s="15"/>
+      <c r="JM41" s="15"/>
+      <c r="JN41" s="15"/>
+      <c r="JO41" s="15"/>
+      <c r="JP41" s="15"/>
+      <c r="JQ41" s="15"/>
+      <c r="JR41" s="15"/>
+      <c r="JS41" s="15"/>
+      <c r="JT41" s="15"/>
+      <c r="JU41" s="15"/>
+      <c r="JV41" s="15"/>
+      <c r="JW41" s="15"/>
+      <c r="JX41" s="15"/>
+      <c r="JY41" s="15"/>
+      <c r="JZ41" s="15"/>
+      <c r="KA41" s="15"/>
+      <c r="KB41" s="15"/>
+      <c r="KC41" s="15"/>
+      <c r="KD41" s="15"/>
+      <c r="KE41" s="15"/>
+      <c r="KF41" s="15"/>
+      <c r="KG41" s="15"/>
+      <c r="KH41" s="15"/>
+      <c r="KI41" s="15"/>
+      <c r="KJ41" s="15"/>
+      <c r="KK41" s="15"/>
+      <c r="KL41" s="15"/>
+      <c r="KM41" s="15"/>
+      <c r="KN41" s="15"/>
+      <c r="KO41" s="15"/>
+      <c r="KP41" s="15"/>
+      <c r="KQ41" s="15"/>
+      <c r="KR41" s="15"/>
+      <c r="KS41" s="15"/>
+      <c r="KT41" s="15"/>
+      <c r="KU41" s="15"/>
+      <c r="KV41" s="15"/>
+      <c r="KW41" s="15"/>
+      <c r="KX41" s="15"/>
+      <c r="KY41" s="15"/>
+      <c r="KZ41" s="15"/>
+      <c r="LA41" s="15"/>
+      <c r="LB41" s="15"/>
+      <c r="LC41" s="15"/>
+      <c r="LD41" s="15"/>
+      <c r="LE41" s="15"/>
+      <c r="LF41" s="15"/>
+      <c r="LG41" s="15"/>
+      <c r="LH41" s="15"/>
+      <c r="LI41" s="15"/>
+      <c r="LJ41" s="15"/>
+      <c r="LK41" s="15"/>
+      <c r="LL41" s="15"/>
+      <c r="LM41" s="15"/>
+      <c r="LN41" s="15"/>
+      <c r="LO41" s="15"/>
+      <c r="LP41" s="15"/>
+      <c r="LQ41" s="15"/>
+      <c r="LR41" s="15"/>
+      <c r="LS41" s="15"/>
+      <c r="LT41" s="15"/>
+      <c r="LU41" s="15"/>
+      <c r="LV41" s="15"/>
+      <c r="LW41" s="15"/>
+      <c r="LX41" s="15"/>
+      <c r="LY41" s="15"/>
+      <c r="LZ41" s="15"/>
+      <c r="MA41" s="15"/>
+      <c r="MB41" s="15"/>
+      <c r="MC41" s="15"/>
+      <c r="MD41" s="15"/>
+      <c r="ME41" s="15"/>
+      <c r="MF41" s="15"/>
+      <c r="MG41" s="15"/>
+      <c r="MH41" s="15"/>
+      <c r="MI41" s="15"/>
+      <c r="MJ41" s="15"/>
+      <c r="MK41" s="15"/>
+      <c r="ML41" s="15"/>
+      <c r="MM41" s="15"/>
+      <c r="MN41" s="15"/>
+      <c r="MO41" s="15"/>
+      <c r="MP41" s="15"/>
+      <c r="MQ41" s="15"/>
+      <c r="MR41" s="15"/>
+      <c r="MS41" s="15"/>
+      <c r="MT41" s="15"/>
+      <c r="MU41" s="15"/>
+      <c r="MV41" s="15"/>
+      <c r="MW41" s="15"/>
+      <c r="MX41" s="15"/>
+      <c r="MY41" s="15"/>
+      <c r="MZ41" s="15"/>
+      <c r="NA41" s="15"/>
+      <c r="NB41" s="15"/>
+      <c r="NC41" s="15"/>
+      <c r="ND41" s="15"/>
+      <c r="NE41" s="15"/>
+      <c r="NF41" s="15"/>
+      <c r="NG41" s="15"/>
+      <c r="NH41" s="15"/>
+      <c r="NI41" s="15"/>
+      <c r="NJ41" s="15"/>
+      <c r="NK41" s="15"/>
+      <c r="NL41" s="15"/>
+      <c r="NM41" s="15"/>
+      <c r="NN41" s="15"/>
+      <c r="NO41" s="15"/>
+      <c r="NP41" s="15"/>
+      <c r="NQ41" s="15"/>
+      <c r="NR41" s="15"/>
+      <c r="NS41" s="15"/>
+      <c r="NT41" s="15"/>
+      <c r="NU41" s="15"/>
+      <c r="NV41" s="15"/>
+      <c r="NW41" s="15"/>
+      <c r="NX41" s="15"/>
+      <c r="NY41" s="15"/>
+      <c r="NZ41" s="15"/>
+      <c r="OA41" s="15"/>
+      <c r="OB41" s="15"/>
+      <c r="OC41" s="15"/>
+      <c r="OD41" s="15"/>
+      <c r="OE41" s="15"/>
+      <c r="OF41" s="15"/>
+      <c r="OG41" s="15"/>
+      <c r="OH41" s="15"/>
+      <c r="OI41" s="15"/>
+      <c r="OJ41" s="15"/>
+      <c r="OK41" s="15"/>
+      <c r="OL41" s="15"/>
+      <c r="OM41" s="15"/>
+      <c r="ON41" s="15"/>
+      <c r="OO41" s="15"/>
+      <c r="OP41" s="15"/>
+      <c r="OQ41" s="15"/>
+      <c r="OR41" s="15"/>
+      <c r="OS41" s="15"/>
+      <c r="OT41" s="15"/>
+      <c r="OU41" s="15"/>
+      <c r="OV41" s="15"/>
+      <c r="OW41" s="15"/>
+      <c r="OX41" s="15"/>
+      <c r="OY41" s="15"/>
+      <c r="OZ41" s="15"/>
+      <c r="PA41" s="15"/>
+      <c r="PB41" s="15"/>
+      <c r="PC41" s="15"/>
+      <c r="PD41" s="15"/>
+      <c r="PE41" s="15"/>
+      <c r="PF41" s="15"/>
+      <c r="PG41" s="15"/>
+      <c r="PH41" s="15"/>
+      <c r="PI41" s="15"/>
+      <c r="PJ41" s="15"/>
+      <c r="PK41" s="15"/>
+      <c r="PL41" s="15"/>
+      <c r="PM41" s="15"/>
+      <c r="PN41" s="15"/>
+      <c r="PO41" s="15"/>
+      <c r="PP41" s="15"/>
+      <c r="PQ41" s="15"/>
+      <c r="PR41" s="15"/>
+      <c r="PS41" s="15"/>
+      <c r="PT41" s="15"/>
+      <c r="PU41" s="15"/>
+      <c r="PV41" s="15"/>
+      <c r="PW41" s="15"/>
+      <c r="PX41" s="15"/>
+      <c r="PY41" s="15"/>
+      <c r="PZ41" s="15"/>
+      <c r="QA41" s="15"/>
+      <c r="QB41" s="15"/>
+      <c r="QC41" s="15"/>
+      <c r="QD41" s="15"/>
+      <c r="QE41" s="15"/>
+      <c r="QF41" s="15"/>
+      <c r="QG41" s="15"/>
+      <c r="QH41" s="15"/>
+      <c r="QI41" s="15"/>
+      <c r="QJ41" s="15"/>
+      <c r="QK41" s="15"/>
+      <c r="QL41" s="15"/>
+      <c r="QM41" s="15"/>
+      <c r="QN41" s="15"/>
+      <c r="QO41" s="15"/>
+      <c r="QP41" s="15"/>
+      <c r="QQ41" s="15"/>
+      <c r="QR41" s="15"/>
+      <c r="QS41" s="15"/>
+      <c r="QT41" s="15"/>
+      <c r="QU41" s="15"/>
+      <c r="QV41" s="15"/>
+      <c r="QW41" s="15"/>
+      <c r="QX41" s="15"/>
+      <c r="QY41" s="15"/>
+      <c r="QZ41" s="15"/>
+      <c r="RA41" s="15"/>
+      <c r="RB41" s="15"/>
+      <c r="RC41" s="15"/>
+      <c r="RD41" s="15"/>
+      <c r="RE41" s="15"/>
+      <c r="RF41" s="15"/>
+      <c r="RG41" s="15"/>
+      <c r="RH41" s="15"/>
+      <c r="RI41" s="15"/>
+      <c r="RJ41" s="15"/>
+      <c r="RK41" s="15"/>
+      <c r="RL41" s="15"/>
+      <c r="RM41" s="15"/>
+      <c r="RN41" s="15"/>
+      <c r="RO41" s="15"/>
+      <c r="RP41" s="15"/>
+      <c r="RQ41" s="15"/>
+      <c r="RR41" s="15"/>
+      <c r="RS41" s="15"/>
+      <c r="RT41" s="15"/>
+      <c r="RU41" s="15"/>
+      <c r="RV41" s="15"/>
+      <c r="RW41" s="15"/>
+      <c r="RX41" s="15"/>
+      <c r="RY41" s="15"/>
+      <c r="RZ41" s="15"/>
+      <c r="SA41" s="15"/>
+      <c r="SB41" s="15"/>
+      <c r="SC41" s="15"/>
+      <c r="SD41" s="15"/>
+      <c r="SE41" s="15"/>
+      <c r="SF41" s="15"/>
+      <c r="SG41" s="15"/>
+      <c r="SH41" s="15"/>
+      <c r="SI41" s="15"/>
+      <c r="SJ41" s="15"/>
+      <c r="SK41" s="15"/>
+      <c r="SL41" s="15"/>
+      <c r="SM41" s="15"/>
+      <c r="SN41" s="15"/>
+      <c r="SO41" s="15"/>
+      <c r="SP41" s="15"/>
+      <c r="SQ41" s="15"/>
+      <c r="SR41" s="15"/>
+      <c r="SS41" s="15"/>
+      <c r="ST41" s="15"/>
+      <c r="SU41" s="15"/>
+      <c r="SV41" s="15"/>
+      <c r="SW41" s="15"/>
+      <c r="SX41" s="15"/>
+      <c r="SY41" s="15"/>
+      <c r="SZ41" s="15"/>
+      <c r="TA41" s="15"/>
+      <c r="TB41" s="15"/>
+      <c r="TC41" s="15"/>
+      <c r="TD41" s="15"/>
+      <c r="TE41" s="15"/>
+      <c r="TF41" s="15"/>
+      <c r="TG41" s="15"/>
+      <c r="TH41" s="15"/>
+      <c r="TI41" s="15"/>
+      <c r="TJ41" s="15"/>
+      <c r="TK41" s="15"/>
+      <c r="TL41" s="15"/>
+      <c r="TM41" s="15"/>
+      <c r="TN41" s="15"/>
+      <c r="TO41" s="15"/>
+      <c r="TP41" s="15"/>
+      <c r="TQ41" s="15"/>
+      <c r="TR41" s="15"/>
+      <c r="TS41" s="15"/>
+      <c r="TT41" s="15"/>
+      <c r="TU41" s="15"/>
+      <c r="TV41" s="15"/>
+      <c r="TW41" s="15"/>
+      <c r="TX41" s="15"/>
+      <c r="TY41" s="15"/>
+      <c r="TZ41" s="15"/>
+      <c r="UA41" s="15"/>
+      <c r="UB41" s="15"/>
+      <c r="UC41" s="15"/>
+      <c r="UD41" s="15"/>
+      <c r="UE41" s="15"/>
+      <c r="UF41" s="15"/>
+      <c r="UG41" s="15"/>
+      <c r="UH41" s="15"/>
+      <c r="UI41" s="15"/>
+      <c r="UJ41" s="15"/>
+      <c r="UK41" s="15"/>
+      <c r="UL41" s="15"/>
+      <c r="UM41" s="15"/>
+      <c r="UN41" s="15"/>
+      <c r="UO41" s="15"/>
+      <c r="UP41" s="15"/>
+      <c r="UQ41" s="15"/>
+      <c r="UR41" s="15"/>
+      <c r="US41" s="15"/>
+      <c r="UT41" s="15"/>
+      <c r="UU41" s="15"/>
+      <c r="UV41" s="15"/>
+      <c r="UW41" s="15"/>
+      <c r="UX41" s="15"/>
+      <c r="UY41" s="15"/>
+      <c r="UZ41" s="15"/>
+      <c r="VA41" s="15"/>
+      <c r="VB41" s="15"/>
+      <c r="VC41" s="15"/>
+      <c r="VD41" s="15"/>
+      <c r="VE41" s="15"/>
+      <c r="VF41" s="15"/>
+      <c r="VG41" s="15"/>
+      <c r="VH41" s="15"/>
+      <c r="VI41" s="15"/>
+      <c r="VJ41" s="15"/>
+      <c r="VK41" s="15"/>
+      <c r="VL41" s="15"/>
+      <c r="VM41" s="15"/>
+      <c r="VN41" s="15"/>
+      <c r="VO41" s="15"/>
+      <c r="VP41" s="15"/>
+      <c r="VQ41" s="15"/>
+      <c r="VR41" s="15"/>
+      <c r="VS41" s="15"/>
+      <c r="VT41" s="15"/>
+      <c r="VU41" s="15"/>
+      <c r="VV41" s="15"/>
+      <c r="VW41" s="15"/>
+      <c r="VX41" s="15"/>
+      <c r="VY41" s="15"/>
+      <c r="VZ41" s="15"/>
+      <c r="WA41" s="15"/>
+      <c r="WB41" s="15"/>
+      <c r="WC41" s="15"/>
+      <c r="WD41" s="15"/>
+      <c r="WE41" s="15"/>
+      <c r="WF41" s="15"/>
+      <c r="WG41" s="15"/>
+      <c r="WH41" s="15"/>
+      <c r="WI41" s="15"/>
+      <c r="WJ41" s="15"/>
+      <c r="WK41" s="15"/>
+      <c r="WL41" s="15"/>
+      <c r="WM41" s="15"/>
+      <c r="WN41" s="15"/>
+      <c r="WO41" s="15"/>
+      <c r="WP41" s="15"/>
+      <c r="WQ41" s="15"/>
+      <c r="WR41" s="15"/>
+      <c r="WS41" s="15"/>
+      <c r="WT41" s="15"/>
+      <c r="WU41" s="15"/>
+      <c r="WV41" s="15"/>
+      <c r="WW41" s="15"/>
+      <c r="WX41" s="15"/>
+      <c r="WY41" s="15"/>
+      <c r="WZ41" s="15"/>
+      <c r="XA41" s="15"/>
+      <c r="XB41" s="15"/>
+      <c r="XC41" s="15"/>
+      <c r="XD41" s="15"/>
+      <c r="XE41" s="15"/>
+      <c r="XF41" s="15"/>
+      <c r="XG41" s="15"/>
+      <c r="XH41" s="15"/>
+      <c r="XI41" s="15"/>
+      <c r="XJ41" s="15"/>
+      <c r="XK41" s="15"/>
+      <c r="XL41" s="15"/>
+      <c r="XM41" s="15"/>
+      <c r="XN41" s="15"/>
+      <c r="XO41" s="15"/>
+      <c r="XP41" s="15"/>
+      <c r="XQ41" s="15"/>
+      <c r="XR41" s="15"/>
+      <c r="XS41" s="15"/>
+      <c r="XT41" s="15"/>
+      <c r="XU41" s="15"/>
+      <c r="XV41" s="15"/>
+      <c r="XW41" s="15"/>
+      <c r="XX41" s="15"/>
+      <c r="XY41" s="15"/>
+      <c r="XZ41" s="15"/>
+      <c r="YA41" s="15"/>
+      <c r="YB41" s="15"/>
+      <c r="YC41" s="15"/>
+      <c r="YD41" s="15"/>
+      <c r="YE41" s="15"/>
+      <c r="YF41" s="15"/>
+      <c r="YG41" s="15"/>
+      <c r="YH41" s="15"/>
+      <c r="YI41" s="15"/>
+      <c r="YJ41" s="15"/>
+      <c r="YK41" s="15"/>
+      <c r="YL41" s="15"/>
+      <c r="YM41" s="15"/>
+      <c r="YN41" s="15"/>
+      <c r="YO41" s="15"/>
+      <c r="YP41" s="15"/>
+      <c r="YQ41" s="15"/>
+      <c r="YR41" s="15"/>
+      <c r="YS41" s="15"/>
+      <c r="YT41" s="15"/>
+      <c r="YU41" s="15"/>
+      <c r="YV41" s="15"/>
+      <c r="YW41" s="15"/>
+      <c r="YX41" s="15"/>
+      <c r="YY41" s="15"/>
+      <c r="YZ41" s="15"/>
+      <c r="ZA41" s="15"/>
+      <c r="ZB41" s="15"/>
+      <c r="ZC41" s="15"/>
+      <c r="ZD41" s="15"/>
+      <c r="ZE41" s="15"/>
+      <c r="ZF41" s="15"/>
+      <c r="ZG41" s="15"/>
+      <c r="ZH41" s="15"/>
+      <c r="ZI41" s="15"/>
+      <c r="ZJ41" s="15"/>
+      <c r="ZK41" s="15"/>
+      <c r="ZL41" s="15"/>
+      <c r="ZM41" s="15"/>
+      <c r="ZN41" s="15"/>
+      <c r="ZO41" s="15"/>
+      <c r="ZP41" s="15"/>
+      <c r="ZQ41" s="15"/>
+      <c r="ZR41" s="15"/>
+      <c r="ZS41" s="15"/>
+      <c r="ZT41" s="15"/>
+      <c r="ZU41" s="15"/>
+      <c r="ZV41" s="15"/>
+      <c r="ZW41" s="15"/>
+      <c r="ZX41" s="15"/>
+      <c r="ZY41" s="15"/>
+      <c r="ZZ41" s="15"/>
+      <c r="AAA41" s="15"/>
+      <c r="AAB41" s="15"/>
+      <c r="AAC41" s="15"/>
+      <c r="AAD41" s="15"/>
+      <c r="AAE41" s="15"/>
+      <c r="AAF41" s="15"/>
+      <c r="AAG41" s="15"/>
+      <c r="AAH41" s="15"/>
+      <c r="AAI41" s="15"/>
+      <c r="AAJ41" s="15"/>
+      <c r="AAK41" s="15"/>
+      <c r="AAL41" s="15"/>
+      <c r="AAM41" s="15"/>
+      <c r="AAN41" s="15"/>
+      <c r="AAO41" s="15"/>
+      <c r="AAP41" s="15"/>
+      <c r="AAQ41" s="15"/>
+      <c r="AAR41" s="15"/>
+      <c r="AAS41" s="15"/>
+      <c r="AAT41" s="15"/>
+      <c r="AAU41" s="15"/>
+      <c r="AAV41" s="15"/>
+      <c r="AAW41" s="15"/>
+      <c r="AAX41" s="15"/>
+      <c r="AAY41" s="15"/>
+      <c r="AAZ41" s="15"/>
+      <c r="ABA41" s="15"/>
+      <c r="ABB41" s="15"/>
+      <c r="ABC41" s="15"/>
+      <c r="ABD41" s="15"/>
+      <c r="ABE41" s="15"/>
+      <c r="ABF41" s="15"/>
+      <c r="ABG41" s="15"/>
+      <c r="ABH41" s="15"/>
+      <c r="ABI41" s="15"/>
+      <c r="ABJ41" s="15"/>
+      <c r="ABK41" s="15"/>
+      <c r="ABL41" s="15"/>
+      <c r="ABM41" s="15"/>
+      <c r="ABN41" s="15"/>
+      <c r="ABO41" s="15"/>
+      <c r="ABP41" s="15"/>
+      <c r="ABQ41" s="15"/>
+      <c r="ABR41" s="15"/>
+      <c r="ABS41" s="15"/>
+      <c r="ABT41" s="15"/>
+      <c r="ABU41" s="15"/>
+      <c r="ABV41" s="15"/>
+      <c r="ABW41" s="15"/>
+      <c r="ABX41" s="15"/>
+      <c r="ABY41" s="15"/>
+      <c r="ABZ41" s="15"/>
+      <c r="ACA41" s="15"/>
+      <c r="ACB41" s="15"/>
+      <c r="ACC41" s="15"/>
+      <c r="ACD41" s="15"/>
+      <c r="ACE41" s="15"/>
+      <c r="ACF41" s="15"/>
+      <c r="ACG41" s="15"/>
+      <c r="ACH41" s="15"/>
+      <c r="ACI41" s="15"/>
+      <c r="ACJ41" s="15"/>
+      <c r="ACK41" s="15"/>
+      <c r="ACL41" s="15"/>
+      <c r="ACM41" s="15"/>
+      <c r="ACN41" s="15"/>
+      <c r="ACO41" s="15"/>
+      <c r="ACP41" s="15"/>
+      <c r="ACQ41" s="15"/>
+      <c r="ACR41" s="15"/>
+      <c r="ACS41" s="15"/>
+      <c r="ACT41" s="15"/>
+      <c r="ACU41" s="15"/>
+      <c r="ACV41" s="15"/>
+      <c r="ACW41" s="15"/>
+      <c r="ACX41" s="15"/>
+      <c r="ACY41" s="15"/>
+      <c r="ACZ41" s="15"/>
+      <c r="ADA41" s="15"/>
+      <c r="ADB41" s="15"/>
+      <c r="ADC41" s="15"/>
+      <c r="ADD41" s="15"/>
+      <c r="ADE41" s="15"/>
+      <c r="ADF41" s="15"/>
+      <c r="ADG41" s="15"/>
+      <c r="ADH41" s="15"/>
+      <c r="ADI41" s="15"/>
+      <c r="ADJ41" s="15"/>
+      <c r="ADK41" s="15"/>
+      <c r="ADL41" s="15"/>
+      <c r="ADM41" s="15"/>
+      <c r="ADN41" s="15"/>
+      <c r="ADO41" s="15"/>
+      <c r="ADP41" s="15"/>
+      <c r="ADQ41" s="15"/>
+      <c r="ADR41" s="15"/>
+      <c r="ADS41" s="15"/>
+      <c r="ADT41" s="15"/>
+      <c r="ADU41" s="15"/>
+      <c r="ADV41" s="15"/>
+      <c r="ADW41" s="15"/>
+      <c r="ADX41" s="15"/>
+      <c r="ADY41" s="15"/>
+      <c r="ADZ41" s="15"/>
+      <c r="AEA41" s="15"/>
+      <c r="AEB41" s="15"/>
+      <c r="AEC41" s="15"/>
+      <c r="AED41" s="15"/>
+      <c r="AEE41" s="15"/>
+      <c r="AEF41" s="15"/>
+      <c r="AEG41" s="15"/>
+      <c r="AEH41" s="15"/>
+      <c r="AEI41" s="15"/>
+      <c r="AEJ41" s="15"/>
+      <c r="AEK41" s="15"/>
+      <c r="AEL41" s="15"/>
+      <c r="AEM41" s="15"/>
+      <c r="AEN41" s="15"/>
+      <c r="AEO41" s="15"/>
+      <c r="AEP41" s="15"/>
+      <c r="AEQ41" s="15"/>
+      <c r="AER41" s="15"/>
+      <c r="AES41" s="15"/>
+      <c r="AET41" s="15"/>
+      <c r="AEU41" s="15"/>
+      <c r="AEV41" s="15"/>
+      <c r="AEW41" s="15"/>
+      <c r="AEX41" s="15"/>
+      <c r="AEY41" s="15"/>
+      <c r="AEZ41" s="15"/>
+      <c r="AFA41" s="15"/>
+      <c r="AFB41" s="15"/>
+      <c r="AFC41" s="15"/>
+      <c r="AFD41" s="15"/>
+      <c r="AFE41" s="15"/>
+      <c r="AFF41" s="15"/>
+      <c r="AFG41" s="15"/>
+      <c r="AFH41" s="15"/>
+      <c r="AFI41" s="15"/>
+      <c r="AFJ41" s="15"/>
+      <c r="AFK41" s="15"/>
+      <c r="AFL41" s="15"/>
+      <c r="AFM41" s="15"/>
+      <c r="AFN41" s="15"/>
+      <c r="AFO41" s="15"/>
+      <c r="AFP41" s="15"/>
+      <c r="AFQ41" s="15"/>
+      <c r="AFR41" s="15"/>
+      <c r="AFS41" s="15"/>
+      <c r="AFT41" s="15"/>
+      <c r="AFU41" s="15"/>
+      <c r="AFV41" s="15"/>
+      <c r="AFW41" s="15"/>
+      <c r="AFX41" s="15"/>
+      <c r="AFY41" s="15"/>
+      <c r="AFZ41" s="15"/>
+      <c r="AGA41" s="15"/>
+      <c r="AGB41" s="15"/>
+      <c r="AGC41" s="15"/>
+      <c r="AGD41" s="15"/>
+      <c r="AGE41" s="15"/>
+      <c r="AGF41" s="15"/>
+      <c r="AGG41" s="15"/>
+      <c r="AGH41" s="15"/>
+      <c r="AGI41" s="15"/>
+      <c r="AGJ41" s="15"/>
+      <c r="AGK41" s="15"/>
+      <c r="AGL41" s="15"/>
+      <c r="AGM41" s="15"/>
+      <c r="AGN41" s="15"/>
+      <c r="AGO41" s="15"/>
+      <c r="AGP41" s="15"/>
+      <c r="AGQ41" s="15"/>
+      <c r="AGR41" s="15"/>
+      <c r="AGS41" s="15"/>
+      <c r="AGT41" s="15"/>
+      <c r="AGU41" s="15"/>
+      <c r="AGV41" s="15"/>
+      <c r="AGW41" s="15"/>
+      <c r="AGX41" s="15"/>
+      <c r="AGY41" s="15"/>
+      <c r="AGZ41" s="15"/>
+      <c r="AHA41" s="15"/>
+      <c r="AHB41" s="15"/>
+      <c r="AHC41" s="15"/>
+      <c r="AHD41" s="15"/>
+      <c r="AHE41" s="15"/>
+      <c r="AHF41" s="15"/>
+      <c r="AHG41" s="15"/>
+      <c r="AHH41" s="15"/>
+      <c r="AHI41" s="15"/>
+      <c r="AHJ41" s="15"/>
+      <c r="AHK41" s="15"/>
+      <c r="AHL41" s="15"/>
+      <c r="AHM41" s="15"/>
+      <c r="AHN41" s="15"/>
+      <c r="AHO41" s="15"/>
+      <c r="AHP41" s="15"/>
+      <c r="AHQ41" s="15"/>
+      <c r="AHR41" s="15"/>
+      <c r="AHS41" s="15"/>
+      <c r="AHT41" s="15"/>
+      <c r="AHU41" s="15"/>
+      <c r="AHV41" s="15"/>
+      <c r="AHW41" s="15"/>
+      <c r="AHX41" s="15"/>
+      <c r="AHY41" s="15"/>
+      <c r="AHZ41" s="15"/>
+      <c r="AIA41" s="15"/>
+      <c r="AIB41" s="15"/>
+      <c r="AIC41" s="15"/>
+      <c r="AID41" s="15"/>
+      <c r="AIE41" s="15"/>
+      <c r="AIF41" s="15"/>
+      <c r="AIG41" s="15"/>
+      <c r="AIH41" s="15"/>
+      <c r="AII41" s="15"/>
+      <c r="AIJ41" s="15"/>
+      <c r="AIK41" s="15"/>
+      <c r="AIL41" s="15"/>
+      <c r="AIM41" s="15"/>
+      <c r="AIN41" s="15"/>
+      <c r="AIO41" s="15"/>
+      <c r="AIP41" s="15"/>
+      <c r="AIQ41" s="15"/>
+      <c r="AIR41" s="15"/>
+      <c r="AIS41" s="15"/>
+      <c r="AIT41" s="15"/>
+      <c r="AIU41" s="15"/>
+      <c r="AIV41" s="15"/>
+      <c r="AIW41" s="15"/>
+      <c r="AIX41" s="15"/>
+      <c r="AIY41" s="15"/>
+      <c r="AIZ41" s="15"/>
+      <c r="AJA41" s="15"/>
+      <c r="AJB41" s="15"/>
+      <c r="AJC41" s="15"/>
+      <c r="AJD41" s="15"/>
+      <c r="AJE41" s="15"/>
+      <c r="AJF41" s="15"/>
+      <c r="AJG41" s="15"/>
+      <c r="AJH41" s="15"/>
+      <c r="AJI41" s="15"/>
+      <c r="AJJ41" s="15"/>
+      <c r="AJK41" s="15"/>
+      <c r="AJL41" s="15"/>
+      <c r="AJM41" s="15"/>
+      <c r="AJN41" s="15"/>
+      <c r="AJO41" s="15"/>
+      <c r="AJP41" s="15"/>
+      <c r="AJQ41" s="15"/>
+      <c r="AJR41" s="15"/>
+      <c r="AJS41" s="15"/>
+      <c r="AJT41" s="15"/>
+      <c r="AJU41" s="15"/>
+      <c r="AJV41" s="15"/>
+      <c r="AJW41" s="15"/>
+      <c r="AJX41" s="15"/>
+      <c r="AJY41" s="15"/>
+      <c r="AJZ41" s="15"/>
+      <c r="AKA41" s="15"/>
+      <c r="AKB41" s="15"/>
+      <c r="AKC41" s="15"/>
+      <c r="AKD41" s="15"/>
+      <c r="AKE41" s="15"/>
+      <c r="AKF41" s="15"/>
+      <c r="AKG41" s="15"/>
+      <c r="AKH41" s="15"/>
+      <c r="AKI41" s="15"/>
+      <c r="AKJ41" s="15"/>
+      <c r="AKK41" s="15"/>
+      <c r="AKL41" s="15"/>
+      <c r="AKM41" s="15"/>
+      <c r="AKN41" s="15"/>
+      <c r="AKO41" s="15"/>
+      <c r="AKP41" s="15"/>
+      <c r="AKQ41" s="15"/>
+      <c r="AKR41" s="15"/>
+      <c r="AKS41" s="15"/>
+      <c r="AKT41" s="15"/>
+      <c r="AKU41" s="15"/>
+      <c r="AKV41" s="15"/>
+      <c r="AKW41" s="15"/>
+      <c r="AKX41" s="15"/>
+      <c r="AKY41" s="15"/>
+      <c r="AKZ41" s="15"/>
+      <c r="ALA41" s="15"/>
+      <c r="ALB41" s="15"/>
+      <c r="ALC41" s="15"/>
+      <c r="ALD41" s="15"/>
+      <c r="ALE41" s="15"/>
+      <c r="ALF41" s="15"/>
+      <c r="ALG41" s="15"/>
+      <c r="ALH41" s="15"/>
+      <c r="ALI41" s="15"/>
+      <c r="ALJ41" s="15"/>
+      <c r="ALK41" s="15"/>
+      <c r="ALL41" s="15"/>
+      <c r="ALM41" s="15"/>
+      <c r="ALN41" s="15"/>
+      <c r="ALO41" s="15"/>
+      <c r="ALP41" s="15"/>
+      <c r="ALQ41" s="15"/>
+      <c r="ALR41" s="15"/>
+      <c r="ALS41" s="15"/>
+      <c r="ALT41" s="15"/>
+      <c r="ALU41" s="15"/>
+      <c r="ALV41" s="15"/>
+      <c r="ALW41" s="15"/>
+      <c r="ALX41" s="15"/>
+      <c r="ALY41" s="15"/>
+      <c r="ALZ41" s="15"/>
+      <c r="AMA41" s="15"/>
+      <c r="AMB41" s="15"/>
+      <c r="AMC41" s="15"/>
+      <c r="AMD41" s="15"/>
+      <c r="AME41" s="15"/>
+      <c r="AMF41" s="15"/>
+      <c r="AMG41" s="15"/>
+      <c r="AMH41" s="15"/>
+      <c r="AMI41" s="15"/>
+      <c r="AMJ41" s="15"/>
+      <c r="AMK41" s="15"/>
+      <c r="AML41" s="15"/>
+      <c r="AMM41" s="15"/>
     </row>
-    <row r="42" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:1028" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="L42" s="10" t="s">
+      <c r="G42" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="I42" s="18">
+        <v>45260</v>
+      </c>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="M42" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="O42" s="10" t="s">
+      <c r="N42" s="15"/>
+      <c r="O42" s="17" t="s">
         <v>537</v>
       </c>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="15"/>
+      <c r="AI42" s="15"/>
+      <c r="AJ42" s="15"/>
+      <c r="AK42" s="15"/>
+      <c r="AL42" s="15"/>
+      <c r="AM42" s="15"/>
+      <c r="AN42" s="15"/>
+      <c r="AO42" s="15"/>
+      <c r="AP42" s="15"/>
+      <c r="AQ42" s="15"/>
+      <c r="AR42" s="15"/>
+      <c r="AS42" s="15"/>
+      <c r="AT42" s="15"/>
+      <c r="AU42" s="15"/>
+      <c r="AV42" s="15"/>
+      <c r="AW42" s="15"/>
+      <c r="AX42" s="15"/>
+      <c r="AY42" s="15"/>
+      <c r="AZ42" s="15"/>
+      <c r="BA42" s="15"/>
+      <c r="BB42" s="15"/>
+      <c r="BC42" s="15"/>
+      <c r="BD42" s="15"/>
+      <c r="BE42" s="15"/>
+      <c r="BF42" s="15"/>
+      <c r="BG42" s="15"/>
+      <c r="BH42" s="15"/>
+      <c r="BI42" s="15"/>
+      <c r="BJ42" s="15"/>
+      <c r="BK42" s="15"/>
+      <c r="BL42" s="15"/>
+      <c r="BM42" s="15"/>
+      <c r="BN42" s="15"/>
+      <c r="BO42" s="15"/>
+      <c r="BP42" s="15"/>
+      <c r="BQ42" s="15"/>
+      <c r="BR42" s="15"/>
+      <c r="BS42" s="15"/>
+      <c r="BT42" s="15"/>
+      <c r="BU42" s="15"/>
+      <c r="BV42" s="15"/>
+      <c r="BW42" s="15"/>
+      <c r="BX42" s="15"/>
+      <c r="BY42" s="15"/>
+      <c r="BZ42" s="15"/>
+      <c r="CA42" s="15"/>
+      <c r="CB42" s="15"/>
+      <c r="CC42" s="15"/>
+      <c r="CD42" s="15"/>
+      <c r="CE42" s="15"/>
+      <c r="CF42" s="15"/>
+      <c r="CG42" s="15"/>
+      <c r="CH42" s="15"/>
+      <c r="CI42" s="15"/>
+      <c r="CJ42" s="15"/>
+      <c r="CK42" s="15"/>
+      <c r="CL42" s="15"/>
+      <c r="CM42" s="15"/>
+      <c r="CN42" s="15"/>
+      <c r="CO42" s="15"/>
+      <c r="CP42" s="15"/>
+      <c r="CQ42" s="15"/>
+      <c r="CR42" s="15"/>
+      <c r="CS42" s="15"/>
+      <c r="CT42" s="15"/>
+      <c r="CU42" s="15"/>
+      <c r="CV42" s="15"/>
+      <c r="CW42" s="15"/>
+      <c r="CX42" s="15"/>
+      <c r="CY42" s="15"/>
+      <c r="CZ42" s="15"/>
+      <c r="DA42" s="15"/>
+      <c r="DB42" s="15"/>
+      <c r="DC42" s="15"/>
+      <c r="DD42" s="15"/>
+      <c r="DE42" s="15"/>
+      <c r="DF42" s="15"/>
+      <c r="DG42" s="15"/>
+      <c r="DH42" s="15"/>
+      <c r="DI42" s="15"/>
+      <c r="DJ42" s="15"/>
+      <c r="DK42" s="15"/>
+      <c r="DL42" s="15"/>
+      <c r="DM42" s="15"/>
+      <c r="DN42" s="15"/>
+      <c r="DO42" s="15"/>
+      <c r="DP42" s="15"/>
+      <c r="DQ42" s="15"/>
+      <c r="DR42" s="15"/>
+      <c r="DS42" s="15"/>
+      <c r="DT42" s="15"/>
+      <c r="DU42" s="15"/>
+      <c r="DV42" s="15"/>
+      <c r="DW42" s="15"/>
+      <c r="DX42" s="15"/>
+      <c r="DY42" s="15"/>
+      <c r="DZ42" s="15"/>
+      <c r="EA42" s="15"/>
+      <c r="EB42" s="15"/>
+      <c r="EC42" s="15"/>
+      <c r="ED42" s="15"/>
+      <c r="EE42" s="15"/>
+      <c r="EF42" s="15"/>
+      <c r="EG42" s="15"/>
+      <c r="EH42" s="15"/>
+      <c r="EI42" s="15"/>
+      <c r="EJ42" s="15"/>
+      <c r="EK42" s="15"/>
+      <c r="EL42" s="15"/>
+      <c r="EM42" s="15"/>
+      <c r="EN42" s="15"/>
+      <c r="EO42" s="15"/>
+      <c r="EP42" s="15"/>
+      <c r="EQ42" s="15"/>
+      <c r="ER42" s="15"/>
+      <c r="ES42" s="15"/>
+      <c r="ET42" s="15"/>
+      <c r="EU42" s="15"/>
+      <c r="EV42" s="15"/>
+      <c r="EW42" s="15"/>
+      <c r="EX42" s="15"/>
+      <c r="EY42" s="15"/>
+      <c r="EZ42" s="15"/>
+      <c r="FA42" s="15"/>
+      <c r="FB42" s="15"/>
+      <c r="FC42" s="15"/>
+      <c r="FD42" s="15"/>
+      <c r="FE42" s="15"/>
+      <c r="FF42" s="15"/>
+      <c r="FG42" s="15"/>
+      <c r="FH42" s="15"/>
+      <c r="FI42" s="15"/>
+      <c r="FJ42" s="15"/>
+      <c r="FK42" s="15"/>
+      <c r="FL42" s="15"/>
+      <c r="FM42" s="15"/>
+      <c r="FN42" s="15"/>
+      <c r="FO42" s="15"/>
+      <c r="FP42" s="15"/>
+      <c r="FQ42" s="15"/>
+      <c r="FR42" s="15"/>
+      <c r="FS42" s="15"/>
+      <c r="FT42" s="15"/>
+      <c r="FU42" s="15"/>
+      <c r="FV42" s="15"/>
+      <c r="FW42" s="15"/>
+      <c r="FX42" s="15"/>
+      <c r="FY42" s="15"/>
+      <c r="FZ42" s="15"/>
+      <c r="GA42" s="15"/>
+      <c r="GB42" s="15"/>
+      <c r="GC42" s="15"/>
+      <c r="GD42" s="15"/>
+      <c r="GE42" s="15"/>
+      <c r="GF42" s="15"/>
+      <c r="GG42" s="15"/>
+      <c r="GH42" s="15"/>
+      <c r="GI42" s="15"/>
+      <c r="GJ42" s="15"/>
+      <c r="GK42" s="15"/>
+      <c r="GL42" s="15"/>
+      <c r="GM42" s="15"/>
+      <c r="GN42" s="15"/>
+      <c r="GO42" s="15"/>
+      <c r="GP42" s="15"/>
+      <c r="GQ42" s="15"/>
+      <c r="GR42" s="15"/>
+      <c r="GS42" s="15"/>
+      <c r="GT42" s="15"/>
+      <c r="GU42" s="15"/>
+      <c r="GV42" s="15"/>
+      <c r="GW42" s="15"/>
+      <c r="GX42" s="15"/>
+      <c r="GY42" s="15"/>
+      <c r="GZ42" s="15"/>
+      <c r="HA42" s="15"/>
+      <c r="HB42" s="15"/>
+      <c r="HC42" s="15"/>
+      <c r="HD42" s="15"/>
+      <c r="HE42" s="15"/>
+      <c r="HF42" s="15"/>
+      <c r="HG42" s="15"/>
+      <c r="HH42" s="15"/>
+      <c r="HI42" s="15"/>
+      <c r="HJ42" s="15"/>
+      <c r="HK42" s="15"/>
+      <c r="HL42" s="15"/>
+      <c r="HM42" s="15"/>
+      <c r="HN42" s="15"/>
+      <c r="HO42" s="15"/>
+      <c r="HP42" s="15"/>
+      <c r="HQ42" s="15"/>
+      <c r="HR42" s="15"/>
+      <c r="HS42" s="15"/>
+      <c r="HT42" s="15"/>
+      <c r="HU42" s="15"/>
+      <c r="HV42" s="15"/>
+      <c r="HW42" s="15"/>
+      <c r="HX42" s="15"/>
+      <c r="HY42" s="15"/>
+      <c r="HZ42" s="15"/>
+      <c r="IA42" s="15"/>
+      <c r="IB42" s="15"/>
+      <c r="IC42" s="15"/>
+      <c r="ID42" s="15"/>
+      <c r="IE42" s="15"/>
+      <c r="IF42" s="15"/>
+      <c r="IG42" s="15"/>
+      <c r="IH42" s="15"/>
+      <c r="II42" s="15"/>
+      <c r="IJ42" s="15"/>
+      <c r="IK42" s="15"/>
+      <c r="IL42" s="15"/>
+      <c r="IM42" s="15"/>
+      <c r="IN42" s="15"/>
+      <c r="IO42" s="15"/>
+      <c r="IP42" s="15"/>
+      <c r="IQ42" s="15"/>
+      <c r="IR42" s="15"/>
+      <c r="IS42" s="15"/>
+      <c r="IT42" s="15"/>
+      <c r="IU42" s="15"/>
+      <c r="IV42" s="15"/>
+      <c r="IW42" s="15"/>
+      <c r="IX42" s="15"/>
+      <c r="IY42" s="15"/>
+      <c r="IZ42" s="15"/>
+      <c r="JA42" s="15"/>
+      <c r="JB42" s="15"/>
+      <c r="JC42" s="15"/>
+      <c r="JD42" s="15"/>
+      <c r="JE42" s="15"/>
+      <c r="JF42" s="15"/>
+      <c r="JG42" s="15"/>
+      <c r="JH42" s="15"/>
+      <c r="JI42" s="15"/>
+      <c r="JJ42" s="15"/>
+      <c r="JK42" s="15"/>
+      <c r="JL42" s="15"/>
+      <c r="JM42" s="15"/>
+      <c r="JN42" s="15"/>
+      <c r="JO42" s="15"/>
+      <c r="JP42" s="15"/>
+      <c r="JQ42" s="15"/>
+      <c r="JR42" s="15"/>
+      <c r="JS42" s="15"/>
+      <c r="JT42" s="15"/>
+      <c r="JU42" s="15"/>
+      <c r="JV42" s="15"/>
+      <c r="JW42" s="15"/>
+      <c r="JX42" s="15"/>
+      <c r="JY42" s="15"/>
+      <c r="JZ42" s="15"/>
+      <c r="KA42" s="15"/>
+      <c r="KB42" s="15"/>
+      <c r="KC42" s="15"/>
+      <c r="KD42" s="15"/>
+      <c r="KE42" s="15"/>
+      <c r="KF42" s="15"/>
+      <c r="KG42" s="15"/>
+      <c r="KH42" s="15"/>
+      <c r="KI42" s="15"/>
+      <c r="KJ42" s="15"/>
+      <c r="KK42" s="15"/>
+      <c r="KL42" s="15"/>
+      <c r="KM42" s="15"/>
+      <c r="KN42" s="15"/>
+      <c r="KO42" s="15"/>
+      <c r="KP42" s="15"/>
+      <c r="KQ42" s="15"/>
+      <c r="KR42" s="15"/>
+      <c r="KS42" s="15"/>
+      <c r="KT42" s="15"/>
+      <c r="KU42" s="15"/>
+      <c r="KV42" s="15"/>
+      <c r="KW42" s="15"/>
+      <c r="KX42" s="15"/>
+      <c r="KY42" s="15"/>
+      <c r="KZ42" s="15"/>
+      <c r="LA42" s="15"/>
+      <c r="LB42" s="15"/>
+      <c r="LC42" s="15"/>
+      <c r="LD42" s="15"/>
+      <c r="LE42" s="15"/>
+      <c r="LF42" s="15"/>
+      <c r="LG42" s="15"/>
+      <c r="LH42" s="15"/>
+      <c r="LI42" s="15"/>
+      <c r="LJ42" s="15"/>
+      <c r="LK42" s="15"/>
+      <c r="LL42" s="15"/>
+      <c r="LM42" s="15"/>
+      <c r="LN42" s="15"/>
+      <c r="LO42" s="15"/>
+      <c r="LP42" s="15"/>
+      <c r="LQ42" s="15"/>
+      <c r="LR42" s="15"/>
+      <c r="LS42" s="15"/>
+      <c r="LT42" s="15"/>
+      <c r="LU42" s="15"/>
+      <c r="LV42" s="15"/>
+      <c r="LW42" s="15"/>
+      <c r="LX42" s="15"/>
+      <c r="LY42" s="15"/>
+      <c r="LZ42" s="15"/>
+      <c r="MA42" s="15"/>
+      <c r="MB42" s="15"/>
+      <c r="MC42" s="15"/>
+      <c r="MD42" s="15"/>
+      <c r="ME42" s="15"/>
+      <c r="MF42" s="15"/>
+      <c r="MG42" s="15"/>
+      <c r="MH42" s="15"/>
+      <c r="MI42" s="15"/>
+      <c r="MJ42" s="15"/>
+      <c r="MK42" s="15"/>
+      <c r="ML42" s="15"/>
+      <c r="MM42" s="15"/>
+      <c r="MN42" s="15"/>
+      <c r="MO42" s="15"/>
+      <c r="MP42" s="15"/>
+      <c r="MQ42" s="15"/>
+      <c r="MR42" s="15"/>
+      <c r="MS42" s="15"/>
+      <c r="MT42" s="15"/>
+      <c r="MU42" s="15"/>
+      <c r="MV42" s="15"/>
+      <c r="MW42" s="15"/>
+      <c r="MX42" s="15"/>
+      <c r="MY42" s="15"/>
+      <c r="MZ42" s="15"/>
+      <c r="NA42" s="15"/>
+      <c r="NB42" s="15"/>
+      <c r="NC42" s="15"/>
+      <c r="ND42" s="15"/>
+      <c r="NE42" s="15"/>
+      <c r="NF42" s="15"/>
+      <c r="NG42" s="15"/>
+      <c r="NH42" s="15"/>
+      <c r="NI42" s="15"/>
+      <c r="NJ42" s="15"/>
+      <c r="NK42" s="15"/>
+      <c r="NL42" s="15"/>
+      <c r="NM42" s="15"/>
+      <c r="NN42" s="15"/>
+      <c r="NO42" s="15"/>
+      <c r="NP42" s="15"/>
+      <c r="NQ42" s="15"/>
+      <c r="NR42" s="15"/>
+      <c r="NS42" s="15"/>
+      <c r="NT42" s="15"/>
+      <c r="NU42" s="15"/>
+      <c r="NV42" s="15"/>
+      <c r="NW42" s="15"/>
+      <c r="NX42" s="15"/>
+      <c r="NY42" s="15"/>
+      <c r="NZ42" s="15"/>
+      <c r="OA42" s="15"/>
+      <c r="OB42" s="15"/>
+      <c r="OC42" s="15"/>
+      <c r="OD42" s="15"/>
+      <c r="OE42" s="15"/>
+      <c r="OF42" s="15"/>
+      <c r="OG42" s="15"/>
+      <c r="OH42" s="15"/>
+      <c r="OI42" s="15"/>
+      <c r="OJ42" s="15"/>
+      <c r="OK42" s="15"/>
+      <c r="OL42" s="15"/>
+      <c r="OM42" s="15"/>
+      <c r="ON42" s="15"/>
+      <c r="OO42" s="15"/>
+      <c r="OP42" s="15"/>
+      <c r="OQ42" s="15"/>
+      <c r="OR42" s="15"/>
+      <c r="OS42" s="15"/>
+      <c r="OT42" s="15"/>
+      <c r="OU42" s="15"/>
+      <c r="OV42" s="15"/>
+      <c r="OW42" s="15"/>
+      <c r="OX42" s="15"/>
+      <c r="OY42" s="15"/>
+      <c r="OZ42" s="15"/>
+      <c r="PA42" s="15"/>
+      <c r="PB42" s="15"/>
+      <c r="PC42" s="15"/>
+      <c r="PD42" s="15"/>
+      <c r="PE42" s="15"/>
+      <c r="PF42" s="15"/>
+      <c r="PG42" s="15"/>
+      <c r="PH42" s="15"/>
+      <c r="PI42" s="15"/>
+      <c r="PJ42" s="15"/>
+      <c r="PK42" s="15"/>
+      <c r="PL42" s="15"/>
+      <c r="PM42" s="15"/>
+      <c r="PN42" s="15"/>
+      <c r="PO42" s="15"/>
+      <c r="PP42" s="15"/>
+      <c r="PQ42" s="15"/>
+      <c r="PR42" s="15"/>
+      <c r="PS42" s="15"/>
+      <c r="PT42" s="15"/>
+      <c r="PU42" s="15"/>
+      <c r="PV42" s="15"/>
+      <c r="PW42" s="15"/>
+      <c r="PX42" s="15"/>
+      <c r="PY42" s="15"/>
+      <c r="PZ42" s="15"/>
+      <c r="QA42" s="15"/>
+      <c r="QB42" s="15"/>
+      <c r="QC42" s="15"/>
+      <c r="QD42" s="15"/>
+      <c r="QE42" s="15"/>
+      <c r="QF42" s="15"/>
+      <c r="QG42" s="15"/>
+      <c r="QH42" s="15"/>
+      <c r="QI42" s="15"/>
+      <c r="QJ42" s="15"/>
+      <c r="QK42" s="15"/>
+      <c r="QL42" s="15"/>
+      <c r="QM42" s="15"/>
+      <c r="QN42" s="15"/>
+      <c r="QO42" s="15"/>
+      <c r="QP42" s="15"/>
+      <c r="QQ42" s="15"/>
+      <c r="QR42" s="15"/>
+      <c r="QS42" s="15"/>
+      <c r="QT42" s="15"/>
+      <c r="QU42" s="15"/>
+      <c r="QV42" s="15"/>
+      <c r="QW42" s="15"/>
+      <c r="QX42" s="15"/>
+      <c r="QY42" s="15"/>
+      <c r="QZ42" s="15"/>
+      <c r="RA42" s="15"/>
+      <c r="RB42" s="15"/>
+      <c r="RC42" s="15"/>
+      <c r="RD42" s="15"/>
+      <c r="RE42" s="15"/>
+      <c r="RF42" s="15"/>
+      <c r="RG42" s="15"/>
+      <c r="RH42" s="15"/>
+      <c r="RI42" s="15"/>
+      <c r="RJ42" s="15"/>
+      <c r="RK42" s="15"/>
+      <c r="RL42" s="15"/>
+      <c r="RM42" s="15"/>
+      <c r="RN42" s="15"/>
+      <c r="RO42" s="15"/>
+      <c r="RP42" s="15"/>
+      <c r="RQ42" s="15"/>
+      <c r="RR42" s="15"/>
+      <c r="RS42" s="15"/>
+      <c r="RT42" s="15"/>
+      <c r="RU42" s="15"/>
+      <c r="RV42" s="15"/>
+      <c r="RW42" s="15"/>
+      <c r="RX42" s="15"/>
+      <c r="RY42" s="15"/>
+      <c r="RZ42" s="15"/>
+      <c r="SA42" s="15"/>
+      <c r="SB42" s="15"/>
+      <c r="SC42" s="15"/>
+      <c r="SD42" s="15"/>
+      <c r="SE42" s="15"/>
+      <c r="SF42" s="15"/>
+      <c r="SG42" s="15"/>
+      <c r="SH42" s="15"/>
+      <c r="SI42" s="15"/>
+      <c r="SJ42" s="15"/>
+      <c r="SK42" s="15"/>
+      <c r="SL42" s="15"/>
+      <c r="SM42" s="15"/>
+      <c r="SN42" s="15"/>
+      <c r="SO42" s="15"/>
+      <c r="SP42" s="15"/>
+      <c r="SQ42" s="15"/>
+      <c r="SR42" s="15"/>
+      <c r="SS42" s="15"/>
+      <c r="ST42" s="15"/>
+      <c r="SU42" s="15"/>
+      <c r="SV42" s="15"/>
+      <c r="SW42" s="15"/>
+      <c r="SX42" s="15"/>
+      <c r="SY42" s="15"/>
+      <c r="SZ42" s="15"/>
+      <c r="TA42" s="15"/>
+      <c r="TB42" s="15"/>
+      <c r="TC42" s="15"/>
+      <c r="TD42" s="15"/>
+      <c r="TE42" s="15"/>
+      <c r="TF42" s="15"/>
+      <c r="TG42" s="15"/>
+      <c r="TH42" s="15"/>
+      <c r="TI42" s="15"/>
+      <c r="TJ42" s="15"/>
+      <c r="TK42" s="15"/>
+      <c r="TL42" s="15"/>
+      <c r="TM42" s="15"/>
+      <c r="TN42" s="15"/>
+      <c r="TO42" s="15"/>
+      <c r="TP42" s="15"/>
+      <c r="TQ42" s="15"/>
+      <c r="TR42" s="15"/>
+      <c r="TS42" s="15"/>
+      <c r="TT42" s="15"/>
+      <c r="TU42" s="15"/>
+      <c r="TV42" s="15"/>
+      <c r="TW42" s="15"/>
+      <c r="TX42" s="15"/>
+      <c r="TY42" s="15"/>
+      <c r="TZ42" s="15"/>
+      <c r="UA42" s="15"/>
+      <c r="UB42" s="15"/>
+      <c r="UC42" s="15"/>
+      <c r="UD42" s="15"/>
+      <c r="UE42" s="15"/>
+      <c r="UF42" s="15"/>
+      <c r="UG42" s="15"/>
+      <c r="UH42" s="15"/>
+      <c r="UI42" s="15"/>
+      <c r="UJ42" s="15"/>
+      <c r="UK42" s="15"/>
+      <c r="UL42" s="15"/>
+      <c r="UM42" s="15"/>
+      <c r="UN42" s="15"/>
+      <c r="UO42" s="15"/>
+      <c r="UP42" s="15"/>
+      <c r="UQ42" s="15"/>
+      <c r="UR42" s="15"/>
+      <c r="US42" s="15"/>
+      <c r="UT42" s="15"/>
+      <c r="UU42" s="15"/>
+      <c r="UV42" s="15"/>
+      <c r="UW42" s="15"/>
+      <c r="UX42" s="15"/>
+      <c r="UY42" s="15"/>
+      <c r="UZ42" s="15"/>
+      <c r="VA42" s="15"/>
+      <c r="VB42" s="15"/>
+      <c r="VC42" s="15"/>
+      <c r="VD42" s="15"/>
+      <c r="VE42" s="15"/>
+      <c r="VF42" s="15"/>
+      <c r="VG42" s="15"/>
+      <c r="VH42" s="15"/>
+      <c r="VI42" s="15"/>
+      <c r="VJ42" s="15"/>
+      <c r="VK42" s="15"/>
+      <c r="VL42" s="15"/>
+      <c r="VM42" s="15"/>
+      <c r="VN42" s="15"/>
+      <c r="VO42" s="15"/>
+      <c r="VP42" s="15"/>
+      <c r="VQ42" s="15"/>
+      <c r="VR42" s="15"/>
+      <c r="VS42" s="15"/>
+      <c r="VT42" s="15"/>
+      <c r="VU42" s="15"/>
+      <c r="VV42" s="15"/>
+      <c r="VW42" s="15"/>
+      <c r="VX42" s="15"/>
+      <c r="VY42" s="15"/>
+      <c r="VZ42" s="15"/>
+      <c r="WA42" s="15"/>
+      <c r="WB42" s="15"/>
+      <c r="WC42" s="15"/>
+      <c r="WD42" s="15"/>
+      <c r="WE42" s="15"/>
+      <c r="WF42" s="15"/>
+      <c r="WG42" s="15"/>
+      <c r="WH42" s="15"/>
+      <c r="WI42" s="15"/>
+      <c r="WJ42" s="15"/>
+      <c r="WK42" s="15"/>
+      <c r="WL42" s="15"/>
+      <c r="WM42" s="15"/>
+      <c r="WN42" s="15"/>
+      <c r="WO42" s="15"/>
+      <c r="WP42" s="15"/>
+      <c r="WQ42" s="15"/>
+      <c r="WR42" s="15"/>
+      <c r="WS42" s="15"/>
+      <c r="WT42" s="15"/>
+      <c r="WU42" s="15"/>
+      <c r="WV42" s="15"/>
+      <c r="WW42" s="15"/>
+      <c r="WX42" s="15"/>
+      <c r="WY42" s="15"/>
+      <c r="WZ42" s="15"/>
+      <c r="XA42" s="15"/>
+      <c r="XB42" s="15"/>
+      <c r="XC42" s="15"/>
+      <c r="XD42" s="15"/>
+      <c r="XE42" s="15"/>
+      <c r="XF42" s="15"/>
+      <c r="XG42" s="15"/>
+      <c r="XH42" s="15"/>
+      <c r="XI42" s="15"/>
+      <c r="XJ42" s="15"/>
+      <c r="XK42" s="15"/>
+      <c r="XL42" s="15"/>
+      <c r="XM42" s="15"/>
+      <c r="XN42" s="15"/>
+      <c r="XO42" s="15"/>
+      <c r="XP42" s="15"/>
+      <c r="XQ42" s="15"/>
+      <c r="XR42" s="15"/>
+      <c r="XS42" s="15"/>
+      <c r="XT42" s="15"/>
+      <c r="XU42" s="15"/>
+      <c r="XV42" s="15"/>
+      <c r="XW42" s="15"/>
+      <c r="XX42" s="15"/>
+      <c r="XY42" s="15"/>
+      <c r="XZ42" s="15"/>
+      <c r="YA42" s="15"/>
+      <c r="YB42" s="15"/>
+      <c r="YC42" s="15"/>
+      <c r="YD42" s="15"/>
+      <c r="YE42" s="15"/>
+      <c r="YF42" s="15"/>
+      <c r="YG42" s="15"/>
+      <c r="YH42" s="15"/>
+      <c r="YI42" s="15"/>
+      <c r="YJ42" s="15"/>
+      <c r="YK42" s="15"/>
+      <c r="YL42" s="15"/>
+      <c r="YM42" s="15"/>
+      <c r="YN42" s="15"/>
+      <c r="YO42" s="15"/>
+      <c r="YP42" s="15"/>
+      <c r="YQ42" s="15"/>
+      <c r="YR42" s="15"/>
+      <c r="YS42" s="15"/>
+      <c r="YT42" s="15"/>
+      <c r="YU42" s="15"/>
+      <c r="YV42" s="15"/>
+      <c r="YW42" s="15"/>
+      <c r="YX42" s="15"/>
+      <c r="YY42" s="15"/>
+      <c r="YZ42" s="15"/>
+      <c r="ZA42" s="15"/>
+      <c r="ZB42" s="15"/>
+      <c r="ZC42" s="15"/>
+      <c r="ZD42" s="15"/>
+      <c r="ZE42" s="15"/>
+      <c r="ZF42" s="15"/>
+      <c r="ZG42" s="15"/>
+      <c r="ZH42" s="15"/>
+      <c r="ZI42" s="15"/>
+      <c r="ZJ42" s="15"/>
+      <c r="ZK42" s="15"/>
+      <c r="ZL42" s="15"/>
+      <c r="ZM42" s="15"/>
+      <c r="ZN42" s="15"/>
+      <c r="ZO42" s="15"/>
+      <c r="ZP42" s="15"/>
+      <c r="ZQ42" s="15"/>
+      <c r="ZR42" s="15"/>
+      <c r="ZS42" s="15"/>
+      <c r="ZT42" s="15"/>
+      <c r="ZU42" s="15"/>
+      <c r="ZV42" s="15"/>
+      <c r="ZW42" s="15"/>
+      <c r="ZX42" s="15"/>
+      <c r="ZY42" s="15"/>
+      <c r="ZZ42" s="15"/>
+      <c r="AAA42" s="15"/>
+      <c r="AAB42" s="15"/>
+      <c r="AAC42" s="15"/>
+      <c r="AAD42" s="15"/>
+      <c r="AAE42" s="15"/>
+      <c r="AAF42" s="15"/>
+      <c r="AAG42" s="15"/>
+      <c r="AAH42" s="15"/>
+      <c r="AAI42" s="15"/>
+      <c r="AAJ42" s="15"/>
+      <c r="AAK42" s="15"/>
+      <c r="AAL42" s="15"/>
+      <c r="AAM42" s="15"/>
+      <c r="AAN42" s="15"/>
+      <c r="AAO42" s="15"/>
+      <c r="AAP42" s="15"/>
+      <c r="AAQ42" s="15"/>
+      <c r="AAR42" s="15"/>
+      <c r="AAS42" s="15"/>
+      <c r="AAT42" s="15"/>
+      <c r="AAU42" s="15"/>
+      <c r="AAV42" s="15"/>
+      <c r="AAW42" s="15"/>
+      <c r="AAX42" s="15"/>
+      <c r="AAY42" s="15"/>
+      <c r="AAZ42" s="15"/>
+      <c r="ABA42" s="15"/>
+      <c r="ABB42" s="15"/>
+      <c r="ABC42" s="15"/>
+      <c r="ABD42" s="15"/>
+      <c r="ABE42" s="15"/>
+      <c r="ABF42" s="15"/>
+      <c r="ABG42" s="15"/>
+      <c r="ABH42" s="15"/>
+      <c r="ABI42" s="15"/>
+      <c r="ABJ42" s="15"/>
+      <c r="ABK42" s="15"/>
+      <c r="ABL42" s="15"/>
+      <c r="ABM42" s="15"/>
+      <c r="ABN42" s="15"/>
+      <c r="ABO42" s="15"/>
+      <c r="ABP42" s="15"/>
+      <c r="ABQ42" s="15"/>
+      <c r="ABR42" s="15"/>
+      <c r="ABS42" s="15"/>
+      <c r="ABT42" s="15"/>
+      <c r="ABU42" s="15"/>
+      <c r="ABV42" s="15"/>
+      <c r="ABW42" s="15"/>
+      <c r="ABX42" s="15"/>
+      <c r="ABY42" s="15"/>
+      <c r="ABZ42" s="15"/>
+      <c r="ACA42" s="15"/>
+      <c r="ACB42" s="15"/>
+      <c r="ACC42" s="15"/>
+      <c r="ACD42" s="15"/>
+      <c r="ACE42" s="15"/>
+      <c r="ACF42" s="15"/>
+      <c r="ACG42" s="15"/>
+      <c r="ACH42" s="15"/>
+      <c r="ACI42" s="15"/>
+      <c r="ACJ42" s="15"/>
+      <c r="ACK42" s="15"/>
+      <c r="ACL42" s="15"/>
+      <c r="ACM42" s="15"/>
+      <c r="ACN42" s="15"/>
+      <c r="ACO42" s="15"/>
+      <c r="ACP42" s="15"/>
+      <c r="ACQ42" s="15"/>
+      <c r="ACR42" s="15"/>
+      <c r="ACS42" s="15"/>
+      <c r="ACT42" s="15"/>
+      <c r="ACU42" s="15"/>
+      <c r="ACV42" s="15"/>
+      <c r="ACW42" s="15"/>
+      <c r="ACX42" s="15"/>
+      <c r="ACY42" s="15"/>
+      <c r="ACZ42" s="15"/>
+      <c r="ADA42" s="15"/>
+      <c r="ADB42" s="15"/>
+      <c r="ADC42" s="15"/>
+      <c r="ADD42" s="15"/>
+      <c r="ADE42" s="15"/>
+      <c r="ADF42" s="15"/>
+      <c r="ADG42" s="15"/>
+      <c r="ADH42" s="15"/>
+      <c r="ADI42" s="15"/>
+      <c r="ADJ42" s="15"/>
+      <c r="ADK42" s="15"/>
+      <c r="ADL42" s="15"/>
+      <c r="ADM42" s="15"/>
+      <c r="ADN42" s="15"/>
+      <c r="ADO42" s="15"/>
+      <c r="ADP42" s="15"/>
+      <c r="ADQ42" s="15"/>
+      <c r="ADR42" s="15"/>
+      <c r="ADS42" s="15"/>
+      <c r="ADT42" s="15"/>
+      <c r="ADU42" s="15"/>
+      <c r="ADV42" s="15"/>
+      <c r="ADW42" s="15"/>
+      <c r="ADX42" s="15"/>
+      <c r="ADY42" s="15"/>
+      <c r="ADZ42" s="15"/>
+      <c r="AEA42" s="15"/>
+      <c r="AEB42" s="15"/>
+      <c r="AEC42" s="15"/>
+      <c r="AED42" s="15"/>
+      <c r="AEE42" s="15"/>
+      <c r="AEF42" s="15"/>
+      <c r="AEG42" s="15"/>
+      <c r="AEH42" s="15"/>
+      <c r="AEI42" s="15"/>
+      <c r="AEJ42" s="15"/>
+      <c r="AEK42" s="15"/>
+      <c r="AEL42" s="15"/>
+      <c r="AEM42" s="15"/>
+      <c r="AEN42" s="15"/>
+      <c r="AEO42" s="15"/>
+      <c r="AEP42" s="15"/>
+      <c r="AEQ42" s="15"/>
+      <c r="AER42" s="15"/>
+      <c r="AES42" s="15"/>
+      <c r="AET42" s="15"/>
+      <c r="AEU42" s="15"/>
+      <c r="AEV42" s="15"/>
+      <c r="AEW42" s="15"/>
+      <c r="AEX42" s="15"/>
+      <c r="AEY42" s="15"/>
+      <c r="AEZ42" s="15"/>
+      <c r="AFA42" s="15"/>
+      <c r="AFB42" s="15"/>
+      <c r="AFC42" s="15"/>
+      <c r="AFD42" s="15"/>
+      <c r="AFE42" s="15"/>
+      <c r="AFF42" s="15"/>
+      <c r="AFG42" s="15"/>
+      <c r="AFH42" s="15"/>
+      <c r="AFI42" s="15"/>
+      <c r="AFJ42" s="15"/>
+      <c r="AFK42" s="15"/>
+      <c r="AFL42" s="15"/>
+      <c r="AFM42" s="15"/>
+      <c r="AFN42" s="15"/>
+      <c r="AFO42" s="15"/>
+      <c r="AFP42" s="15"/>
+      <c r="AFQ42" s="15"/>
+      <c r="AFR42" s="15"/>
+      <c r="AFS42" s="15"/>
+      <c r="AFT42" s="15"/>
+      <c r="AFU42" s="15"/>
+      <c r="AFV42" s="15"/>
+      <c r="AFW42" s="15"/>
+      <c r="AFX42" s="15"/>
+      <c r="AFY42" s="15"/>
+      <c r="AFZ42" s="15"/>
+      <c r="AGA42" s="15"/>
+      <c r="AGB42" s="15"/>
+      <c r="AGC42" s="15"/>
+      <c r="AGD42" s="15"/>
+      <c r="AGE42" s="15"/>
+      <c r="AGF42" s="15"/>
+      <c r="AGG42" s="15"/>
+      <c r="AGH42" s="15"/>
+      <c r="AGI42" s="15"/>
+      <c r="AGJ42" s="15"/>
+      <c r="AGK42" s="15"/>
+      <c r="AGL42" s="15"/>
+      <c r="AGM42" s="15"/>
+      <c r="AGN42" s="15"/>
+      <c r="AGO42" s="15"/>
+      <c r="AGP42" s="15"/>
+      <c r="AGQ42" s="15"/>
+      <c r="AGR42" s="15"/>
+      <c r="AGS42" s="15"/>
+      <c r="AGT42" s="15"/>
+      <c r="AGU42" s="15"/>
+      <c r="AGV42" s="15"/>
+      <c r="AGW42" s="15"/>
+      <c r="AGX42" s="15"/>
+      <c r="AGY42" s="15"/>
+      <c r="AGZ42" s="15"/>
+      <c r="AHA42" s="15"/>
+      <c r="AHB42" s="15"/>
+      <c r="AHC42" s="15"/>
+      <c r="AHD42" s="15"/>
+      <c r="AHE42" s="15"/>
+      <c r="AHF42" s="15"/>
+      <c r="AHG42" s="15"/>
+      <c r="AHH42" s="15"/>
+      <c r="AHI42" s="15"/>
+      <c r="AHJ42" s="15"/>
+      <c r="AHK42" s="15"/>
+      <c r="AHL42" s="15"/>
+      <c r="AHM42" s="15"/>
+      <c r="AHN42" s="15"/>
+      <c r="AHO42" s="15"/>
+      <c r="AHP42" s="15"/>
+      <c r="AHQ42" s="15"/>
+      <c r="AHR42" s="15"/>
+      <c r="AHS42" s="15"/>
+      <c r="AHT42" s="15"/>
+      <c r="AHU42" s="15"/>
+      <c r="AHV42" s="15"/>
+      <c r="AHW42" s="15"/>
+      <c r="AHX42" s="15"/>
+      <c r="AHY42" s="15"/>
+      <c r="AHZ42" s="15"/>
+      <c r="AIA42" s="15"/>
+      <c r="AIB42" s="15"/>
+      <c r="AIC42" s="15"/>
+      <c r="AID42" s="15"/>
+      <c r="AIE42" s="15"/>
+      <c r="AIF42" s="15"/>
+      <c r="AIG42" s="15"/>
+      <c r="AIH42" s="15"/>
+      <c r="AII42" s="15"/>
+      <c r="AIJ42" s="15"/>
+      <c r="AIK42" s="15"/>
+      <c r="AIL42" s="15"/>
+      <c r="AIM42" s="15"/>
+      <c r="AIN42" s="15"/>
+      <c r="AIO42" s="15"/>
+      <c r="AIP42" s="15"/>
+      <c r="AIQ42" s="15"/>
+      <c r="AIR42" s="15"/>
+      <c r="AIS42" s="15"/>
+      <c r="AIT42" s="15"/>
+      <c r="AIU42" s="15"/>
+      <c r="AIV42" s="15"/>
+      <c r="AIW42" s="15"/>
+      <c r="AIX42" s="15"/>
+      <c r="AIY42" s="15"/>
+      <c r="AIZ42" s="15"/>
+      <c r="AJA42" s="15"/>
+      <c r="AJB42" s="15"/>
+      <c r="AJC42" s="15"/>
+      <c r="AJD42" s="15"/>
+      <c r="AJE42" s="15"/>
+      <c r="AJF42" s="15"/>
+      <c r="AJG42" s="15"/>
+      <c r="AJH42" s="15"/>
+      <c r="AJI42" s="15"/>
+      <c r="AJJ42" s="15"/>
+      <c r="AJK42" s="15"/>
+      <c r="AJL42" s="15"/>
+      <c r="AJM42" s="15"/>
+      <c r="AJN42" s="15"/>
+      <c r="AJO42" s="15"/>
+      <c r="AJP42" s="15"/>
+      <c r="AJQ42" s="15"/>
+      <c r="AJR42" s="15"/>
+      <c r="AJS42" s="15"/>
+      <c r="AJT42" s="15"/>
+      <c r="AJU42" s="15"/>
+      <c r="AJV42" s="15"/>
+      <c r="AJW42" s="15"/>
+      <c r="AJX42" s="15"/>
+      <c r="AJY42" s="15"/>
+      <c r="AJZ42" s="15"/>
+      <c r="AKA42" s="15"/>
+      <c r="AKB42" s="15"/>
+      <c r="AKC42" s="15"/>
+      <c r="AKD42" s="15"/>
+      <c r="AKE42" s="15"/>
+      <c r="AKF42" s="15"/>
+      <c r="AKG42" s="15"/>
+      <c r="AKH42" s="15"/>
+      <c r="AKI42" s="15"/>
+      <c r="AKJ42" s="15"/>
+      <c r="AKK42" s="15"/>
+      <c r="AKL42" s="15"/>
+      <c r="AKM42" s="15"/>
+      <c r="AKN42" s="15"/>
+      <c r="AKO42" s="15"/>
+      <c r="AKP42" s="15"/>
+      <c r="AKQ42" s="15"/>
+      <c r="AKR42" s="15"/>
+      <c r="AKS42" s="15"/>
+      <c r="AKT42" s="15"/>
+      <c r="AKU42" s="15"/>
+      <c r="AKV42" s="15"/>
+      <c r="AKW42" s="15"/>
+      <c r="AKX42" s="15"/>
+      <c r="AKY42" s="15"/>
+      <c r="AKZ42" s="15"/>
+      <c r="ALA42" s="15"/>
+      <c r="ALB42" s="15"/>
+      <c r="ALC42" s="15"/>
+      <c r="ALD42" s="15"/>
+      <c r="ALE42" s="15"/>
+      <c r="ALF42" s="15"/>
+      <c r="ALG42" s="15"/>
+      <c r="ALH42" s="15"/>
+      <c r="ALI42" s="15"/>
+      <c r="ALJ42" s="15"/>
+      <c r="ALK42" s="15"/>
+      <c r="ALL42" s="15"/>
+      <c r="ALM42" s="15"/>
+      <c r="ALN42" s="15"/>
+      <c r="ALO42" s="15"/>
+      <c r="ALP42" s="15"/>
+      <c r="ALQ42" s="15"/>
+      <c r="ALR42" s="15"/>
+      <c r="ALS42" s="15"/>
+      <c r="ALT42" s="15"/>
+      <c r="ALU42" s="15"/>
+      <c r="ALV42" s="15"/>
+      <c r="ALW42" s="15"/>
+      <c r="ALX42" s="15"/>
+      <c r="ALY42" s="15"/>
+      <c r="ALZ42" s="15"/>
+      <c r="AMA42" s="15"/>
+      <c r="AMB42" s="15"/>
+      <c r="AMC42" s="15"/>
+      <c r="AMD42" s="15"/>
+      <c r="AME42" s="15"/>
+      <c r="AMF42" s="15"/>
+      <c r="AMG42" s="15"/>
+      <c r="AMH42" s="15"/>
+      <c r="AMI42" s="15"/>
+      <c r="AMJ42" s="15"/>
+      <c r="AMK42" s="15"/>
+      <c r="AML42" s="15"/>
+      <c r="AMM42" s="15"/>
     </row>
-    <row r="43" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:1028" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="L43" s="10" t="s">
+      <c r="G43" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="I43" s="18">
+        <v>45260</v>
+      </c>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="M43" s="17"/>
+      <c r="N43" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="O43" s="10" t="s">
+      <c r="O43" s="17" t="s">
         <v>537</v>
       </c>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15"/>
+      <c r="AH43" s="15"/>
+      <c r="AI43" s="15"/>
+      <c r="AJ43" s="15"/>
+      <c r="AK43" s="15"/>
+      <c r="AL43" s="15"/>
+      <c r="AM43" s="15"/>
+      <c r="AN43" s="15"/>
+      <c r="AO43" s="15"/>
+      <c r="AP43" s="15"/>
+      <c r="AQ43" s="15"/>
+      <c r="AR43" s="15"/>
+      <c r="AS43" s="15"/>
+      <c r="AT43" s="15"/>
+      <c r="AU43" s="15"/>
+      <c r="AV43" s="15"/>
+      <c r="AW43" s="15"/>
+      <c r="AX43" s="15"/>
+      <c r="AY43" s="15"/>
+      <c r="AZ43" s="15"/>
+      <c r="BA43" s="15"/>
+      <c r="BB43" s="15"/>
+      <c r="BC43" s="15"/>
+      <c r="BD43" s="15"/>
+      <c r="BE43" s="15"/>
+      <c r="BF43" s="15"/>
+      <c r="BG43" s="15"/>
+      <c r="BH43" s="15"/>
+      <c r="BI43" s="15"/>
+      <c r="BJ43" s="15"/>
+      <c r="BK43" s="15"/>
+      <c r="BL43" s="15"/>
+      <c r="BM43" s="15"/>
+      <c r="BN43" s="15"/>
+      <c r="BO43" s="15"/>
+      <c r="BP43" s="15"/>
+      <c r="BQ43" s="15"/>
+      <c r="BR43" s="15"/>
+      <c r="BS43" s="15"/>
+      <c r="BT43" s="15"/>
+      <c r="BU43" s="15"/>
+      <c r="BV43" s="15"/>
+      <c r="BW43" s="15"/>
+      <c r="BX43" s="15"/>
+      <c r="BY43" s="15"/>
+      <c r="BZ43" s="15"/>
+      <c r="CA43" s="15"/>
+      <c r="CB43" s="15"/>
+      <c r="CC43" s="15"/>
+      <c r="CD43" s="15"/>
+      <c r="CE43" s="15"/>
+      <c r="CF43" s="15"/>
+      <c r="CG43" s="15"/>
+      <c r="CH43" s="15"/>
+      <c r="CI43" s="15"/>
+      <c r="CJ43" s="15"/>
+      <c r="CK43" s="15"/>
+      <c r="CL43" s="15"/>
+      <c r="CM43" s="15"/>
+      <c r="CN43" s="15"/>
+      <c r="CO43" s="15"/>
+      <c r="CP43" s="15"/>
+      <c r="CQ43" s="15"/>
+      <c r="CR43" s="15"/>
+      <c r="CS43" s="15"/>
+      <c r="CT43" s="15"/>
+      <c r="CU43" s="15"/>
+      <c r="CV43" s="15"/>
+      <c r="CW43" s="15"/>
+      <c r="CX43" s="15"/>
+      <c r="CY43" s="15"/>
+      <c r="CZ43" s="15"/>
+      <c r="DA43" s="15"/>
+      <c r="DB43" s="15"/>
+      <c r="DC43" s="15"/>
+      <c r="DD43" s="15"/>
+      <c r="DE43" s="15"/>
+      <c r="DF43" s="15"/>
+      <c r="DG43" s="15"/>
+      <c r="DH43" s="15"/>
+      <c r="DI43" s="15"/>
+      <c r="DJ43" s="15"/>
+      <c r="DK43" s="15"/>
+      <c r="DL43" s="15"/>
+      <c r="DM43" s="15"/>
+      <c r="DN43" s="15"/>
+      <c r="DO43" s="15"/>
+      <c r="DP43" s="15"/>
+      <c r="DQ43" s="15"/>
+      <c r="DR43" s="15"/>
+      <c r="DS43" s="15"/>
+      <c r="DT43" s="15"/>
+      <c r="DU43" s="15"/>
+      <c r="DV43" s="15"/>
+      <c r="DW43" s="15"/>
+      <c r="DX43" s="15"/>
+      <c r="DY43" s="15"/>
+      <c r="DZ43" s="15"/>
+      <c r="EA43" s="15"/>
+      <c r="EB43" s="15"/>
+      <c r="EC43" s="15"/>
+      <c r="ED43" s="15"/>
+      <c r="EE43" s="15"/>
+      <c r="EF43" s="15"/>
+      <c r="EG43" s="15"/>
+      <c r="EH43" s="15"/>
+      <c r="EI43" s="15"/>
+      <c r="EJ43" s="15"/>
+      <c r="EK43" s="15"/>
+      <c r="EL43" s="15"/>
+      <c r="EM43" s="15"/>
+      <c r="EN43" s="15"/>
+      <c r="EO43" s="15"/>
+      <c r="EP43" s="15"/>
+      <c r="EQ43" s="15"/>
+      <c r="ER43" s="15"/>
+      <c r="ES43" s="15"/>
+      <c r="ET43" s="15"/>
+      <c r="EU43" s="15"/>
+      <c r="EV43" s="15"/>
+      <c r="EW43" s="15"/>
+      <c r="EX43" s="15"/>
+      <c r="EY43" s="15"/>
+      <c r="EZ43" s="15"/>
+      <c r="FA43" s="15"/>
+      <c r="FB43" s="15"/>
+      <c r="FC43" s="15"/>
+      <c r="FD43" s="15"/>
+      <c r="FE43" s="15"/>
+      <c r="FF43" s="15"/>
+      <c r="FG43" s="15"/>
+      <c r="FH43" s="15"/>
+      <c r="FI43" s="15"/>
+      <c r="FJ43" s="15"/>
+      <c r="FK43" s="15"/>
+      <c r="FL43" s="15"/>
+      <c r="FM43" s="15"/>
+      <c r="FN43" s="15"/>
+      <c r="FO43" s="15"/>
+      <c r="FP43" s="15"/>
+      <c r="FQ43" s="15"/>
+      <c r="FR43" s="15"/>
+      <c r="FS43" s="15"/>
+      <c r="FT43" s="15"/>
+      <c r="FU43" s="15"/>
+      <c r="FV43" s="15"/>
+      <c r="FW43" s="15"/>
+      <c r="FX43" s="15"/>
+      <c r="FY43" s="15"/>
+      <c r="FZ43" s="15"/>
+      <c r="GA43" s="15"/>
+      <c r="GB43" s="15"/>
+      <c r="GC43" s="15"/>
+      <c r="GD43" s="15"/>
+      <c r="GE43" s="15"/>
+      <c r="GF43" s="15"/>
+      <c r="GG43" s="15"/>
+      <c r="GH43" s="15"/>
+      <c r="GI43" s="15"/>
+      <c r="GJ43" s="15"/>
+      <c r="GK43" s="15"/>
+      <c r="GL43" s="15"/>
+      <c r="GM43" s="15"/>
+      <c r="GN43" s="15"/>
+      <c r="GO43" s="15"/>
+      <c r="GP43" s="15"/>
+      <c r="GQ43" s="15"/>
+      <c r="GR43" s="15"/>
+      <c r="GS43" s="15"/>
+      <c r="GT43" s="15"/>
+      <c r="GU43" s="15"/>
+      <c r="GV43" s="15"/>
+      <c r="GW43" s="15"/>
+      <c r="GX43" s="15"/>
+      <c r="GY43" s="15"/>
+      <c r="GZ43" s="15"/>
+      <c r="HA43" s="15"/>
+      <c r="HB43" s="15"/>
+      <c r="HC43" s="15"/>
+      <c r="HD43" s="15"/>
+      <c r="HE43" s="15"/>
+      <c r="HF43" s="15"/>
+      <c r="HG43" s="15"/>
+      <c r="HH43" s="15"/>
+      <c r="HI43" s="15"/>
+      <c r="HJ43" s="15"/>
+      <c r="HK43" s="15"/>
+      <c r="HL43" s="15"/>
+      <c r="HM43" s="15"/>
+      <c r="HN43" s="15"/>
+      <c r="HO43" s="15"/>
+      <c r="HP43" s="15"/>
+      <c r="HQ43" s="15"/>
+      <c r="HR43" s="15"/>
+      <c r="HS43" s="15"/>
+      <c r="HT43" s="15"/>
+      <c r="HU43" s="15"/>
+      <c r="HV43" s="15"/>
+      <c r="HW43" s="15"/>
+      <c r="HX43" s="15"/>
+      <c r="HY43" s="15"/>
+      <c r="HZ43" s="15"/>
+      <c r="IA43" s="15"/>
+      <c r="IB43" s="15"/>
+      <c r="IC43" s="15"/>
+      <c r="ID43" s="15"/>
+      <c r="IE43" s="15"/>
+      <c r="IF43" s="15"/>
+      <c r="IG43" s="15"/>
+      <c r="IH43" s="15"/>
+      <c r="II43" s="15"/>
+      <c r="IJ43" s="15"/>
+      <c r="IK43" s="15"/>
+      <c r="IL43" s="15"/>
+      <c r="IM43" s="15"/>
+      <c r="IN43" s="15"/>
+      <c r="IO43" s="15"/>
+      <c r="IP43" s="15"/>
+      <c r="IQ43" s="15"/>
+      <c r="IR43" s="15"/>
+      <c r="IS43" s="15"/>
+      <c r="IT43" s="15"/>
+      <c r="IU43" s="15"/>
+      <c r="IV43" s="15"/>
+      <c r="IW43" s="15"/>
+      <c r="IX43" s="15"/>
+      <c r="IY43" s="15"/>
+      <c r="IZ43" s="15"/>
+      <c r="JA43" s="15"/>
+      <c r="JB43" s="15"/>
+      <c r="JC43" s="15"/>
+      <c r="JD43" s="15"/>
+      <c r="JE43" s="15"/>
+      <c r="JF43" s="15"/>
+      <c r="JG43" s="15"/>
+      <c r="JH43" s="15"/>
+      <c r="JI43" s="15"/>
+      <c r="JJ43" s="15"/>
+      <c r="JK43" s="15"/>
+      <c r="JL43" s="15"/>
+      <c r="JM43" s="15"/>
+      <c r="JN43" s="15"/>
+      <c r="JO43" s="15"/>
+      <c r="JP43" s="15"/>
+      <c r="JQ43" s="15"/>
+      <c r="JR43" s="15"/>
+      <c r="JS43" s="15"/>
+      <c r="JT43" s="15"/>
+      <c r="JU43" s="15"/>
+      <c r="JV43" s="15"/>
+      <c r="JW43" s="15"/>
+      <c r="JX43" s="15"/>
+      <c r="JY43" s="15"/>
+      <c r="JZ43" s="15"/>
+      <c r="KA43" s="15"/>
+      <c r="KB43" s="15"/>
+      <c r="KC43" s="15"/>
+      <c r="KD43" s="15"/>
+      <c r="KE43" s="15"/>
+      <c r="KF43" s="15"/>
+      <c r="KG43" s="15"/>
+      <c r="KH43" s="15"/>
+      <c r="KI43" s="15"/>
+      <c r="KJ43" s="15"/>
+      <c r="KK43" s="15"/>
+      <c r="KL43" s="15"/>
+      <c r="KM43" s="15"/>
+      <c r="KN43" s="15"/>
+      <c r="KO43" s="15"/>
+      <c r="KP43" s="15"/>
+      <c r="KQ43" s="15"/>
+      <c r="KR43" s="15"/>
+      <c r="KS43" s="15"/>
+      <c r="KT43" s="15"/>
+      <c r="KU43" s="15"/>
+      <c r="KV43" s="15"/>
+      <c r="KW43" s="15"/>
+      <c r="KX43" s="15"/>
+      <c r="KY43" s="15"/>
+      <c r="KZ43" s="15"/>
+      <c r="LA43" s="15"/>
+      <c r="LB43" s="15"/>
+      <c r="LC43" s="15"/>
+      <c r="LD43" s="15"/>
+      <c r="LE43" s="15"/>
+      <c r="LF43" s="15"/>
+      <c r="LG43" s="15"/>
+      <c r="LH43" s="15"/>
+      <c r="LI43" s="15"/>
+      <c r="LJ43" s="15"/>
+      <c r="LK43" s="15"/>
+      <c r="LL43" s="15"/>
+      <c r="LM43" s="15"/>
+      <c r="LN43" s="15"/>
+      <c r="LO43" s="15"/>
+      <c r="LP43" s="15"/>
+      <c r="LQ43" s="15"/>
+      <c r="LR43" s="15"/>
+      <c r="LS43" s="15"/>
+      <c r="LT43" s="15"/>
+      <c r="LU43" s="15"/>
+      <c r="LV43" s="15"/>
+      <c r="LW43" s="15"/>
+      <c r="LX43" s="15"/>
+      <c r="LY43" s="15"/>
+      <c r="LZ43" s="15"/>
+      <c r="MA43" s="15"/>
+      <c r="MB43" s="15"/>
+      <c r="MC43" s="15"/>
+      <c r="MD43" s="15"/>
+      <c r="ME43" s="15"/>
+      <c r="MF43" s="15"/>
+      <c r="MG43" s="15"/>
+      <c r="MH43" s="15"/>
+      <c r="MI43" s="15"/>
+      <c r="MJ43" s="15"/>
+      <c r="MK43" s="15"/>
+      <c r="ML43" s="15"/>
+      <c r="MM43" s="15"/>
+      <c r="MN43" s="15"/>
+      <c r="MO43" s="15"/>
+      <c r="MP43" s="15"/>
+      <c r="MQ43" s="15"/>
+      <c r="MR43" s="15"/>
+      <c r="MS43" s="15"/>
+      <c r="MT43" s="15"/>
+      <c r="MU43" s="15"/>
+      <c r="MV43" s="15"/>
+      <c r="MW43" s="15"/>
+      <c r="MX43" s="15"/>
+      <c r="MY43" s="15"/>
+      <c r="MZ43" s="15"/>
+      <c r="NA43" s="15"/>
+      <c r="NB43" s="15"/>
+      <c r="NC43" s="15"/>
+      <c r="ND43" s="15"/>
+      <c r="NE43" s="15"/>
+      <c r="NF43" s="15"/>
+      <c r="NG43" s="15"/>
+      <c r="NH43" s="15"/>
+      <c r="NI43" s="15"/>
+      <c r="NJ43" s="15"/>
+      <c r="NK43" s="15"/>
+      <c r="NL43" s="15"/>
+      <c r="NM43" s="15"/>
+      <c r="NN43" s="15"/>
+      <c r="NO43" s="15"/>
+      <c r="NP43" s="15"/>
+      <c r="NQ43" s="15"/>
+      <c r="NR43" s="15"/>
+      <c r="NS43" s="15"/>
+      <c r="NT43" s="15"/>
+      <c r="NU43" s="15"/>
+      <c r="NV43" s="15"/>
+      <c r="NW43" s="15"/>
+      <c r="NX43" s="15"/>
+      <c r="NY43" s="15"/>
+      <c r="NZ43" s="15"/>
+      <c r="OA43" s="15"/>
+      <c r="OB43" s="15"/>
+      <c r="OC43" s="15"/>
+      <c r="OD43" s="15"/>
+      <c r="OE43" s="15"/>
+      <c r="OF43" s="15"/>
+      <c r="OG43" s="15"/>
+      <c r="OH43" s="15"/>
+      <c r="OI43" s="15"/>
+      <c r="OJ43" s="15"/>
+      <c r="OK43" s="15"/>
+      <c r="OL43" s="15"/>
+      <c r="OM43" s="15"/>
+      <c r="ON43" s="15"/>
+      <c r="OO43" s="15"/>
+      <c r="OP43" s="15"/>
+      <c r="OQ43" s="15"/>
+      <c r="OR43" s="15"/>
+      <c r="OS43" s="15"/>
+      <c r="OT43" s="15"/>
+      <c r="OU43" s="15"/>
+      <c r="OV43" s="15"/>
+      <c r="OW43" s="15"/>
+      <c r="OX43" s="15"/>
+      <c r="OY43" s="15"/>
+      <c r="OZ43" s="15"/>
+      <c r="PA43" s="15"/>
+      <c r="PB43" s="15"/>
+      <c r="PC43" s="15"/>
+      <c r="PD43" s="15"/>
+      <c r="PE43" s="15"/>
+      <c r="PF43" s="15"/>
+      <c r="PG43" s="15"/>
+      <c r="PH43" s="15"/>
+      <c r="PI43" s="15"/>
+      <c r="PJ43" s="15"/>
+      <c r="PK43" s="15"/>
+      <c r="PL43" s="15"/>
+      <c r="PM43" s="15"/>
+      <c r="PN43" s="15"/>
+      <c r="PO43" s="15"/>
+      <c r="PP43" s="15"/>
+      <c r="PQ43" s="15"/>
+      <c r="PR43" s="15"/>
+      <c r="PS43" s="15"/>
+      <c r="PT43" s="15"/>
+      <c r="PU43" s="15"/>
+      <c r="PV43" s="15"/>
+      <c r="PW43" s="15"/>
+      <c r="PX43" s="15"/>
+      <c r="PY43" s="15"/>
+      <c r="PZ43" s="15"/>
+      <c r="QA43" s="15"/>
+      <c r="QB43" s="15"/>
+      <c r="QC43" s="15"/>
+      <c r="QD43" s="15"/>
+      <c r="QE43" s="15"/>
+      <c r="QF43" s="15"/>
+      <c r="QG43" s="15"/>
+      <c r="QH43" s="15"/>
+      <c r="QI43" s="15"/>
+      <c r="QJ43" s="15"/>
+      <c r="QK43" s="15"/>
+      <c r="QL43" s="15"/>
+      <c r="QM43" s="15"/>
+      <c r="QN43" s="15"/>
+      <c r="QO43" s="15"/>
+      <c r="QP43" s="15"/>
+      <c r="QQ43" s="15"/>
+      <c r="QR43" s="15"/>
+      <c r="QS43" s="15"/>
+      <c r="QT43" s="15"/>
+      <c r="QU43" s="15"/>
+      <c r="QV43" s="15"/>
+      <c r="QW43" s="15"/>
+      <c r="QX43" s="15"/>
+      <c r="QY43" s="15"/>
+      <c r="QZ43" s="15"/>
+      <c r="RA43" s="15"/>
+      <c r="RB43" s="15"/>
+      <c r="RC43" s="15"/>
+      <c r="RD43" s="15"/>
+      <c r="RE43" s="15"/>
+      <c r="RF43" s="15"/>
+      <c r="RG43" s="15"/>
+      <c r="RH43" s="15"/>
+      <c r="RI43" s="15"/>
+      <c r="RJ43" s="15"/>
+      <c r="RK43" s="15"/>
+      <c r="RL43" s="15"/>
+      <c r="RM43" s="15"/>
+      <c r="RN43" s="15"/>
+      <c r="RO43" s="15"/>
+      <c r="RP43" s="15"/>
+      <c r="RQ43" s="15"/>
+      <c r="RR43" s="15"/>
+      <c r="RS43" s="15"/>
+      <c r="RT43" s="15"/>
+      <c r="RU43" s="15"/>
+      <c r="RV43" s="15"/>
+      <c r="RW43" s="15"/>
+      <c r="RX43" s="15"/>
+      <c r="RY43" s="15"/>
+      <c r="RZ43" s="15"/>
+      <c r="SA43" s="15"/>
+      <c r="SB43" s="15"/>
+      <c r="SC43" s="15"/>
+      <c r="SD43" s="15"/>
+      <c r="SE43" s="15"/>
+      <c r="SF43" s="15"/>
+      <c r="SG43" s="15"/>
+      <c r="SH43" s="15"/>
+      <c r="SI43" s="15"/>
+      <c r="SJ43" s="15"/>
+      <c r="SK43" s="15"/>
+      <c r="SL43" s="15"/>
+      <c r="SM43" s="15"/>
+      <c r="SN43" s="15"/>
+      <c r="SO43" s="15"/>
+      <c r="SP43" s="15"/>
+      <c r="SQ43" s="15"/>
+      <c r="SR43" s="15"/>
+      <c r="SS43" s="15"/>
+      <c r="ST43" s="15"/>
+      <c r="SU43" s="15"/>
+      <c r="SV43" s="15"/>
+      <c r="SW43" s="15"/>
+      <c r="SX43" s="15"/>
+      <c r="SY43" s="15"/>
+      <c r="SZ43" s="15"/>
+      <c r="TA43" s="15"/>
+      <c r="TB43" s="15"/>
+      <c r="TC43" s="15"/>
+      <c r="TD43" s="15"/>
+      <c r="TE43" s="15"/>
+      <c r="TF43" s="15"/>
+      <c r="TG43" s="15"/>
+      <c r="TH43" s="15"/>
+      <c r="TI43" s="15"/>
+      <c r="TJ43" s="15"/>
+      <c r="TK43" s="15"/>
+      <c r="TL43" s="15"/>
+      <c r="TM43" s="15"/>
+      <c r="TN43" s="15"/>
+      <c r="TO43" s="15"/>
+      <c r="TP43" s="15"/>
+      <c r="TQ43" s="15"/>
+      <c r="TR43" s="15"/>
+      <c r="TS43" s="15"/>
+      <c r="TT43" s="15"/>
+      <c r="TU43" s="15"/>
+      <c r="TV43" s="15"/>
+      <c r="TW43" s="15"/>
+      <c r="TX43" s="15"/>
+      <c r="TY43" s="15"/>
+      <c r="TZ43" s="15"/>
+      <c r="UA43" s="15"/>
+      <c r="UB43" s="15"/>
+      <c r="UC43" s="15"/>
+      <c r="UD43" s="15"/>
+      <c r="UE43" s="15"/>
+      <c r="UF43" s="15"/>
+      <c r="UG43" s="15"/>
+      <c r="UH43" s="15"/>
+      <c r="UI43" s="15"/>
+      <c r="UJ43" s="15"/>
+      <c r="UK43" s="15"/>
+      <c r="UL43" s="15"/>
+      <c r="UM43" s="15"/>
+      <c r="UN43" s="15"/>
+      <c r="UO43" s="15"/>
+      <c r="UP43" s="15"/>
+      <c r="UQ43" s="15"/>
+      <c r="UR43" s="15"/>
+      <c r="US43" s="15"/>
+      <c r="UT43" s="15"/>
+      <c r="UU43" s="15"/>
+      <c r="UV43" s="15"/>
+      <c r="UW43" s="15"/>
+      <c r="UX43" s="15"/>
+      <c r="UY43" s="15"/>
+      <c r="UZ43" s="15"/>
+      <c r="VA43" s="15"/>
+      <c r="VB43" s="15"/>
+      <c r="VC43" s="15"/>
+      <c r="VD43" s="15"/>
+      <c r="VE43" s="15"/>
+      <c r="VF43" s="15"/>
+      <c r="VG43" s="15"/>
+      <c r="VH43" s="15"/>
+      <c r="VI43" s="15"/>
+      <c r="VJ43" s="15"/>
+      <c r="VK43" s="15"/>
+      <c r="VL43" s="15"/>
+      <c r="VM43" s="15"/>
+      <c r="VN43" s="15"/>
+      <c r="VO43" s="15"/>
+      <c r="VP43" s="15"/>
+      <c r="VQ43" s="15"/>
+      <c r="VR43" s="15"/>
+      <c r="VS43" s="15"/>
+      <c r="VT43" s="15"/>
+      <c r="VU43" s="15"/>
+      <c r="VV43" s="15"/>
+      <c r="VW43" s="15"/>
+      <c r="VX43" s="15"/>
+      <c r="VY43" s="15"/>
+      <c r="VZ43" s="15"/>
+      <c r="WA43" s="15"/>
+      <c r="WB43" s="15"/>
+      <c r="WC43" s="15"/>
+      <c r="WD43" s="15"/>
+      <c r="WE43" s="15"/>
+      <c r="WF43" s="15"/>
+      <c r="WG43" s="15"/>
+      <c r="WH43" s="15"/>
+      <c r="WI43" s="15"/>
+      <c r="WJ43" s="15"/>
+      <c r="WK43" s="15"/>
+      <c r="WL43" s="15"/>
+      <c r="WM43" s="15"/>
+      <c r="WN43" s="15"/>
+      <c r="WO43" s="15"/>
+      <c r="WP43" s="15"/>
+      <c r="WQ43" s="15"/>
+      <c r="WR43" s="15"/>
+      <c r="WS43" s="15"/>
+      <c r="WT43" s="15"/>
+      <c r="WU43" s="15"/>
+      <c r="WV43" s="15"/>
+      <c r="WW43" s="15"/>
+      <c r="WX43" s="15"/>
+      <c r="WY43" s="15"/>
+      <c r="WZ43" s="15"/>
+      <c r="XA43" s="15"/>
+      <c r="XB43" s="15"/>
+      <c r="XC43" s="15"/>
+      <c r="XD43" s="15"/>
+      <c r="XE43" s="15"/>
+      <c r="XF43" s="15"/>
+      <c r="XG43" s="15"/>
+      <c r="XH43" s="15"/>
+      <c r="XI43" s="15"/>
+      <c r="XJ43" s="15"/>
+      <c r="XK43" s="15"/>
+      <c r="XL43" s="15"/>
+      <c r="XM43" s="15"/>
+      <c r="XN43" s="15"/>
+      <c r="XO43" s="15"/>
+      <c r="XP43" s="15"/>
+      <c r="XQ43" s="15"/>
+      <c r="XR43" s="15"/>
+      <c r="XS43" s="15"/>
+      <c r="XT43" s="15"/>
+      <c r="XU43" s="15"/>
+      <c r="XV43" s="15"/>
+      <c r="XW43" s="15"/>
+      <c r="XX43" s="15"/>
+      <c r="XY43" s="15"/>
+      <c r="XZ43" s="15"/>
+      <c r="YA43" s="15"/>
+      <c r="YB43" s="15"/>
+      <c r="YC43" s="15"/>
+      <c r="YD43" s="15"/>
+      <c r="YE43" s="15"/>
+      <c r="YF43" s="15"/>
+      <c r="YG43" s="15"/>
+      <c r="YH43" s="15"/>
+      <c r="YI43" s="15"/>
+      <c r="YJ43" s="15"/>
+      <c r="YK43" s="15"/>
+      <c r="YL43" s="15"/>
+      <c r="YM43" s="15"/>
+      <c r="YN43" s="15"/>
+      <c r="YO43" s="15"/>
+      <c r="YP43" s="15"/>
+      <c r="YQ43" s="15"/>
+      <c r="YR43" s="15"/>
+      <c r="YS43" s="15"/>
+      <c r="YT43" s="15"/>
+      <c r="YU43" s="15"/>
+      <c r="YV43" s="15"/>
+      <c r="YW43" s="15"/>
+      <c r="YX43" s="15"/>
+      <c r="YY43" s="15"/>
+      <c r="YZ43" s="15"/>
+      <c r="ZA43" s="15"/>
+      <c r="ZB43" s="15"/>
+      <c r="ZC43" s="15"/>
+      <c r="ZD43" s="15"/>
+      <c r="ZE43" s="15"/>
+      <c r="ZF43" s="15"/>
+      <c r="ZG43" s="15"/>
+      <c r="ZH43" s="15"/>
+      <c r="ZI43" s="15"/>
+      <c r="ZJ43" s="15"/>
+      <c r="ZK43" s="15"/>
+      <c r="ZL43" s="15"/>
+      <c r="ZM43" s="15"/>
+      <c r="ZN43" s="15"/>
+      <c r="ZO43" s="15"/>
+      <c r="ZP43" s="15"/>
+      <c r="ZQ43" s="15"/>
+      <c r="ZR43" s="15"/>
+      <c r="ZS43" s="15"/>
+      <c r="ZT43" s="15"/>
+      <c r="ZU43" s="15"/>
+      <c r="ZV43" s="15"/>
+      <c r="ZW43" s="15"/>
+      <c r="ZX43" s="15"/>
+      <c r="ZY43" s="15"/>
+      <c r="ZZ43" s="15"/>
+      <c r="AAA43" s="15"/>
+      <c r="AAB43" s="15"/>
+      <c r="AAC43" s="15"/>
+      <c r="AAD43" s="15"/>
+      <c r="AAE43" s="15"/>
+      <c r="AAF43" s="15"/>
+      <c r="AAG43" s="15"/>
+      <c r="AAH43" s="15"/>
+      <c r="AAI43" s="15"/>
+      <c r="AAJ43" s="15"/>
+      <c r="AAK43" s="15"/>
+      <c r="AAL43" s="15"/>
+      <c r="AAM43" s="15"/>
+      <c r="AAN43" s="15"/>
+      <c r="AAO43" s="15"/>
+      <c r="AAP43" s="15"/>
+      <c r="AAQ43" s="15"/>
+      <c r="AAR43" s="15"/>
+      <c r="AAS43" s="15"/>
+      <c r="AAT43" s="15"/>
+      <c r="AAU43" s="15"/>
+      <c r="AAV43" s="15"/>
+      <c r="AAW43" s="15"/>
+      <c r="AAX43" s="15"/>
+      <c r="AAY43" s="15"/>
+      <c r="AAZ43" s="15"/>
+      <c r="ABA43" s="15"/>
+      <c r="ABB43" s="15"/>
+      <c r="ABC43" s="15"/>
+      <c r="ABD43" s="15"/>
+      <c r="ABE43" s="15"/>
+      <c r="ABF43" s="15"/>
+      <c r="ABG43" s="15"/>
+      <c r="ABH43" s="15"/>
+      <c r="ABI43" s="15"/>
+      <c r="ABJ43" s="15"/>
+      <c r="ABK43" s="15"/>
+      <c r="ABL43" s="15"/>
+      <c r="ABM43" s="15"/>
+      <c r="ABN43" s="15"/>
+      <c r="ABO43" s="15"/>
+      <c r="ABP43" s="15"/>
+      <c r="ABQ43" s="15"/>
+      <c r="ABR43" s="15"/>
+      <c r="ABS43" s="15"/>
+      <c r="ABT43" s="15"/>
+      <c r="ABU43" s="15"/>
+      <c r="ABV43" s="15"/>
+      <c r="ABW43" s="15"/>
+      <c r="ABX43" s="15"/>
+      <c r="ABY43" s="15"/>
+      <c r="ABZ43" s="15"/>
+      <c r="ACA43" s="15"/>
+      <c r="ACB43" s="15"/>
+      <c r="ACC43" s="15"/>
+      <c r="ACD43" s="15"/>
+      <c r="ACE43" s="15"/>
+      <c r="ACF43" s="15"/>
+      <c r="ACG43" s="15"/>
+      <c r="ACH43" s="15"/>
+      <c r="ACI43" s="15"/>
+      <c r="ACJ43" s="15"/>
+      <c r="ACK43" s="15"/>
+      <c r="ACL43" s="15"/>
+      <c r="ACM43" s="15"/>
+      <c r="ACN43" s="15"/>
+      <c r="ACO43" s="15"/>
+      <c r="ACP43" s="15"/>
+      <c r="ACQ43" s="15"/>
+      <c r="ACR43" s="15"/>
+      <c r="ACS43" s="15"/>
+      <c r="ACT43" s="15"/>
+      <c r="ACU43" s="15"/>
+      <c r="ACV43" s="15"/>
+      <c r="ACW43" s="15"/>
+      <c r="ACX43" s="15"/>
+      <c r="ACY43" s="15"/>
+      <c r="ACZ43" s="15"/>
+      <c r="ADA43" s="15"/>
+      <c r="ADB43" s="15"/>
+      <c r="ADC43" s="15"/>
+      <c r="ADD43" s="15"/>
+      <c r="ADE43" s="15"/>
+      <c r="ADF43" s="15"/>
+      <c r="ADG43" s="15"/>
+      <c r="ADH43" s="15"/>
+      <c r="ADI43" s="15"/>
+      <c r="ADJ43" s="15"/>
+      <c r="ADK43" s="15"/>
+      <c r="ADL43" s="15"/>
+      <c r="ADM43" s="15"/>
+      <c r="ADN43" s="15"/>
+      <c r="ADO43" s="15"/>
+      <c r="ADP43" s="15"/>
+      <c r="ADQ43" s="15"/>
+      <c r="ADR43" s="15"/>
+      <c r="ADS43" s="15"/>
+      <c r="ADT43" s="15"/>
+      <c r="ADU43" s="15"/>
+      <c r="ADV43" s="15"/>
+      <c r="ADW43" s="15"/>
+      <c r="ADX43" s="15"/>
+      <c r="ADY43" s="15"/>
+      <c r="ADZ43" s="15"/>
+      <c r="AEA43" s="15"/>
+      <c r="AEB43" s="15"/>
+      <c r="AEC43" s="15"/>
+      <c r="AED43" s="15"/>
+      <c r="AEE43" s="15"/>
+      <c r="AEF43" s="15"/>
+      <c r="AEG43" s="15"/>
+      <c r="AEH43" s="15"/>
+      <c r="AEI43" s="15"/>
+      <c r="AEJ43" s="15"/>
+      <c r="AEK43" s="15"/>
+      <c r="AEL43" s="15"/>
+      <c r="AEM43" s="15"/>
+      <c r="AEN43" s="15"/>
+      <c r="AEO43" s="15"/>
+      <c r="AEP43" s="15"/>
+      <c r="AEQ43" s="15"/>
+      <c r="AER43" s="15"/>
+      <c r="AES43" s="15"/>
+      <c r="AET43" s="15"/>
+      <c r="AEU43" s="15"/>
+      <c r="AEV43" s="15"/>
+      <c r="AEW43" s="15"/>
+      <c r="AEX43" s="15"/>
+      <c r="AEY43" s="15"/>
+      <c r="AEZ43" s="15"/>
+      <c r="AFA43" s="15"/>
+      <c r="AFB43" s="15"/>
+      <c r="AFC43" s="15"/>
+      <c r="AFD43" s="15"/>
+      <c r="AFE43" s="15"/>
+      <c r="AFF43" s="15"/>
+      <c r="AFG43" s="15"/>
+      <c r="AFH43" s="15"/>
+      <c r="AFI43" s="15"/>
+      <c r="AFJ43" s="15"/>
+      <c r="AFK43" s="15"/>
+      <c r="AFL43" s="15"/>
+      <c r="AFM43" s="15"/>
+      <c r="AFN43" s="15"/>
+      <c r="AFO43" s="15"/>
+      <c r="AFP43" s="15"/>
+      <c r="AFQ43" s="15"/>
+      <c r="AFR43" s="15"/>
+      <c r="AFS43" s="15"/>
+      <c r="AFT43" s="15"/>
+      <c r="AFU43" s="15"/>
+      <c r="AFV43" s="15"/>
+      <c r="AFW43" s="15"/>
+      <c r="AFX43" s="15"/>
+      <c r="AFY43" s="15"/>
+      <c r="AFZ43" s="15"/>
+      <c r="AGA43" s="15"/>
+      <c r="AGB43" s="15"/>
+      <c r="AGC43" s="15"/>
+      <c r="AGD43" s="15"/>
+      <c r="AGE43" s="15"/>
+      <c r="AGF43" s="15"/>
+      <c r="AGG43" s="15"/>
+      <c r="AGH43" s="15"/>
+      <c r="AGI43" s="15"/>
+      <c r="AGJ43" s="15"/>
+      <c r="AGK43" s="15"/>
+      <c r="AGL43" s="15"/>
+      <c r="AGM43" s="15"/>
+      <c r="AGN43" s="15"/>
+      <c r="AGO43" s="15"/>
+      <c r="AGP43" s="15"/>
+      <c r="AGQ43" s="15"/>
+      <c r="AGR43" s="15"/>
+      <c r="AGS43" s="15"/>
+      <c r="AGT43" s="15"/>
+      <c r="AGU43" s="15"/>
+      <c r="AGV43" s="15"/>
+      <c r="AGW43" s="15"/>
+      <c r="AGX43" s="15"/>
+      <c r="AGY43" s="15"/>
+      <c r="AGZ43" s="15"/>
+      <c r="AHA43" s="15"/>
+      <c r="AHB43" s="15"/>
+      <c r="AHC43" s="15"/>
+      <c r="AHD43" s="15"/>
+      <c r="AHE43" s="15"/>
+      <c r="AHF43" s="15"/>
+      <c r="AHG43" s="15"/>
+      <c r="AHH43" s="15"/>
+      <c r="AHI43" s="15"/>
+      <c r="AHJ43" s="15"/>
+      <c r="AHK43" s="15"/>
+      <c r="AHL43" s="15"/>
+      <c r="AHM43" s="15"/>
+      <c r="AHN43" s="15"/>
+      <c r="AHO43" s="15"/>
+      <c r="AHP43" s="15"/>
+      <c r="AHQ43" s="15"/>
+      <c r="AHR43" s="15"/>
+      <c r="AHS43" s="15"/>
+      <c r="AHT43" s="15"/>
+      <c r="AHU43" s="15"/>
+      <c r="AHV43" s="15"/>
+      <c r="AHW43" s="15"/>
+      <c r="AHX43" s="15"/>
+      <c r="AHY43" s="15"/>
+      <c r="AHZ43" s="15"/>
+      <c r="AIA43" s="15"/>
+      <c r="AIB43" s="15"/>
+      <c r="AIC43" s="15"/>
+      <c r="AID43" s="15"/>
+      <c r="AIE43" s="15"/>
+      <c r="AIF43" s="15"/>
+      <c r="AIG43" s="15"/>
+      <c r="AIH43" s="15"/>
+      <c r="AII43" s="15"/>
+      <c r="AIJ43" s="15"/>
+      <c r="AIK43" s="15"/>
+      <c r="AIL43" s="15"/>
+      <c r="AIM43" s="15"/>
+      <c r="AIN43" s="15"/>
+      <c r="AIO43" s="15"/>
+      <c r="AIP43" s="15"/>
+      <c r="AIQ43" s="15"/>
+      <c r="AIR43" s="15"/>
+      <c r="AIS43" s="15"/>
+      <c r="AIT43" s="15"/>
+      <c r="AIU43" s="15"/>
+      <c r="AIV43" s="15"/>
+      <c r="AIW43" s="15"/>
+      <c r="AIX43" s="15"/>
+      <c r="AIY43" s="15"/>
+      <c r="AIZ43" s="15"/>
+      <c r="AJA43" s="15"/>
+      <c r="AJB43" s="15"/>
+      <c r="AJC43" s="15"/>
+      <c r="AJD43" s="15"/>
+      <c r="AJE43" s="15"/>
+      <c r="AJF43" s="15"/>
+      <c r="AJG43" s="15"/>
+      <c r="AJH43" s="15"/>
+      <c r="AJI43" s="15"/>
+      <c r="AJJ43" s="15"/>
+      <c r="AJK43" s="15"/>
+      <c r="AJL43" s="15"/>
+      <c r="AJM43" s="15"/>
+      <c r="AJN43" s="15"/>
+      <c r="AJO43" s="15"/>
+      <c r="AJP43" s="15"/>
+      <c r="AJQ43" s="15"/>
+      <c r="AJR43" s="15"/>
+      <c r="AJS43" s="15"/>
+      <c r="AJT43" s="15"/>
+      <c r="AJU43" s="15"/>
+      <c r="AJV43" s="15"/>
+      <c r="AJW43" s="15"/>
+      <c r="AJX43" s="15"/>
+      <c r="AJY43" s="15"/>
+      <c r="AJZ43" s="15"/>
+      <c r="AKA43" s="15"/>
+      <c r="AKB43" s="15"/>
+      <c r="AKC43" s="15"/>
+      <c r="AKD43" s="15"/>
+      <c r="AKE43" s="15"/>
+      <c r="AKF43" s="15"/>
+      <c r="AKG43" s="15"/>
+      <c r="AKH43" s="15"/>
+      <c r="AKI43" s="15"/>
+      <c r="AKJ43" s="15"/>
+      <c r="AKK43" s="15"/>
+      <c r="AKL43" s="15"/>
+      <c r="AKM43" s="15"/>
+      <c r="AKN43" s="15"/>
+      <c r="AKO43" s="15"/>
+      <c r="AKP43" s="15"/>
+      <c r="AKQ43" s="15"/>
+      <c r="AKR43" s="15"/>
+      <c r="AKS43" s="15"/>
+      <c r="AKT43" s="15"/>
+      <c r="AKU43" s="15"/>
+      <c r="AKV43" s="15"/>
+      <c r="AKW43" s="15"/>
+      <c r="AKX43" s="15"/>
+      <c r="AKY43" s="15"/>
+      <c r="AKZ43" s="15"/>
+      <c r="ALA43" s="15"/>
+      <c r="ALB43" s="15"/>
+      <c r="ALC43" s="15"/>
+      <c r="ALD43" s="15"/>
+      <c r="ALE43" s="15"/>
+      <c r="ALF43" s="15"/>
+      <c r="ALG43" s="15"/>
+      <c r="ALH43" s="15"/>
+      <c r="ALI43" s="15"/>
+      <c r="ALJ43" s="15"/>
+      <c r="ALK43" s="15"/>
+      <c r="ALL43" s="15"/>
+      <c r="ALM43" s="15"/>
+      <c r="ALN43" s="15"/>
+      <c r="ALO43" s="15"/>
+      <c r="ALP43" s="15"/>
+      <c r="ALQ43" s="15"/>
+      <c r="ALR43" s="15"/>
+      <c r="ALS43" s="15"/>
+      <c r="ALT43" s="15"/>
+      <c r="ALU43" s="15"/>
+      <c r="ALV43" s="15"/>
+      <c r="ALW43" s="15"/>
+      <c r="ALX43" s="15"/>
+      <c r="ALY43" s="15"/>
+      <c r="ALZ43" s="15"/>
+      <c r="AMA43" s="15"/>
+      <c r="AMB43" s="15"/>
+      <c r="AMC43" s="15"/>
+      <c r="AMD43" s="15"/>
+      <c r="AME43" s="15"/>
+      <c r="AMF43" s="15"/>
+      <c r="AMG43" s="15"/>
+      <c r="AMH43" s="15"/>
+      <c r="AMI43" s="15"/>
+      <c r="AMJ43" s="15"/>
+      <c r="AMK43" s="15"/>
+      <c r="AML43" s="15"/>
+      <c r="AMM43" s="15"/>
     </row>
     <row r="44" spans="1:1028" s="20" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -7602,7 +11688,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1027" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>156</v>
       </c>
@@ -7638,7 +11724,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>160</v>
       </c>
@@ -7667,7 +11753,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>163</v>
       </c>
@@ -7693,7 +11779,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>169</v>
       </c>
@@ -7726,7 +11812,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>172</v>
       </c>
@@ -7752,7 +11838,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1027" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>177</v>
       </c>
@@ -7790,7 +11876,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1027" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>181</v>
       </c>
@@ -7819,7 +11905,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>184</v>
       </c>
@@ -7849,7 +11935,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>188</v>
       </c>
@@ -7875,39 +11961,1058 @@
         <v>537</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:1027" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H58" s="8" t="s">
+      <c r="G58" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H58" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="N58" s="7" t="s">
+      <c r="I58" s="18">
+        <v>45260</v>
+      </c>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="O58" s="10" t="s">
+      <c r="O58" s="17" t="s">
         <v>537</v>
       </c>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="15"/>
+      <c r="AE58" s="15"/>
+      <c r="AF58" s="15"/>
+      <c r="AG58" s="15"/>
+      <c r="AH58" s="15"/>
+      <c r="AI58" s="15"/>
+      <c r="AJ58" s="15"/>
+      <c r="AK58" s="15"/>
+      <c r="AL58" s="15"/>
+      <c r="AM58" s="15"/>
+      <c r="AN58" s="15"/>
+      <c r="AO58" s="15"/>
+      <c r="AP58" s="15"/>
+      <c r="AQ58" s="15"/>
+      <c r="AR58" s="15"/>
+      <c r="AS58" s="15"/>
+      <c r="AT58" s="15"/>
+      <c r="AU58" s="15"/>
+      <c r="AV58" s="15"/>
+      <c r="AW58" s="15"/>
+      <c r="AX58" s="15"/>
+      <c r="AY58" s="15"/>
+      <c r="AZ58" s="15"/>
+      <c r="BA58" s="15"/>
+      <c r="BB58" s="15"/>
+      <c r="BC58" s="15"/>
+      <c r="BD58" s="15"/>
+      <c r="BE58" s="15"/>
+      <c r="BF58" s="15"/>
+      <c r="BG58" s="15"/>
+      <c r="BH58" s="15"/>
+      <c r="BI58" s="15"/>
+      <c r="BJ58" s="15"/>
+      <c r="BK58" s="15"/>
+      <c r="BL58" s="15"/>
+      <c r="BM58" s="15"/>
+      <c r="BN58" s="15"/>
+      <c r="BO58" s="15"/>
+      <c r="BP58" s="15"/>
+      <c r="BQ58" s="15"/>
+      <c r="BR58" s="15"/>
+      <c r="BS58" s="15"/>
+      <c r="BT58" s="15"/>
+      <c r="BU58" s="15"/>
+      <c r="BV58" s="15"/>
+      <c r="BW58" s="15"/>
+      <c r="BX58" s="15"/>
+      <c r="BY58" s="15"/>
+      <c r="BZ58" s="15"/>
+      <c r="CA58" s="15"/>
+      <c r="CB58" s="15"/>
+      <c r="CC58" s="15"/>
+      <c r="CD58" s="15"/>
+      <c r="CE58" s="15"/>
+      <c r="CF58" s="15"/>
+      <c r="CG58" s="15"/>
+      <c r="CH58" s="15"/>
+      <c r="CI58" s="15"/>
+      <c r="CJ58" s="15"/>
+      <c r="CK58" s="15"/>
+      <c r="CL58" s="15"/>
+      <c r="CM58" s="15"/>
+      <c r="CN58" s="15"/>
+      <c r="CO58" s="15"/>
+      <c r="CP58" s="15"/>
+      <c r="CQ58" s="15"/>
+      <c r="CR58" s="15"/>
+      <c r="CS58" s="15"/>
+      <c r="CT58" s="15"/>
+      <c r="CU58" s="15"/>
+      <c r="CV58" s="15"/>
+      <c r="CW58" s="15"/>
+      <c r="CX58" s="15"/>
+      <c r="CY58" s="15"/>
+      <c r="CZ58" s="15"/>
+      <c r="DA58" s="15"/>
+      <c r="DB58" s="15"/>
+      <c r="DC58" s="15"/>
+      <c r="DD58" s="15"/>
+      <c r="DE58" s="15"/>
+      <c r="DF58" s="15"/>
+      <c r="DG58" s="15"/>
+      <c r="DH58" s="15"/>
+      <c r="DI58" s="15"/>
+      <c r="DJ58" s="15"/>
+      <c r="DK58" s="15"/>
+      <c r="DL58" s="15"/>
+      <c r="DM58" s="15"/>
+      <c r="DN58" s="15"/>
+      <c r="DO58" s="15"/>
+      <c r="DP58" s="15"/>
+      <c r="DQ58" s="15"/>
+      <c r="DR58" s="15"/>
+      <c r="DS58" s="15"/>
+      <c r="DT58" s="15"/>
+      <c r="DU58" s="15"/>
+      <c r="DV58" s="15"/>
+      <c r="DW58" s="15"/>
+      <c r="DX58" s="15"/>
+      <c r="DY58" s="15"/>
+      <c r="DZ58" s="15"/>
+      <c r="EA58" s="15"/>
+      <c r="EB58" s="15"/>
+      <c r="EC58" s="15"/>
+      <c r="ED58" s="15"/>
+      <c r="EE58" s="15"/>
+      <c r="EF58" s="15"/>
+      <c r="EG58" s="15"/>
+      <c r="EH58" s="15"/>
+      <c r="EI58" s="15"/>
+      <c r="EJ58" s="15"/>
+      <c r="EK58" s="15"/>
+      <c r="EL58" s="15"/>
+      <c r="EM58" s="15"/>
+      <c r="EN58" s="15"/>
+      <c r="EO58" s="15"/>
+      <c r="EP58" s="15"/>
+      <c r="EQ58" s="15"/>
+      <c r="ER58" s="15"/>
+      <c r="ES58" s="15"/>
+      <c r="ET58" s="15"/>
+      <c r="EU58" s="15"/>
+      <c r="EV58" s="15"/>
+      <c r="EW58" s="15"/>
+      <c r="EX58" s="15"/>
+      <c r="EY58" s="15"/>
+      <c r="EZ58" s="15"/>
+      <c r="FA58" s="15"/>
+      <c r="FB58" s="15"/>
+      <c r="FC58" s="15"/>
+      <c r="FD58" s="15"/>
+      <c r="FE58" s="15"/>
+      <c r="FF58" s="15"/>
+      <c r="FG58" s="15"/>
+      <c r="FH58" s="15"/>
+      <c r="FI58" s="15"/>
+      <c r="FJ58" s="15"/>
+      <c r="FK58" s="15"/>
+      <c r="FL58" s="15"/>
+      <c r="FM58" s="15"/>
+      <c r="FN58" s="15"/>
+      <c r="FO58" s="15"/>
+      <c r="FP58" s="15"/>
+      <c r="FQ58" s="15"/>
+      <c r="FR58" s="15"/>
+      <c r="FS58" s="15"/>
+      <c r="FT58" s="15"/>
+      <c r="FU58" s="15"/>
+      <c r="FV58" s="15"/>
+      <c r="FW58" s="15"/>
+      <c r="FX58" s="15"/>
+      <c r="FY58" s="15"/>
+      <c r="FZ58" s="15"/>
+      <c r="GA58" s="15"/>
+      <c r="GB58" s="15"/>
+      <c r="GC58" s="15"/>
+      <c r="GD58" s="15"/>
+      <c r="GE58" s="15"/>
+      <c r="GF58" s="15"/>
+      <c r="GG58" s="15"/>
+      <c r="GH58" s="15"/>
+      <c r="GI58" s="15"/>
+      <c r="GJ58" s="15"/>
+      <c r="GK58" s="15"/>
+      <c r="GL58" s="15"/>
+      <c r="GM58" s="15"/>
+      <c r="GN58" s="15"/>
+      <c r="GO58" s="15"/>
+      <c r="GP58" s="15"/>
+      <c r="GQ58" s="15"/>
+      <c r="GR58" s="15"/>
+      <c r="GS58" s="15"/>
+      <c r="GT58" s="15"/>
+      <c r="GU58" s="15"/>
+      <c r="GV58" s="15"/>
+      <c r="GW58" s="15"/>
+      <c r="GX58" s="15"/>
+      <c r="GY58" s="15"/>
+      <c r="GZ58" s="15"/>
+      <c r="HA58" s="15"/>
+      <c r="HB58" s="15"/>
+      <c r="HC58" s="15"/>
+      <c r="HD58" s="15"/>
+      <c r="HE58" s="15"/>
+      <c r="HF58" s="15"/>
+      <c r="HG58" s="15"/>
+      <c r="HH58" s="15"/>
+      <c r="HI58" s="15"/>
+      <c r="HJ58" s="15"/>
+      <c r="HK58" s="15"/>
+      <c r="HL58" s="15"/>
+      <c r="HM58" s="15"/>
+      <c r="HN58" s="15"/>
+      <c r="HO58" s="15"/>
+      <c r="HP58" s="15"/>
+      <c r="HQ58" s="15"/>
+      <c r="HR58" s="15"/>
+      <c r="HS58" s="15"/>
+      <c r="HT58" s="15"/>
+      <c r="HU58" s="15"/>
+      <c r="HV58" s="15"/>
+      <c r="HW58" s="15"/>
+      <c r="HX58" s="15"/>
+      <c r="HY58" s="15"/>
+      <c r="HZ58" s="15"/>
+      <c r="IA58" s="15"/>
+      <c r="IB58" s="15"/>
+      <c r="IC58" s="15"/>
+      <c r="ID58" s="15"/>
+      <c r="IE58" s="15"/>
+      <c r="IF58" s="15"/>
+      <c r="IG58" s="15"/>
+      <c r="IH58" s="15"/>
+      <c r="II58" s="15"/>
+      <c r="IJ58" s="15"/>
+      <c r="IK58" s="15"/>
+      <c r="IL58" s="15"/>
+      <c r="IM58" s="15"/>
+      <c r="IN58" s="15"/>
+      <c r="IO58" s="15"/>
+      <c r="IP58" s="15"/>
+      <c r="IQ58" s="15"/>
+      <c r="IR58" s="15"/>
+      <c r="IS58" s="15"/>
+      <c r="IT58" s="15"/>
+      <c r="IU58" s="15"/>
+      <c r="IV58" s="15"/>
+      <c r="IW58" s="15"/>
+      <c r="IX58" s="15"/>
+      <c r="IY58" s="15"/>
+      <c r="IZ58" s="15"/>
+      <c r="JA58" s="15"/>
+      <c r="JB58" s="15"/>
+      <c r="JC58" s="15"/>
+      <c r="JD58" s="15"/>
+      <c r="JE58" s="15"/>
+      <c r="JF58" s="15"/>
+      <c r="JG58" s="15"/>
+      <c r="JH58" s="15"/>
+      <c r="JI58" s="15"/>
+      <c r="JJ58" s="15"/>
+      <c r="JK58" s="15"/>
+      <c r="JL58" s="15"/>
+      <c r="JM58" s="15"/>
+      <c r="JN58" s="15"/>
+      <c r="JO58" s="15"/>
+      <c r="JP58" s="15"/>
+      <c r="JQ58" s="15"/>
+      <c r="JR58" s="15"/>
+      <c r="JS58" s="15"/>
+      <c r="JT58" s="15"/>
+      <c r="JU58" s="15"/>
+      <c r="JV58" s="15"/>
+      <c r="JW58" s="15"/>
+      <c r="JX58" s="15"/>
+      <c r="JY58" s="15"/>
+      <c r="JZ58" s="15"/>
+      <c r="KA58" s="15"/>
+      <c r="KB58" s="15"/>
+      <c r="KC58" s="15"/>
+      <c r="KD58" s="15"/>
+      <c r="KE58" s="15"/>
+      <c r="KF58" s="15"/>
+      <c r="KG58" s="15"/>
+      <c r="KH58" s="15"/>
+      <c r="KI58" s="15"/>
+      <c r="KJ58" s="15"/>
+      <c r="KK58" s="15"/>
+      <c r="KL58" s="15"/>
+      <c r="KM58" s="15"/>
+      <c r="KN58" s="15"/>
+      <c r="KO58" s="15"/>
+      <c r="KP58" s="15"/>
+      <c r="KQ58" s="15"/>
+      <c r="KR58" s="15"/>
+      <c r="KS58" s="15"/>
+      <c r="KT58" s="15"/>
+      <c r="KU58" s="15"/>
+      <c r="KV58" s="15"/>
+      <c r="KW58" s="15"/>
+      <c r="KX58" s="15"/>
+      <c r="KY58" s="15"/>
+      <c r="KZ58" s="15"/>
+      <c r="LA58" s="15"/>
+      <c r="LB58" s="15"/>
+      <c r="LC58" s="15"/>
+      <c r="LD58" s="15"/>
+      <c r="LE58" s="15"/>
+      <c r="LF58" s="15"/>
+      <c r="LG58" s="15"/>
+      <c r="LH58" s="15"/>
+      <c r="LI58" s="15"/>
+      <c r="LJ58" s="15"/>
+      <c r="LK58" s="15"/>
+      <c r="LL58" s="15"/>
+      <c r="LM58" s="15"/>
+      <c r="LN58" s="15"/>
+      <c r="LO58" s="15"/>
+      <c r="LP58" s="15"/>
+      <c r="LQ58" s="15"/>
+      <c r="LR58" s="15"/>
+      <c r="LS58" s="15"/>
+      <c r="LT58" s="15"/>
+      <c r="LU58" s="15"/>
+      <c r="LV58" s="15"/>
+      <c r="LW58" s="15"/>
+      <c r="LX58" s="15"/>
+      <c r="LY58" s="15"/>
+      <c r="LZ58" s="15"/>
+      <c r="MA58" s="15"/>
+      <c r="MB58" s="15"/>
+      <c r="MC58" s="15"/>
+      <c r="MD58" s="15"/>
+      <c r="ME58" s="15"/>
+      <c r="MF58" s="15"/>
+      <c r="MG58" s="15"/>
+      <c r="MH58" s="15"/>
+      <c r="MI58" s="15"/>
+      <c r="MJ58" s="15"/>
+      <c r="MK58" s="15"/>
+      <c r="ML58" s="15"/>
+      <c r="MM58" s="15"/>
+      <c r="MN58" s="15"/>
+      <c r="MO58" s="15"/>
+      <c r="MP58" s="15"/>
+      <c r="MQ58" s="15"/>
+      <c r="MR58" s="15"/>
+      <c r="MS58" s="15"/>
+      <c r="MT58" s="15"/>
+      <c r="MU58" s="15"/>
+      <c r="MV58" s="15"/>
+      <c r="MW58" s="15"/>
+      <c r="MX58" s="15"/>
+      <c r="MY58" s="15"/>
+      <c r="MZ58" s="15"/>
+      <c r="NA58" s="15"/>
+      <c r="NB58" s="15"/>
+      <c r="NC58" s="15"/>
+      <c r="ND58" s="15"/>
+      <c r="NE58" s="15"/>
+      <c r="NF58" s="15"/>
+      <c r="NG58" s="15"/>
+      <c r="NH58" s="15"/>
+      <c r="NI58" s="15"/>
+      <c r="NJ58" s="15"/>
+      <c r="NK58" s="15"/>
+      <c r="NL58" s="15"/>
+      <c r="NM58" s="15"/>
+      <c r="NN58" s="15"/>
+      <c r="NO58" s="15"/>
+      <c r="NP58" s="15"/>
+      <c r="NQ58" s="15"/>
+      <c r="NR58" s="15"/>
+      <c r="NS58" s="15"/>
+      <c r="NT58" s="15"/>
+      <c r="NU58" s="15"/>
+      <c r="NV58" s="15"/>
+      <c r="NW58" s="15"/>
+      <c r="NX58" s="15"/>
+      <c r="NY58" s="15"/>
+      <c r="NZ58" s="15"/>
+      <c r="OA58" s="15"/>
+      <c r="OB58" s="15"/>
+      <c r="OC58" s="15"/>
+      <c r="OD58" s="15"/>
+      <c r="OE58" s="15"/>
+      <c r="OF58" s="15"/>
+      <c r="OG58" s="15"/>
+      <c r="OH58" s="15"/>
+      <c r="OI58" s="15"/>
+      <c r="OJ58" s="15"/>
+      <c r="OK58" s="15"/>
+      <c r="OL58" s="15"/>
+      <c r="OM58" s="15"/>
+      <c r="ON58" s="15"/>
+      <c r="OO58" s="15"/>
+      <c r="OP58" s="15"/>
+      <c r="OQ58" s="15"/>
+      <c r="OR58" s="15"/>
+      <c r="OS58" s="15"/>
+      <c r="OT58" s="15"/>
+      <c r="OU58" s="15"/>
+      <c r="OV58" s="15"/>
+      <c r="OW58" s="15"/>
+      <c r="OX58" s="15"/>
+      <c r="OY58" s="15"/>
+      <c r="OZ58" s="15"/>
+      <c r="PA58" s="15"/>
+      <c r="PB58" s="15"/>
+      <c r="PC58" s="15"/>
+      <c r="PD58" s="15"/>
+      <c r="PE58" s="15"/>
+      <c r="PF58" s="15"/>
+      <c r="PG58" s="15"/>
+      <c r="PH58" s="15"/>
+      <c r="PI58" s="15"/>
+      <c r="PJ58" s="15"/>
+      <c r="PK58" s="15"/>
+      <c r="PL58" s="15"/>
+      <c r="PM58" s="15"/>
+      <c r="PN58" s="15"/>
+      <c r="PO58" s="15"/>
+      <c r="PP58" s="15"/>
+      <c r="PQ58" s="15"/>
+      <c r="PR58" s="15"/>
+      <c r="PS58" s="15"/>
+      <c r="PT58" s="15"/>
+      <c r="PU58" s="15"/>
+      <c r="PV58" s="15"/>
+      <c r="PW58" s="15"/>
+      <c r="PX58" s="15"/>
+      <c r="PY58" s="15"/>
+      <c r="PZ58" s="15"/>
+      <c r="QA58" s="15"/>
+      <c r="QB58" s="15"/>
+      <c r="QC58" s="15"/>
+      <c r="QD58" s="15"/>
+      <c r="QE58" s="15"/>
+      <c r="QF58" s="15"/>
+      <c r="QG58" s="15"/>
+      <c r="QH58" s="15"/>
+      <c r="QI58" s="15"/>
+      <c r="QJ58" s="15"/>
+      <c r="QK58" s="15"/>
+      <c r="QL58" s="15"/>
+      <c r="QM58" s="15"/>
+      <c r="QN58" s="15"/>
+      <c r="QO58" s="15"/>
+      <c r="QP58" s="15"/>
+      <c r="QQ58" s="15"/>
+      <c r="QR58" s="15"/>
+      <c r="QS58" s="15"/>
+      <c r="QT58" s="15"/>
+      <c r="QU58" s="15"/>
+      <c r="QV58" s="15"/>
+      <c r="QW58" s="15"/>
+      <c r="QX58" s="15"/>
+      <c r="QY58" s="15"/>
+      <c r="QZ58" s="15"/>
+      <c r="RA58" s="15"/>
+      <c r="RB58" s="15"/>
+      <c r="RC58" s="15"/>
+      <c r="RD58" s="15"/>
+      <c r="RE58" s="15"/>
+      <c r="RF58" s="15"/>
+      <c r="RG58" s="15"/>
+      <c r="RH58" s="15"/>
+      <c r="RI58" s="15"/>
+      <c r="RJ58" s="15"/>
+      <c r="RK58" s="15"/>
+      <c r="RL58" s="15"/>
+      <c r="RM58" s="15"/>
+      <c r="RN58" s="15"/>
+      <c r="RO58" s="15"/>
+      <c r="RP58" s="15"/>
+      <c r="RQ58" s="15"/>
+      <c r="RR58" s="15"/>
+      <c r="RS58" s="15"/>
+      <c r="RT58" s="15"/>
+      <c r="RU58" s="15"/>
+      <c r="RV58" s="15"/>
+      <c r="RW58" s="15"/>
+      <c r="RX58" s="15"/>
+      <c r="RY58" s="15"/>
+      <c r="RZ58" s="15"/>
+      <c r="SA58" s="15"/>
+      <c r="SB58" s="15"/>
+      <c r="SC58" s="15"/>
+      <c r="SD58" s="15"/>
+      <c r="SE58" s="15"/>
+      <c r="SF58" s="15"/>
+      <c r="SG58" s="15"/>
+      <c r="SH58" s="15"/>
+      <c r="SI58" s="15"/>
+      <c r="SJ58" s="15"/>
+      <c r="SK58" s="15"/>
+      <c r="SL58" s="15"/>
+      <c r="SM58" s="15"/>
+      <c r="SN58" s="15"/>
+      <c r="SO58" s="15"/>
+      <c r="SP58" s="15"/>
+      <c r="SQ58" s="15"/>
+      <c r="SR58" s="15"/>
+      <c r="SS58" s="15"/>
+      <c r="ST58" s="15"/>
+      <c r="SU58" s="15"/>
+      <c r="SV58" s="15"/>
+      <c r="SW58" s="15"/>
+      <c r="SX58" s="15"/>
+      <c r="SY58" s="15"/>
+      <c r="SZ58" s="15"/>
+      <c r="TA58" s="15"/>
+      <c r="TB58" s="15"/>
+      <c r="TC58" s="15"/>
+      <c r="TD58" s="15"/>
+      <c r="TE58" s="15"/>
+      <c r="TF58" s="15"/>
+      <c r="TG58" s="15"/>
+      <c r="TH58" s="15"/>
+      <c r="TI58" s="15"/>
+      <c r="TJ58" s="15"/>
+      <c r="TK58" s="15"/>
+      <c r="TL58" s="15"/>
+      <c r="TM58" s="15"/>
+      <c r="TN58" s="15"/>
+      <c r="TO58" s="15"/>
+      <c r="TP58" s="15"/>
+      <c r="TQ58" s="15"/>
+      <c r="TR58" s="15"/>
+      <c r="TS58" s="15"/>
+      <c r="TT58" s="15"/>
+      <c r="TU58" s="15"/>
+      <c r="TV58" s="15"/>
+      <c r="TW58" s="15"/>
+      <c r="TX58" s="15"/>
+      <c r="TY58" s="15"/>
+      <c r="TZ58" s="15"/>
+      <c r="UA58" s="15"/>
+      <c r="UB58" s="15"/>
+      <c r="UC58" s="15"/>
+      <c r="UD58" s="15"/>
+      <c r="UE58" s="15"/>
+      <c r="UF58" s="15"/>
+      <c r="UG58" s="15"/>
+      <c r="UH58" s="15"/>
+      <c r="UI58" s="15"/>
+      <c r="UJ58" s="15"/>
+      <c r="UK58" s="15"/>
+      <c r="UL58" s="15"/>
+      <c r="UM58" s="15"/>
+      <c r="UN58" s="15"/>
+      <c r="UO58" s="15"/>
+      <c r="UP58" s="15"/>
+      <c r="UQ58" s="15"/>
+      <c r="UR58" s="15"/>
+      <c r="US58" s="15"/>
+      <c r="UT58" s="15"/>
+      <c r="UU58" s="15"/>
+      <c r="UV58" s="15"/>
+      <c r="UW58" s="15"/>
+      <c r="UX58" s="15"/>
+      <c r="UY58" s="15"/>
+      <c r="UZ58" s="15"/>
+      <c r="VA58" s="15"/>
+      <c r="VB58" s="15"/>
+      <c r="VC58" s="15"/>
+      <c r="VD58" s="15"/>
+      <c r="VE58" s="15"/>
+      <c r="VF58" s="15"/>
+      <c r="VG58" s="15"/>
+      <c r="VH58" s="15"/>
+      <c r="VI58" s="15"/>
+      <c r="VJ58" s="15"/>
+      <c r="VK58" s="15"/>
+      <c r="VL58" s="15"/>
+      <c r="VM58" s="15"/>
+      <c r="VN58" s="15"/>
+      <c r="VO58" s="15"/>
+      <c r="VP58" s="15"/>
+      <c r="VQ58" s="15"/>
+      <c r="VR58" s="15"/>
+      <c r="VS58" s="15"/>
+      <c r="VT58" s="15"/>
+      <c r="VU58" s="15"/>
+      <c r="VV58" s="15"/>
+      <c r="VW58" s="15"/>
+      <c r="VX58" s="15"/>
+      <c r="VY58" s="15"/>
+      <c r="VZ58" s="15"/>
+      <c r="WA58" s="15"/>
+      <c r="WB58" s="15"/>
+      <c r="WC58" s="15"/>
+      <c r="WD58" s="15"/>
+      <c r="WE58" s="15"/>
+      <c r="WF58" s="15"/>
+      <c r="WG58" s="15"/>
+      <c r="WH58" s="15"/>
+      <c r="WI58" s="15"/>
+      <c r="WJ58" s="15"/>
+      <c r="WK58" s="15"/>
+      <c r="WL58" s="15"/>
+      <c r="WM58" s="15"/>
+      <c r="WN58" s="15"/>
+      <c r="WO58" s="15"/>
+      <c r="WP58" s="15"/>
+      <c r="WQ58" s="15"/>
+      <c r="WR58" s="15"/>
+      <c r="WS58" s="15"/>
+      <c r="WT58" s="15"/>
+      <c r="WU58" s="15"/>
+      <c r="WV58" s="15"/>
+      <c r="WW58" s="15"/>
+      <c r="WX58" s="15"/>
+      <c r="WY58" s="15"/>
+      <c r="WZ58" s="15"/>
+      <c r="XA58" s="15"/>
+      <c r="XB58" s="15"/>
+      <c r="XC58" s="15"/>
+      <c r="XD58" s="15"/>
+      <c r="XE58" s="15"/>
+      <c r="XF58" s="15"/>
+      <c r="XG58" s="15"/>
+      <c r="XH58" s="15"/>
+      <c r="XI58" s="15"/>
+      <c r="XJ58" s="15"/>
+      <c r="XK58" s="15"/>
+      <c r="XL58" s="15"/>
+      <c r="XM58" s="15"/>
+      <c r="XN58" s="15"/>
+      <c r="XO58" s="15"/>
+      <c r="XP58" s="15"/>
+      <c r="XQ58" s="15"/>
+      <c r="XR58" s="15"/>
+      <c r="XS58" s="15"/>
+      <c r="XT58" s="15"/>
+      <c r="XU58" s="15"/>
+      <c r="XV58" s="15"/>
+      <c r="XW58" s="15"/>
+      <c r="XX58" s="15"/>
+      <c r="XY58" s="15"/>
+      <c r="XZ58" s="15"/>
+      <c r="YA58" s="15"/>
+      <c r="YB58" s="15"/>
+      <c r="YC58" s="15"/>
+      <c r="YD58" s="15"/>
+      <c r="YE58" s="15"/>
+      <c r="YF58" s="15"/>
+      <c r="YG58" s="15"/>
+      <c r="YH58" s="15"/>
+      <c r="YI58" s="15"/>
+      <c r="YJ58" s="15"/>
+      <c r="YK58" s="15"/>
+      <c r="YL58" s="15"/>
+      <c r="YM58" s="15"/>
+      <c r="YN58" s="15"/>
+      <c r="YO58" s="15"/>
+      <c r="YP58" s="15"/>
+      <c r="YQ58" s="15"/>
+      <c r="YR58" s="15"/>
+      <c r="YS58" s="15"/>
+      <c r="YT58" s="15"/>
+      <c r="YU58" s="15"/>
+      <c r="YV58" s="15"/>
+      <c r="YW58" s="15"/>
+      <c r="YX58" s="15"/>
+      <c r="YY58" s="15"/>
+      <c r="YZ58" s="15"/>
+      <c r="ZA58" s="15"/>
+      <c r="ZB58" s="15"/>
+      <c r="ZC58" s="15"/>
+      <c r="ZD58" s="15"/>
+      <c r="ZE58" s="15"/>
+      <c r="ZF58" s="15"/>
+      <c r="ZG58" s="15"/>
+      <c r="ZH58" s="15"/>
+      <c r="ZI58" s="15"/>
+      <c r="ZJ58" s="15"/>
+      <c r="ZK58" s="15"/>
+      <c r="ZL58" s="15"/>
+      <c r="ZM58" s="15"/>
+      <c r="ZN58" s="15"/>
+      <c r="ZO58" s="15"/>
+      <c r="ZP58" s="15"/>
+      <c r="ZQ58" s="15"/>
+      <c r="ZR58" s="15"/>
+      <c r="ZS58" s="15"/>
+      <c r="ZT58" s="15"/>
+      <c r="ZU58" s="15"/>
+      <c r="ZV58" s="15"/>
+      <c r="ZW58" s="15"/>
+      <c r="ZX58" s="15"/>
+      <c r="ZY58" s="15"/>
+      <c r="ZZ58" s="15"/>
+      <c r="AAA58" s="15"/>
+      <c r="AAB58" s="15"/>
+      <c r="AAC58" s="15"/>
+      <c r="AAD58" s="15"/>
+      <c r="AAE58" s="15"/>
+      <c r="AAF58" s="15"/>
+      <c r="AAG58" s="15"/>
+      <c r="AAH58" s="15"/>
+      <c r="AAI58" s="15"/>
+      <c r="AAJ58" s="15"/>
+      <c r="AAK58" s="15"/>
+      <c r="AAL58" s="15"/>
+      <c r="AAM58" s="15"/>
+      <c r="AAN58" s="15"/>
+      <c r="AAO58" s="15"/>
+      <c r="AAP58" s="15"/>
+      <c r="AAQ58" s="15"/>
+      <c r="AAR58" s="15"/>
+      <c r="AAS58" s="15"/>
+      <c r="AAT58" s="15"/>
+      <c r="AAU58" s="15"/>
+      <c r="AAV58" s="15"/>
+      <c r="AAW58" s="15"/>
+      <c r="AAX58" s="15"/>
+      <c r="AAY58" s="15"/>
+      <c r="AAZ58" s="15"/>
+      <c r="ABA58" s="15"/>
+      <c r="ABB58" s="15"/>
+      <c r="ABC58" s="15"/>
+      <c r="ABD58" s="15"/>
+      <c r="ABE58" s="15"/>
+      <c r="ABF58" s="15"/>
+      <c r="ABG58" s="15"/>
+      <c r="ABH58" s="15"/>
+      <c r="ABI58" s="15"/>
+      <c r="ABJ58" s="15"/>
+      <c r="ABK58" s="15"/>
+      <c r="ABL58" s="15"/>
+      <c r="ABM58" s="15"/>
+      <c r="ABN58" s="15"/>
+      <c r="ABO58" s="15"/>
+      <c r="ABP58" s="15"/>
+      <c r="ABQ58" s="15"/>
+      <c r="ABR58" s="15"/>
+      <c r="ABS58" s="15"/>
+      <c r="ABT58" s="15"/>
+      <c r="ABU58" s="15"/>
+      <c r="ABV58" s="15"/>
+      <c r="ABW58" s="15"/>
+      <c r="ABX58" s="15"/>
+      <c r="ABY58" s="15"/>
+      <c r="ABZ58" s="15"/>
+      <c r="ACA58" s="15"/>
+      <c r="ACB58" s="15"/>
+      <c r="ACC58" s="15"/>
+      <c r="ACD58" s="15"/>
+      <c r="ACE58" s="15"/>
+      <c r="ACF58" s="15"/>
+      <c r="ACG58" s="15"/>
+      <c r="ACH58" s="15"/>
+      <c r="ACI58" s="15"/>
+      <c r="ACJ58" s="15"/>
+      <c r="ACK58" s="15"/>
+      <c r="ACL58" s="15"/>
+      <c r="ACM58" s="15"/>
+      <c r="ACN58" s="15"/>
+      <c r="ACO58" s="15"/>
+      <c r="ACP58" s="15"/>
+      <c r="ACQ58" s="15"/>
+      <c r="ACR58" s="15"/>
+      <c r="ACS58" s="15"/>
+      <c r="ACT58" s="15"/>
+      <c r="ACU58" s="15"/>
+      <c r="ACV58" s="15"/>
+      <c r="ACW58" s="15"/>
+      <c r="ACX58" s="15"/>
+      <c r="ACY58" s="15"/>
+      <c r="ACZ58" s="15"/>
+      <c r="ADA58" s="15"/>
+      <c r="ADB58" s="15"/>
+      <c r="ADC58" s="15"/>
+      <c r="ADD58" s="15"/>
+      <c r="ADE58" s="15"/>
+      <c r="ADF58" s="15"/>
+      <c r="ADG58" s="15"/>
+      <c r="ADH58" s="15"/>
+      <c r="ADI58" s="15"/>
+      <c r="ADJ58" s="15"/>
+      <c r="ADK58" s="15"/>
+      <c r="ADL58" s="15"/>
+      <c r="ADM58" s="15"/>
+      <c r="ADN58" s="15"/>
+      <c r="ADO58" s="15"/>
+      <c r="ADP58" s="15"/>
+      <c r="ADQ58" s="15"/>
+      <c r="ADR58" s="15"/>
+      <c r="ADS58" s="15"/>
+      <c r="ADT58" s="15"/>
+      <c r="ADU58" s="15"/>
+      <c r="ADV58" s="15"/>
+      <c r="ADW58" s="15"/>
+      <c r="ADX58" s="15"/>
+      <c r="ADY58" s="15"/>
+      <c r="ADZ58" s="15"/>
+      <c r="AEA58" s="15"/>
+      <c r="AEB58" s="15"/>
+      <c r="AEC58" s="15"/>
+      <c r="AED58" s="15"/>
+      <c r="AEE58" s="15"/>
+      <c r="AEF58" s="15"/>
+      <c r="AEG58" s="15"/>
+      <c r="AEH58" s="15"/>
+      <c r="AEI58" s="15"/>
+      <c r="AEJ58" s="15"/>
+      <c r="AEK58" s="15"/>
+      <c r="AEL58" s="15"/>
+      <c r="AEM58" s="15"/>
+      <c r="AEN58" s="15"/>
+      <c r="AEO58" s="15"/>
+      <c r="AEP58" s="15"/>
+      <c r="AEQ58" s="15"/>
+      <c r="AER58" s="15"/>
+      <c r="AES58" s="15"/>
+      <c r="AET58" s="15"/>
+      <c r="AEU58" s="15"/>
+      <c r="AEV58" s="15"/>
+      <c r="AEW58" s="15"/>
+      <c r="AEX58" s="15"/>
+      <c r="AEY58" s="15"/>
+      <c r="AEZ58" s="15"/>
+      <c r="AFA58" s="15"/>
+      <c r="AFB58" s="15"/>
+      <c r="AFC58" s="15"/>
+      <c r="AFD58" s="15"/>
+      <c r="AFE58" s="15"/>
+      <c r="AFF58" s="15"/>
+      <c r="AFG58" s="15"/>
+      <c r="AFH58" s="15"/>
+      <c r="AFI58" s="15"/>
+      <c r="AFJ58" s="15"/>
+      <c r="AFK58" s="15"/>
+      <c r="AFL58" s="15"/>
+      <c r="AFM58" s="15"/>
+      <c r="AFN58" s="15"/>
+      <c r="AFO58" s="15"/>
+      <c r="AFP58" s="15"/>
+      <c r="AFQ58" s="15"/>
+      <c r="AFR58" s="15"/>
+      <c r="AFS58" s="15"/>
+      <c r="AFT58" s="15"/>
+      <c r="AFU58" s="15"/>
+      <c r="AFV58" s="15"/>
+      <c r="AFW58" s="15"/>
+      <c r="AFX58" s="15"/>
+      <c r="AFY58" s="15"/>
+      <c r="AFZ58" s="15"/>
+      <c r="AGA58" s="15"/>
+      <c r="AGB58" s="15"/>
+      <c r="AGC58" s="15"/>
+      <c r="AGD58" s="15"/>
+      <c r="AGE58" s="15"/>
+      <c r="AGF58" s="15"/>
+      <c r="AGG58" s="15"/>
+      <c r="AGH58" s="15"/>
+      <c r="AGI58" s="15"/>
+      <c r="AGJ58" s="15"/>
+      <c r="AGK58" s="15"/>
+      <c r="AGL58" s="15"/>
+      <c r="AGM58" s="15"/>
+      <c r="AGN58" s="15"/>
+      <c r="AGO58" s="15"/>
+      <c r="AGP58" s="15"/>
+      <c r="AGQ58" s="15"/>
+      <c r="AGR58" s="15"/>
+      <c r="AGS58" s="15"/>
+      <c r="AGT58" s="15"/>
+      <c r="AGU58" s="15"/>
+      <c r="AGV58" s="15"/>
+      <c r="AGW58" s="15"/>
+      <c r="AGX58" s="15"/>
+      <c r="AGY58" s="15"/>
+      <c r="AGZ58" s="15"/>
+      <c r="AHA58" s="15"/>
+      <c r="AHB58" s="15"/>
+      <c r="AHC58" s="15"/>
+      <c r="AHD58" s="15"/>
+      <c r="AHE58" s="15"/>
+      <c r="AHF58" s="15"/>
+      <c r="AHG58" s="15"/>
+      <c r="AHH58" s="15"/>
+      <c r="AHI58" s="15"/>
+      <c r="AHJ58" s="15"/>
+      <c r="AHK58" s="15"/>
+      <c r="AHL58" s="15"/>
+      <c r="AHM58" s="15"/>
+      <c r="AHN58" s="15"/>
+      <c r="AHO58" s="15"/>
+      <c r="AHP58" s="15"/>
+      <c r="AHQ58" s="15"/>
+      <c r="AHR58" s="15"/>
+      <c r="AHS58" s="15"/>
+      <c r="AHT58" s="15"/>
+      <c r="AHU58" s="15"/>
+      <c r="AHV58" s="15"/>
+      <c r="AHW58" s="15"/>
+      <c r="AHX58" s="15"/>
+      <c r="AHY58" s="15"/>
+      <c r="AHZ58" s="15"/>
+      <c r="AIA58" s="15"/>
+      <c r="AIB58" s="15"/>
+      <c r="AIC58" s="15"/>
+      <c r="AID58" s="15"/>
+      <c r="AIE58" s="15"/>
+      <c r="AIF58" s="15"/>
+      <c r="AIG58" s="15"/>
+      <c r="AIH58" s="15"/>
+      <c r="AII58" s="15"/>
+      <c r="AIJ58" s="15"/>
+      <c r="AIK58" s="15"/>
+      <c r="AIL58" s="15"/>
+      <c r="AIM58" s="15"/>
+      <c r="AIN58" s="15"/>
+      <c r="AIO58" s="15"/>
+      <c r="AIP58" s="15"/>
+      <c r="AIQ58" s="15"/>
+      <c r="AIR58" s="15"/>
+      <c r="AIS58" s="15"/>
+      <c r="AIT58" s="15"/>
+      <c r="AIU58" s="15"/>
+      <c r="AIV58" s="15"/>
+      <c r="AIW58" s="15"/>
+      <c r="AIX58" s="15"/>
+      <c r="AIY58" s="15"/>
+      <c r="AIZ58" s="15"/>
+      <c r="AJA58" s="15"/>
+      <c r="AJB58" s="15"/>
+      <c r="AJC58" s="15"/>
+      <c r="AJD58" s="15"/>
+      <c r="AJE58" s="15"/>
+      <c r="AJF58" s="15"/>
+      <c r="AJG58" s="15"/>
+      <c r="AJH58" s="15"/>
+      <c r="AJI58" s="15"/>
+      <c r="AJJ58" s="15"/>
+      <c r="AJK58" s="15"/>
+      <c r="AJL58" s="15"/>
+      <c r="AJM58" s="15"/>
+      <c r="AJN58" s="15"/>
+      <c r="AJO58" s="15"/>
+      <c r="AJP58" s="15"/>
+      <c r="AJQ58" s="15"/>
+      <c r="AJR58" s="15"/>
+      <c r="AJS58" s="15"/>
+      <c r="AJT58" s="15"/>
+      <c r="AJU58" s="15"/>
+      <c r="AJV58" s="15"/>
+      <c r="AJW58" s="15"/>
+      <c r="AJX58" s="15"/>
+      <c r="AJY58" s="15"/>
+      <c r="AJZ58" s="15"/>
+      <c r="AKA58" s="15"/>
+      <c r="AKB58" s="15"/>
+      <c r="AKC58" s="15"/>
+      <c r="AKD58" s="15"/>
+      <c r="AKE58" s="15"/>
+      <c r="AKF58" s="15"/>
+      <c r="AKG58" s="15"/>
+      <c r="AKH58" s="15"/>
+      <c r="AKI58" s="15"/>
+      <c r="AKJ58" s="15"/>
+      <c r="AKK58" s="15"/>
+      <c r="AKL58" s="15"/>
+      <c r="AKM58" s="15"/>
+      <c r="AKN58" s="15"/>
+      <c r="AKO58" s="15"/>
+      <c r="AKP58" s="15"/>
+      <c r="AKQ58" s="15"/>
+      <c r="AKR58" s="15"/>
+      <c r="AKS58" s="15"/>
+      <c r="AKT58" s="15"/>
+      <c r="AKU58" s="15"/>
+      <c r="AKV58" s="15"/>
+      <c r="AKW58" s="15"/>
+      <c r="AKX58" s="15"/>
+      <c r="AKY58" s="15"/>
+      <c r="AKZ58" s="15"/>
+      <c r="ALA58" s="15"/>
+      <c r="ALB58" s="15"/>
+      <c r="ALC58" s="15"/>
+      <c r="ALD58" s="15"/>
+      <c r="ALE58" s="15"/>
+      <c r="ALF58" s="15"/>
+      <c r="ALG58" s="15"/>
+      <c r="ALH58" s="15"/>
+      <c r="ALI58" s="15"/>
+      <c r="ALJ58" s="15"/>
+      <c r="ALK58" s="15"/>
+      <c r="ALL58" s="15"/>
+      <c r="ALM58" s="15"/>
+      <c r="ALN58" s="15"/>
+      <c r="ALO58" s="15"/>
+      <c r="ALP58" s="15"/>
+      <c r="ALQ58" s="15"/>
+      <c r="ALR58" s="15"/>
+      <c r="ALS58" s="15"/>
+      <c r="ALT58" s="15"/>
+      <c r="ALU58" s="15"/>
+      <c r="ALV58" s="15"/>
+      <c r="ALW58" s="15"/>
+      <c r="ALX58" s="15"/>
+      <c r="ALY58" s="15"/>
+      <c r="ALZ58" s="15"/>
+      <c r="AMA58" s="15"/>
+      <c r="AMB58" s="15"/>
+      <c r="AMC58" s="15"/>
+      <c r="AMD58" s="15"/>
+      <c r="AME58" s="15"/>
+      <c r="AMF58" s="15"/>
+      <c r="AMG58" s="15"/>
+      <c r="AMH58" s="15"/>
+      <c r="AMI58" s="15"/>
+      <c r="AMJ58" s="15"/>
+      <c r="AMK58" s="15"/>
+      <c r="AML58" s="15"/>
+      <c r="AMM58" s="15"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>193</v>
       </c>
@@ -7931,7 +13036,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>197</v>
       </c>
@@ -7955,7 +13060,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>201</v>
       </c>
@@ -7979,7 +13084,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>205</v>
       </c>
@@ -8003,7 +13108,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>208</v>
       </c>
@@ -8027,7 +13132,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>212</v>
       </c>

--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.6.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1FE00C-50C9-4445-90FA-8EA5ECEC8434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5B6E5-0624-4AD9-8EF0-18B0F5675468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="780" windowWidth="15180" windowHeight="20010" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
@@ -2749,10 +2749,10 @@
   <dimension ref="A1:AMN101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4287,7 +4287,7 @@
         <v>413</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
@@ -5340,7 +5340,7 @@
       </c>
       <c r="N41" s="15"/>
       <c r="O41" s="17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="N42" s="15"/>
       <c r="O42" s="17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
@@ -7446,7 +7446,7 @@
         <v>414</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
@@ -11997,7 +11997,7 @@
         <v>420</v>
       </c>
       <c r="O58" s="17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
@@ -14885,7 +14885,7 @@
         <v>459</v>
       </c>
       <c r="I93" s="22">
-        <v>45170</v>
+        <v>45230</v>
       </c>
       <c r="J93" s="19" t="s">
         <v>330</v>
